--- a/on_trucks/Processed_Stand_Alone/52_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/52_455-55R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>107</v>
       </c>
       <c r="E2">
-        <v>0.0007076180852038352</v>
+        <v>0.0006942174496270176</v>
       </c>
       <c r="F2">
         <v>0.5052514136467774</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>135</v>
       </c>
       <c r="E3">
-        <v>0.008546402546217696</v>
+        <v>0.008413532180977179</v>
       </c>
       <c r="F3">
         <v>0.5156431414980401</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>135</v>
       </c>
       <c r="E4">
-        <v>0.007337227212269103</v>
+        <v>0.007155286256008331</v>
       </c>
       <c r="F4">
         <v>0.5041565906678032</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>109</v>
       </c>
       <c r="E5">
-        <v>0.04708725921599653</v>
+        <v>0.003600573431766299</v>
       </c>
       <c r="F5">
         <v>0.5195726481644108</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>104</v>
       </c>
       <c r="E6">
-        <v>0.002155975523322846</v>
+        <v>0.001727062387636848</v>
       </c>
       <c r="F6">
         <v>0.5058474841561392</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>143</v>
       </c>
       <c r="E2">
-        <v>0.0007076180852038352</v>
+        <v>0.0006942174496270176</v>
       </c>
       <c r="F2">
         <v>0.7058232843156635</v>
       </c>
       <c r="G2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>148</v>
       </c>
       <c r="E3">
-        <v>0.008546402546217696</v>
+        <v>0.008413532180977179</v>
       </c>
       <c r="F3">
         <v>0.7082569445067006</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>149</v>
       </c>
       <c r="E4">
-        <v>0.007337227212269103</v>
+        <v>0.007155286256008331</v>
       </c>
       <c r="F4">
         <v>0.7551519701321189</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>157</v>
       </c>
       <c r="E5">
-        <v>0.04708725921599653</v>
+        <v>0.003600573431766299</v>
       </c>
       <c r="F5">
         <v>0.7020237020804905</v>
       </c>
       <c r="G5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>155</v>
       </c>
       <c r="E6">
-        <v>0.002155975523322846</v>
+        <v>0.001727062387636848</v>
       </c>
       <c r="F6">
         <v>0.7068908787954226</v>
       </c>
       <c r="G6">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>162</v>
       </c>
       <c r="E2">
-        <v>0.0007076180852038352</v>
+        <v>0.0006942174496270176</v>
       </c>
       <c r="F2">
         <v>0.8056383499335763</v>
       </c>
       <c r="G2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>150</v>
       </c>
       <c r="E3">
-        <v>0.008546402546217696</v>
+        <v>0.008413532180977179</v>
       </c>
       <c r="F3">
         <v>0.8032277446786122</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>151</v>
       </c>
       <c r="E4">
-        <v>0.007337227212269103</v>
+        <v>0.007155286256008331</v>
       </c>
       <c r="F4">
         <v>0.8005599577014471</v>
       </c>
       <c r="G4">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>163</v>
       </c>
       <c r="E5">
-        <v>0.04708725921599653</v>
+        <v>0.003600573431766299</v>
       </c>
       <c r="F5">
         <v>0.8045536420408362</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>162</v>
       </c>
       <c r="E6">
-        <v>0.002155975523322846</v>
+        <v>0.001727062387636848</v>
       </c>
       <c r="F6">
         <v>0.8145491432826221</v>
       </c>
       <c r="G6">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>180</v>
       </c>
       <c r="E2">
-        <v>0.0007076180852038352</v>
+        <v>0.0006942174496270176</v>
       </c>
       <c r="F2">
         <v>0.9008647299072965</v>
       </c>
       <c r="G2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>178</v>
       </c>
       <c r="E3">
-        <v>0.008546402546217696</v>
+        <v>0.008413532180977179</v>
       </c>
       <c r="F3">
         <v>0.9013907479605022</v>
       </c>
       <c r="G3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>168</v>
       </c>
       <c r="E4">
-        <v>0.007337227212269103</v>
+        <v>0.007155286256008331</v>
       </c>
       <c r="F4">
         <v>0.9058188065389823</v>
       </c>
       <c r="G4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>187</v>
       </c>
       <c r="E5">
-        <v>0.04708725921599653</v>
+        <v>0.003600573431766299</v>
       </c>
       <c r="F5">
         <v>0.9002755812246762</v>
       </c>
       <c r="G5">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>186</v>
       </c>
       <c r="E6">
-        <v>0.002155975523322846</v>
+        <v>0.001727062387636848</v>
       </c>
       <c r="F6">
         <v>0.9079070294001449</v>
       </c>
       <c r="G6">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H6">
         <v>52</v>

--- a/on_trucks/Processed_Stand_Alone/52_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/52_455-55R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.218161061531359E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.737178581982617E-08</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.441721422892212E-08</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.891131908700156E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.545323730144888E-06</v>
+        <v>4.804306143603103E-06</v>
       </c>
       <c r="G2">
-        <v>4.186955567778986E-06</v>
+        <v>4.429139831572389E-07</v>
       </c>
       <c r="H2">
-        <v>5.604451223015504E-06</v>
+        <v>1.861393149648452E-06</v>
       </c>
       <c r="I2">
-        <v>3.74434868175619E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.137732864071223E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.312957095379223E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.683811883667898E-05</v>
+        <v>3.311673184463761E-05</v>
       </c>
       <c r="M2">
-        <v>4.859734546533115E-05</v>
+        <v>4.488411746248531E-05</v>
       </c>
       <c r="N2">
-        <v>5.26392163376918E-05</v>
+        <v>4.892879273532388E-05</v>
       </c>
       <c r="O2">
-        <v>6.473576795569149E-05</v>
+        <v>6.10337373911543E-05</v>
       </c>
       <c r="P2">
-        <v>2.708953314453223E-05</v>
+        <v>2.336138222082718E-05</v>
       </c>
       <c r="Q2">
-        <v>1.981365437429919E-05</v>
+        <v>1.608045517504432E-05</v>
       </c>
       <c r="R2">
-        <v>1.367332256820641E-05</v>
+        <v>9.935862978158417E-06</v>
       </c>
       <c r="S2">
-        <v>1.286350059378E-05</v>
+        <v>9.125479119098919E-06</v>
       </c>
       <c r="T2">
-        <v>8.894748219110315E-07</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.693497846520569E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>5.018230841527918E-06</v>
+        <v>1.274766026636971E-06</v>
       </c>
       <c r="W2">
-        <v>8.668538726253847E-06</v>
+        <v>4.927606630863286E-06</v>
       </c>
       <c r="X2">
-        <v>5.307290832399613E-08</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1.060051066524358E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>5.557380824501953E-07</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>4.324558463433587E-06</v>
+        <v>5.80612352823386E-07</v>
       </c>
       <c r="AB2">
-        <v>5.018230841527918E-06</v>
+        <v>1.274766026636971E-06</v>
       </c>
       <c r="AC2">
-        <v>2.632544416866161E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>7.543793761772476E-06</v>
+        <v>3.802081276454691E-06</v>
       </c>
       <c r="AE2">
-        <v>8.96193171698871E-06</v>
+        <v>5.221203188577257E-06</v>
       </c>
       <c r="AF2">
-        <v>1.517403952081486E-05</v>
+        <v>1.143762118405575E-05</v>
       </c>
       <c r="AG2">
-        <v>2.161221931750182E-05</v>
+        <v>1.788026802955969E-05</v>
       </c>
       <c r="AH2">
-        <v>3.347006594303964E-05</v>
+        <v>2.97463420705182E-05</v>
       </c>
       <c r="AI2">
-        <v>8.798313722155647E-05</v>
+        <v>8.429723654724542E-05</v>
       </c>
       <c r="AJ2">
-        <v>6.159444305489226E-05</v>
+        <v>5.789023292219683E-05</v>
       </c>
       <c r="AK2">
-        <v>2.161221931750182E-05</v>
+        <v>1.788026802955969E-05</v>
       </c>
       <c r="AL2">
-        <v>9.1851797099387E-06</v>
+        <v>5.444606079295606E-06</v>
       </c>
       <c r="AM2">
-        <v>2.754170913025284E-06</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>8.984131216287667E-06</v>
+        <v>5.243418090715248E-06</v>
       </c>
       <c r="AO2">
-        <v>1.529940251685599E-05</v>
+        <v>1.156307116161042E-05</v>
       </c>
       <c r="AP2">
-        <v>9.509958699682415E-06</v>
+        <v>5.769610412792948E-06</v>
       </c>
       <c r="AQ2">
-        <v>2.548111919532478E-05</v>
+        <v>2.175185229414536E-05</v>
       </c>
       <c r="AR2">
-        <v>6.74773508691143E-09</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>4.078977871188844E-08</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>6.152672405703077E-09</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.145651663821153E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>2.148082532165115E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1.406896255571239E-05</v>
+        <v>1.033177747541621E-05</v>
       </c>
       <c r="AX2">
-        <v>1.076800215995432E-05</v>
+        <v>7.028526750450755E-06</v>
       </c>
       <c r="AY2">
-        <v>1.340063557681767E-05</v>
+        <v>9.662986786383732E-06</v>
       </c>
       <c r="AZ2">
-        <v>0.006988617379304543</v>
+        <v>0.006989719395557206</v>
       </c>
       <c r="BA2">
-        <v>0.05502944826221002</v>
+        <v>0.0550638827953446</v>
       </c>
       <c r="BB2">
-        <v>0.04783265548947951</v>
+        <v>0.04786209661987346</v>
       </c>
       <c r="BC2">
-        <v>0.02016672836314938</v>
+        <v>0.02017697384338399</v>
       </c>
       <c r="BD2">
-        <v>0.01259224560234604</v>
+        <v>0.01259723562446604</v>
       </c>
       <c r="BE2">
-        <v>0.01065233316360706</v>
+        <v>0.01065597720225997</v>
       </c>
       <c r="BF2">
-        <v>0.003462107290669168</v>
+        <v>0.003460762482940993</v>
       </c>
       <c r="BG2">
-        <v>0.01449526854224995</v>
+        <v>0.01450157895252947</v>
       </c>
       <c r="BH2">
-        <v>0.01216893161571398</v>
+        <v>0.01217362792683136</v>
       </c>
       <c r="BI2">
-        <v>0.01228448661206484</v>
+        <v>0.01228926309954045</v>
       </c>
       <c r="BJ2">
-        <v>0.01320187158309449</v>
+        <v>0.01320728458641447</v>
       </c>
       <c r="BK2">
-        <v>0.01073741416092027</v>
+        <v>0.01074111723193642</v>
       </c>
       <c r="BL2">
-        <v>0.02826242610749313</v>
+        <v>0.02827828868420119</v>
       </c>
       <c r="BM2">
-        <v>9.038619214566975E-05</v>
+        <v>8.670195880032356E-05</v>
       </c>
       <c r="BN2">
-        <v>0.02425671523399056</v>
+        <v>0.02426979849937405</v>
       </c>
       <c r="BO2">
-        <v>0.002663944515874568</v>
+        <v>0.002662045913100046</v>
       </c>
       <c r="BP2">
-        <v>0.001423765255038528</v>
+        <v>0.001421006169724701</v>
       </c>
       <c r="BQ2">
-        <v>1.044616667011765E-05</v>
+        <v>6.706467959170271E-06</v>
       </c>
       <c r="BR2">
-        <v>4.882149845825256E-05</v>
+        <v>4.510842598109776E-05</v>
       </c>
       <c r="BS2">
-        <v>0.001034143067342513</v>
+        <v>0.001031113647650403</v>
       </c>
       <c r="BT2">
-        <v>0.005147793137436434</v>
+        <v>0.00514761792130175</v>
       </c>
       <c r="BU2">
-        <v>0.0003399628492642203</v>
+        <v>0.0003364517814945698</v>
       </c>
       <c r="BV2">
-        <v>0.002042477235500053</v>
+        <v>0.002040147435591053</v>
       </c>
       <c r="BW2">
-        <v>7.808230753421748E-05</v>
+        <v>7.438953729569132E-05</v>
       </c>
       <c r="BX2">
-        <v>0.0007823528752938649</v>
+        <v>0.0007791487541931213</v>
       </c>
       <c r="BY2">
-        <v>9.945787685919254E-05</v>
+        <v>9.577993778641206E-05</v>
       </c>
       <c r="BZ2">
-        <v>0.001114291264811492</v>
+        <v>0.001111317454922461</v>
       </c>
       <c r="CA2">
-        <v>0.0007892782750751658</v>
+        <v>0.0007860789590746022</v>
       </c>
       <c r="CB2">
-        <v>0.002584217518392289</v>
+        <v>0.002582263598058917</v>
       </c>
       <c r="CC2">
-        <v>0.00230699262714685</v>
+        <v>0.002304846357863685</v>
       </c>
       <c r="CD2">
-        <v>6.159444305489226E-05</v>
+        <v>5.789023292219683E-05</v>
       </c>
       <c r="CE2">
-        <v>0.0005681625820578385</v>
+        <v>0.0005648098477579886</v>
       </c>
       <c r="CF2">
-        <v>0.0007681140357435169</v>
+        <v>0.0007649000352058243</v>
       </c>
       <c r="CG2">
-        <v>0.001149448163701262</v>
+        <v>0.001146498746977467</v>
       </c>
       <c r="CH2">
-        <v>0.001739444045069621</v>
+        <v>0.001736903989452088</v>
       </c>
       <c r="CI2">
-        <v>4.391604661316316E-06</v>
+        <v>6.477050698541346E-07</v>
       </c>
       <c r="CJ2">
-        <v>0.004615147854256985</v>
+        <v>0.004614603068996053</v>
       </c>
       <c r="CK2">
-        <v>0.008249037739501384</v>
+        <v>0.008251014282321603</v>
       </c>
       <c r="CL2">
-        <v>0.00211455943322375</v>
+        <v>0.002112279646626934</v>
       </c>
       <c r="CM2">
-        <v>0.008499299731598291</v>
+        <v>0.008501449915505126</v>
       </c>
       <c r="CN2">
-        <v>0.01061921266465298</v>
+        <v>0.01062283372307074</v>
       </c>
       <c r="CO2">
-        <v>0.02143142932321104</v>
+        <v>0.02144255230005275</v>
       </c>
       <c r="CP2">
-        <v>0.005622675422439997</v>
+        <v>0.005622829697313085</v>
       </c>
       <c r="CQ2">
-        <v>5.3955833296114E-05</v>
+        <v>5.024632321160551E-05</v>
       </c>
       <c r="CR2">
-        <v>0.009589686697164663</v>
+        <v>0.009592593432140029</v>
       </c>
       <c r="CS2">
-        <v>0.0236119492543518</v>
+        <v>0.02362458515709592</v>
       </c>
       <c r="CT2">
-        <v>0.009413891202716159</v>
+        <v>0.009416675964233141</v>
       </c>
       <c r="CU2">
-        <v>0.00326201079698807</v>
+        <v>0.003260527154863589</v>
       </c>
       <c r="CV2">
-        <v>0.0004723022150850393</v>
+        <v>0.0004688829692939911</v>
       </c>
       <c r="CW2">
-        <v>0.009869188688338195</v>
+        <v>0.009872289352200055</v>
       </c>
       <c r="CX2">
-        <v>0.01103823965142041</v>
+        <v>0.0110421514463607</v>
       </c>
       <c r="CY2">
-        <v>0.005160740437027567</v>
+        <v>0.00516057420421133</v>
       </c>
       <c r="CZ2">
-        <v>0.03630330685356795</v>
+        <v>0.0363247484926754</v>
       </c>
       <c r="DA2">
-        <v>0.02042824535489086</v>
+        <v>0.02043867228534984</v>
       </c>
       <c r="DB2">
-        <v>0.01065565166350227</v>
+        <v>0.01065929800465394</v>
       </c>
       <c r="DC2">
-        <v>1.416507855267711E-06</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.006553031293060035</v>
+        <v>0.006553831083470504</v>
       </c>
       <c r="DE2">
-        <v>0.01426330654957515</v>
+        <v>0.0142694560159889</v>
       </c>
       <c r="DF2">
-        <v>0.03421002891967215</v>
+        <v>0.03423001816462264</v>
       </c>
       <c r="DG2">
-        <v>0.05181329836377369</v>
+        <v>0.05184550141238117</v>
       </c>
       <c r="DH2">
-        <v>0.006585068792048314</v>
+        <v>0.006585890811268241</v>
       </c>
       <c r="DI2">
-        <v>1.872922340854474E-05</v>
+        <v>1.499527179071572E-05</v>
       </c>
       <c r="DJ2">
-        <v>0.001796889843255525</v>
+        <v>0.001794389645671307</v>
       </c>
       <c r="DK2">
-        <v>0.004897956845326083</v>
+        <v>0.004897608283471281</v>
       </c>
       <c r="DL2">
-        <v>0.0001995730036976296</v>
+        <v>0.0001959645282268341</v>
       </c>
       <c r="DM2">
-        <v>0.00335251159413012</v>
+        <v>0.003351090744827769</v>
       </c>
       <c r="DN2">
-        <v>1.812475142763352E-05</v>
+        <v>1.439038040464148E-05</v>
       </c>
       <c r="DO2">
-        <v>0.0007823528752938649</v>
+        <v>0.0007791487541931213</v>
       </c>
       <c r="DP2">
-        <v>0.0003380069593259859</v>
+        <v>0.0003344945344870843</v>
       </c>
       <c r="DQ2">
-        <v>0.003463996890609496</v>
+        <v>0.003462653393956104</v>
       </c>
       <c r="DR2">
-        <v>0.006877536182812406</v>
+        <v>0.006878561126795725</v>
       </c>
       <c r="DS2">
-        <v>0.0119041276240763</v>
+        <v>0.01190864020432642</v>
       </c>
       <c r="DT2">
-        <v>0.01080921265865292</v>
+        <v>0.01081296554613964</v>
       </c>
       <c r="DU2">
-        <v>0.001858143341321184</v>
+        <v>0.001855685643694207</v>
       </c>
       <c r="DV2">
-        <v>0.0004847317646925232</v>
+        <v>0.0004813211429857073</v>
       </c>
       <c r="DW2">
-        <v>0.002345479525931461</v>
+        <v>0.002343359960291425</v>
       </c>
       <c r="DX2">
-        <v>0.00416307046853326</v>
+        <v>0.004162212015152635</v>
       </c>
       <c r="DY2">
-        <v>0.01689432946648935</v>
+        <v>0.01690230443454791</v>
       </c>
       <c r="DZ2">
-        <v>0.004158289868684229</v>
+        <v>0.00415742809834546</v>
       </c>
       <c r="EA2">
-        <v>0.0004918285844684108</v>
+        <v>0.0004884228867993487</v>
       </c>
       <c r="EB2">
-        <v>2.359430225490908E-06</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.0010098965681082</v>
+        <v>0.001006850325292297</v>
       </c>
       <c r="ED2">
-        <v>2.636155716752118E-05</v>
+        <v>2.263290114698293E-05</v>
       </c>
       <c r="EE2">
-        <v>0.0009792778690751167</v>
+        <v>0.0009762103818659827</v>
       </c>
       <c r="EF2">
-        <v>4.021796872994578E-06</v>
+        <v>2.776406951220295E-07</v>
       </c>
       <c r="EG2">
-        <v>3.730021382208636E-06</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0002680258415359387</v>
+        <v>0.0002644648611923283</v>
       </c>
       <c r="EI2">
-        <v>0.002425963423389838</v>
+        <v>0.002423899700474031</v>
       </c>
       <c r="EJ2">
-        <v>0.0006840704783975514</v>
+        <v>0.0006807981653110837</v>
       </c>
       <c r="EK2">
-        <v>0.0001506546052424371</v>
+        <v>0.0001470121883657088</v>
       </c>
       <c r="EL2">
-        <v>0.002151069432070791</v>
+        <v>0.002148814977470332</v>
       </c>
       <c r="EM2">
-        <v>0.004360301262304855</v>
+        <v>0.004359579654991256</v>
       </c>
       <c r="EN2">
-        <v>0.006779544285906919</v>
+        <v>0.006780501239464222</v>
       </c>
       <c r="EO2">
-        <v>0.001780172943783432</v>
+        <v>0.001777661147392041</v>
       </c>
       <c r="EP2">
-        <v>0.0006821333784587237</v>
+        <v>0.000678859721340206</v>
       </c>
       <c r="EQ2">
-        <v>6.980048779575132E-05</v>
+        <v>6.610197132238342E-05</v>
       </c>
       <c r="ER2">
-        <v>0.0003327136694931441</v>
+        <v>0.0003291975719727033</v>
       </c>
       <c r="ES2">
-        <v>0.0002306038727176973</v>
+        <v>0.0002270169276190137</v>
       </c>
       <c r="ET2">
-        <v>0.001289763759270198</v>
+        <v>0.001286911698730135</v>
       </c>
       <c r="EU2">
-        <v>0.002127872432803335</v>
+        <v>0.00212560188326123</v>
       </c>
       <c r="EV2">
-        <v>0.004256036865597449</v>
+        <v>0.004255242915763965</v>
       </c>
       <c r="EW2">
-        <v>0.001233605161043646</v>
+        <v>0.001230714135577518</v>
       </c>
       <c r="EX2">
-        <v>0.0006866575383158539</v>
+        <v>0.000683387020227866</v>
       </c>
       <c r="EY2">
-        <v>0.0001683385546839908</v>
+        <v>0.0001647084075897052</v>
       </c>
       <c r="EZ2">
-        <v>0.002073522134519678</v>
+        <v>0.002071213874717326</v>
       </c>
       <c r="FA2">
-        <v>0.008376753735468206</v>
+        <v>0.008378818892400908</v>
       </c>
       <c r="FB2">
-        <v>0.00769046675714065</v>
+        <v>0.007692055742619394</v>
       </c>
       <c r="FC2">
-        <v>0.00788668975094407</v>
+        <v>0.007888414883240704</v>
       </c>
       <c r="FD2">
-        <v>0.003415746892133195</v>
+        <v>0.003414369917834658</v>
       </c>
       <c r="FE2">
-        <v>0.0005705204819833778</v>
+        <v>0.0005671693836822737</v>
       </c>
       <c r="FF2">
-        <v>0.02237950429327152</v>
+        <v>0.02239128507982143</v>
       </c>
       <c r="FG2">
-        <v>0.03456416290848886</v>
+        <v>0.03458439786478413</v>
       </c>
       <c r="FH2">
-        <v>0.02588497018257145</v>
+        <v>0.02589918319185329</v>
       </c>
       <c r="FI2">
-        <v>0.006465926595810737</v>
+        <v>0.00646666594973961</v>
       </c>
       <c r="FJ2">
-        <v>0.002560785419132258</v>
+        <v>0.002558815240736114</v>
       </c>
       <c r="FK2">
-        <v>0.001646242048012873</v>
+        <v>0.001643637325380152</v>
       </c>
       <c r="FL2">
-        <v>0.0008259953739156664</v>
+        <v>0.0008228215336051453</v>
       </c>
       <c r="FM2">
-        <v>1.61814584890013E-05</v>
+        <v>1.24457391370255E-05</v>
       </c>
       <c r="FN2">
-        <v>1.416507855267711E-06</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0001505636252453101</v>
+        <v>0.000146921145243273</v>
       </c>
       <c r="FP2">
-        <v>0.0006523332393997904</v>
+        <v>0.0006490389058354242</v>
       </c>
       <c r="FQ2">
-        <v>0.00176353424430887</v>
+        <v>0.001761010903368375</v>
       </c>
       <c r="FR2">
-        <v>2.230682329556673E-05</v>
+        <v>1.85753539497226E-05</v>
       </c>
       <c r="FS2">
-        <v>0.001438438654575153</v>
+        <v>0.001435689750212171</v>
       </c>
       <c r="FT2">
-        <v>0.009182105710035776</v>
+        <v>0.00918472965014926</v>
       </c>
       <c r="FU2">
-        <v>0.01203846861983391</v>
+        <v>0.01204307441086799</v>
       </c>
       <c r="FV2">
-        <v>0.008668678726249426</v>
+        <v>0.00867094643160822</v>
       </c>
       <c r="FW2">
-        <v>0.01048217966898038</v>
+        <v>0.01048570564880442</v>
       </c>
       <c r="FX2">
-        <v>0.01097344565346656</v>
+        <v>0.01097731249191899</v>
       </c>
       <c r="FY2">
-        <v>0.002452807422542125</v>
+        <v>0.002450762324992251</v>
       </c>
       <c r="FZ2">
-        <v>0.0003348350194261535</v>
+        <v>0.0003313203937772676</v>
       </c>
       <c r="GA2">
-        <v>2.164668831641332E-05</v>
+        <v>1.791476094434581E-05</v>
       </c>
       <c r="GB2">
-        <v>1.367332256820641E-05</v>
+        <v>9.935862978158417E-06</v>
       </c>
       <c r="GC2">
-        <v>0.0001563784450616824</v>
+        <v>0.000152739999598102</v>
       </c>
       <c r="GD2">
-        <v>0.001203422161996803</v>
+        <v>0.001200510194442314</v>
       </c>
       <c r="GE2">
-        <v>0.004369605862011023</v>
+        <v>0.004368890710575082</v>
       </c>
       <c r="GF2">
-        <v>0.006539039793501876</v>
+        <v>0.006539829876089092</v>
       </c>
       <c r="GG2">
-        <v>0.0002489632921379202</v>
+        <v>0.0002453890854878962</v>
       </c>
       <c r="GH2">
-        <v>0.005183838836298137</v>
+        <v>0.005183688630011197</v>
       </c>
       <c r="GI2">
-        <v>0.01539212851392777</v>
+        <v>0.01539906119904303</v>
       </c>
       <c r="GJ2">
-        <v>0.01884642340484365</v>
+        <v>0.01885575280834721</v>
       </c>
       <c r="GK2">
-        <v>0.02141082232386179</v>
+        <v>0.02142193100280022</v>
       </c>
       <c r="GL2">
-        <v>0.01252386460450546</v>
+        <v>0.01252880718134354</v>
       </c>
       <c r="GM2">
-        <v>0.006157796805541252</v>
+        <v>0.006158322367550892</v>
       </c>
       <c r="GN2">
-        <v>0.004434020859976844</v>
+        <v>0.004433350402064468</v>
       </c>
       <c r="GO2">
-        <v>0.001608371849208786</v>
+        <v>0.001605740850822342</v>
       </c>
       <c r="GP2">
-        <v>1.286350059378E-05</v>
+        <v>9.125479119098919E-06</v>
       </c>
       <c r="GQ2">
-        <v>7.622032159301764E-08</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0001257049360303295</v>
+        <v>0.0001220452081443009</v>
       </c>
       <c r="GS2">
-        <v>0.0005517936525747575</v>
+        <v>0.0005484295609022664</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0002375131704299351</v>
+        <v>0.0002163515722753372</v>
       </c>
       <c r="C3">
-        <v>0.0003903275607065524</v>
+        <v>0.0003697370279337375</v>
       </c>
       <c r="D3">
-        <v>0.0002335787704228132</v>
+        <v>0.0002124024694667443</v>
       </c>
       <c r="E3">
-        <v>5.214088409438295E-05</v>
+        <v>3.028655212540685E-05</v>
       </c>
       <c r="F3">
-        <v>0.0001355598802453841</v>
+        <v>0.0001140172839761591</v>
       </c>
       <c r="G3">
-        <v>0.0004113692807446412</v>
+        <v>0.0003908573806049518</v>
       </c>
       <c r="H3">
-        <v>0.0004383140207934153</v>
+        <v>0.0004179028127955794</v>
       </c>
       <c r="I3">
-        <v>0.0001287818202331147</v>
+        <v>0.0001072138944420977</v>
       </c>
       <c r="J3">
-        <v>7.207722013047076E-05</v>
+        <v>5.029738998903324E-05</v>
       </c>
       <c r="K3">
-        <v>1.865247003376382E-08</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>9.134935016535627E-05</v>
+        <v>6.964153972230071E-05</v>
       </c>
       <c r="M3">
-        <v>0.0006048161010948095</v>
+        <v>0.0005850271091977144</v>
       </c>
       <c r="N3">
-        <v>0.0004492823808132697</v>
+        <v>0.0004289121614336584</v>
       </c>
       <c r="O3">
-        <v>0.0003255532005893009</v>
+        <v>0.0003047206068782253</v>
       </c>
       <c r="P3">
-        <v>3.219291505827409E-05</v>
+        <v>1.026403778939017E-05</v>
       </c>
       <c r="Q3">
-        <v>9.022791016332628E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2.471724404474198E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>8.747112015833607E-05</v>
+        <v>6.574881682036667E-05</v>
       </c>
       <c r="T3">
-        <v>2.196709103976379E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2.49961230452468E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>7.67437541389179E-07</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>4.784841608661293E-06</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>6.078428711002883E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>5.462824409888546E-06</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>4.096669707415597E-05</v>
+        <v>1.907060731414154E-05</v>
       </c>
       <c r="AA3">
-        <v>7.85270241421459E-05</v>
+        <v>5.677129683411096E-05</v>
       </c>
       <c r="AB3">
-        <v>5.362033309706098E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.436150502599652E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>9.193383516641428E-08</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.207476003995868E-07</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>6.927839412540446E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>4.195710007594875E-05</v>
+        <v>2.006471143902433E-05</v>
       </c>
       <c r="AH3">
-        <v>6.32260501144488E-05</v>
+        <v>4.141314326619541E-05</v>
       </c>
       <c r="AI3">
-        <v>0.000307624370556847</v>
+        <v>0.0002867247770419644</v>
       </c>
       <c r="AJ3">
-        <v>0.0003194258005782094</v>
+        <v>0.000298570308853273</v>
       </c>
       <c r="AK3">
-        <v>0.0001233136902232166</v>
+        <v>0.0001017253301017279</v>
       </c>
       <c r="AL3">
-        <v>4.743904408587191E-05</v>
+        <v>2.556714140215695E-05</v>
       </c>
       <c r="AM3">
-        <v>1.556886002818201E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.245615202254754E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0001595167002887496</v>
+        <v>0.0001380636303433192</v>
       </c>
       <c r="AP3">
-        <v>2.672901004838358E-05</v>
+        <v>4.779714237797853E-06</v>
       </c>
       <c r="AQ3">
-        <v>3.158643505717627E-06</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>5.325746709640414E-05</v>
+        <v>3.140730778353188E-05</v>
       </c>
       <c r="AS3">
-        <v>0.0001199212302170757</v>
+        <v>9.83201925168257E-05</v>
       </c>
       <c r="AT3">
-        <v>4.693806208496506E-09</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0001095738261983453</v>
+        <v>8.793412038434163E-05</v>
       </c>
       <c r="AV3">
-        <v>0.0004476537008103215</v>
+        <v>0.0004272773950747983</v>
       </c>
       <c r="AW3">
-        <v>0.000385938740698608</v>
+        <v>0.0003653318069627105</v>
       </c>
       <c r="AX3">
-        <v>1.309754002370855E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.00015822421028641</v>
+        <v>0.0001367663103227116</v>
       </c>
       <c r="AZ3">
-        <v>3.436508306220605E-05</v>
+        <v>1.244432315679958E-05</v>
       </c>
       <c r="BA3">
-        <v>6.549225011855097E-06</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1.689295303057882E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1.51287780273854E-07</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>3.634650006579271E-05</v>
+        <v>1.443314468986529E-05</v>
       </c>
       <c r="BE3">
-        <v>9.274880016788948E-05</v>
+        <v>7.104621945122641E-05</v>
       </c>
       <c r="BF3">
-        <v>9.97050201804813E-06</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>5.085315009205196E-05</v>
+        <v>2.899400587791789E-05</v>
       </c>
       <c r="BH3">
-        <v>0.0001471392302663444</v>
+        <v>0.000125639905877003</v>
       </c>
       <c r="BI3">
-        <v>0.000221209510400423</v>
+        <v>0.0001999869856811059</v>
       </c>
       <c r="BJ3">
-        <v>0.0002058531103726255</v>
+        <v>0.0001845731989868511</v>
       </c>
       <c r="BK3">
-        <v>2.770663405015323E-05</v>
+        <v>5.760991607701226E-06</v>
       </c>
       <c r="BL3">
-        <v>5.275541509549535E-05</v>
+        <v>3.090337962084896E-05</v>
       </c>
       <c r="BM3">
-        <v>2.891191105233497E-06</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>2.223949904025689E-06</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>2.125209503846954E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>8.915749016138865E-05</v>
+        <v>6.744148876610853E-05</v>
       </c>
       <c r="BQ3">
-        <v>0.0003744423406777978</v>
+        <v>0.0003537924450450846</v>
       </c>
       <c r="BR3">
-        <v>5.541598510031138E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1.462403902647174E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>4.743904408587191E-05</v>
+        <v>2.556714140215695E-05</v>
       </c>
       <c r="BU3">
-        <v>5.629286010189867E-05</v>
+        <v>3.445404401306705E-05</v>
       </c>
       <c r="BV3">
-        <v>9.674106017511608E-05</v>
+        <v>7.50533984819892E-05</v>
       </c>
       <c r="BW3">
-        <v>4.000514807241542E-07</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>2.039697603692164E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>1.551964902809293E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>1.595797202888636E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>3.913944507084837E-06</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0001875221503394437</v>
+        <v>0.0001661737363952986</v>
       </c>
       <c r="CC3">
-        <v>3.982617307209145E-05</v>
+        <v>1.792582118876852E-05</v>
       </c>
       <c r="CD3">
-        <v>6.534513511828466E-05</v>
+        <v>4.354014726303027E-05</v>
       </c>
       <c r="CE3">
-        <v>4.693806208496506E-09</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>4.501735608148829E-07</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>2.972433905380559E-05</v>
+        <v>7.786236748615198E-06</v>
       </c>
       <c r="CH3">
-        <v>0.0001403775702541048</v>
+        <v>0.0001188529776295573</v>
       </c>
       <c r="CI3">
-        <v>9.737537017626428E-08</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>1.007682601824059E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>7.404930513404053E-05</v>
+        <v>5.227684464851981E-05</v>
       </c>
       <c r="CL3">
-        <v>5.882106010647509E-05</v>
+        <v>3.699169186806008E-05</v>
       </c>
       <c r="CM3">
-        <v>0.0002238865304052688</v>
+        <v>0.0002026740096747667</v>
       </c>
       <c r="CN3">
-        <v>0.1094249101980758</v>
+        <v>0.1098117804773943</v>
       </c>
       <c r="CO3">
-        <v>0.009844302017819688</v>
+        <v>0.009859040864190718</v>
       </c>
       <c r="CP3">
-        <v>0.05305288409603381</v>
+        <v>0.05322909284963107</v>
       </c>
       <c r="CQ3">
-        <v>0.01314782352379957</v>
+        <v>0.0131749075869177</v>
       </c>
       <c r="CR3">
-        <v>0.02192011303967875</v>
+        <v>0.02197997903421334</v>
       </c>
       <c r="CS3">
-        <v>0.01290497702335998</v>
+        <v>0.01293115357227583</v>
       </c>
       <c r="CT3">
-        <v>0.0004556568708248085</v>
+        <v>0.0004353104728311644</v>
       </c>
       <c r="CU3">
-        <v>0.005425165409820377</v>
+        <v>0.005423390000370144</v>
       </c>
       <c r="CV3">
-        <v>2.160811303911398E-05</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.02856357005170442</v>
+        <v>0.02864826255837615</v>
       </c>
       <c r="CX3">
-        <v>0.01202553902176806</v>
+        <v>0.01204842912235124</v>
       </c>
       <c r="CY3">
-        <v>0.02722355704927879</v>
+        <v>0.0273032419448516</v>
       </c>
       <c r="CZ3">
-        <v>0.01821858803297843</v>
+        <v>0.01826462147687885</v>
       </c>
       <c r="DA3">
-        <v>0.0193081480349507</v>
+        <v>0.0193582531503565</v>
       </c>
       <c r="DB3">
-        <v>0.01776918203216493</v>
+        <v>0.0178135360517064</v>
       </c>
       <c r="DC3">
-        <v>0.005583018510106116</v>
+        <v>0.0055818329956312</v>
       </c>
       <c r="DD3">
-        <v>0.0008633552015628046</v>
+        <v>0.0008445323669094569</v>
       </c>
       <c r="DE3">
-        <v>2.63556790477078E-06</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.001636095202961582</v>
+        <v>0.001620160087606914</v>
       </c>
       <c r="DG3">
-        <v>0.008792977015916631</v>
+        <v>0.008803787074478457</v>
       </c>
       <c r="DH3">
-        <v>0.000469995750850764</v>
+        <v>0.000449702937064612</v>
       </c>
       <c r="DI3">
-        <v>0.007351852013307974</v>
+        <v>0.007357276606546003</v>
       </c>
       <c r="DJ3">
-        <v>0.000114731745207682</v>
+        <v>9.311131446969002E-05</v>
       </c>
       <c r="DK3">
-        <v>0.001149125902080093</v>
+        <v>0.001131370988804424</v>
       </c>
       <c r="DL3">
-        <v>1.23037150222716E-05</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.001039500301881654</v>
+        <v>0.001021335719168982</v>
       </c>
       <c r="DN3">
-        <v>1.717757603109403E-05</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.004448837008053074</v>
+        <v>0.004443413072109416</v>
       </c>
       <c r="DP3">
-        <v>0.005856976410602021</v>
+        <v>0.005856814673225296</v>
       </c>
       <c r="DQ3">
-        <v>0.0006902255712494136</v>
+        <v>0.0006707557534274396</v>
       </c>
       <c r="DR3">
-        <v>0.001122936802032687</v>
+        <v>0.001105084020431986</v>
       </c>
       <c r="DS3">
-        <v>0.001055263701910188</v>
+        <v>0.001037158026817664</v>
       </c>
       <c r="DT3">
-        <v>5.823269710541007E-05</v>
+        <v>3.640113016213996E-05</v>
       </c>
       <c r="DU3">
-        <v>0.001213439702196511</v>
+        <v>0.001195925128752391</v>
       </c>
       <c r="DV3">
-        <v>0.0005633129010196823</v>
+        <v>0.0005433688122056463</v>
       </c>
       <c r="DW3">
-        <v>0.005162193009344357</v>
+        <v>0.005159434875466114</v>
       </c>
       <c r="DX3">
-        <v>0.01445355002616313</v>
+        <v>0.01448551357217699</v>
       </c>
       <c r="DY3">
-        <v>0.007542102013652355</v>
+        <v>0.007548237568658345</v>
       </c>
       <c r="DZ3">
-        <v>0.003706411206709169</v>
+        <v>0.003698212835236746</v>
       </c>
       <c r="EA3">
-        <v>0.01144053502070911</v>
+        <v>0.01146123896897637</v>
       </c>
       <c r="EB3">
-        <v>0.0176395620319303</v>
+        <v>0.01768343166322281</v>
       </c>
       <c r="EC3">
-        <v>0.01829933703312459</v>
+        <v>0.01834567223498455</v>
       </c>
       <c r="ED3">
-        <v>0.0006882066012457589</v>
+        <v>0.0006687292385592347</v>
       </c>
       <c r="EE3">
-        <v>0.003308327605988578</v>
+        <v>0.003298641601296433</v>
       </c>
       <c r="EF3">
-        <v>0.03328461006025022</v>
+        <v>0.03338694503181032</v>
       </c>
       <c r="EG3">
-        <v>0.02240359804055393</v>
+        <v>0.02246527081222588</v>
       </c>
       <c r="EH3">
-        <v>0.007190094013015167</v>
+        <v>0.007194914118717524</v>
       </c>
       <c r="EI3">
-        <v>0.001264592002289104</v>
+        <v>0.001247268584322741</v>
       </c>
       <c r="EJ3">
-        <v>0.009379372016978095</v>
+        <v>0.009392373426004694</v>
       </c>
       <c r="EK3">
-        <v>0.01476436002672575</v>
+        <v>0.01479748506565472</v>
       </c>
       <c r="EL3">
-        <v>0.0002428008604395066</v>
+        <v>0.0002216590223134544</v>
       </c>
       <c r="EM3">
-        <v>0.03100975605613239</v>
+        <v>0.03110358992797269</v>
       </c>
       <c r="EN3">
-        <v>0.03576592006474177</v>
+        <v>0.03587752765940021</v>
       </c>
       <c r="EO3">
-        <v>0.02330656004218843</v>
+        <v>0.02337160717107416</v>
       </c>
       <c r="EP3">
-        <v>0.001628523902947877</v>
+        <v>0.001612560493743886</v>
       </c>
       <c r="EQ3">
-        <v>0.002881185905215386</v>
+        <v>0.002869903677562917</v>
       </c>
       <c r="ER3">
-        <v>0.01065917001929472</v>
+        <v>0.01067695401675082</v>
       </c>
       <c r="ES3">
-        <v>0.03211787005813824</v>
+        <v>0.03221584493753987</v>
       </c>
       <c r="ET3">
-        <v>0.0663885501201734</v>
+        <v>0.06661459408363289</v>
       </c>
       <c r="EU3">
-        <v>0.02858225005173824</v>
+        <v>0.02866701236532626</v>
       </c>
       <c r="EV3">
-        <v>0.002872935505200451</v>
+        <v>0.002861622445910819</v>
       </c>
       <c r="EW3">
-        <v>0.0003948991707148278</v>
+        <v>0.0003743257219889408</v>
       </c>
       <c r="EX3">
-        <v>0.00600641641087253</v>
+        <v>0.00600681312882618</v>
       </c>
       <c r="EY3">
-        <v>0.002522521404566149</v>
+        <v>0.002509898852356388</v>
       </c>
       <c r="EZ3">
-        <v>0.000673490701219121</v>
+        <v>0.0006539583454062834</v>
       </c>
       <c r="FA3">
-        <v>0.0005064165509166912</v>
+        <v>0.0004862598411849861</v>
       </c>
       <c r="FB3">
-        <v>0.0002364516304280135</v>
+        <v>0.0002152860653122847</v>
       </c>
       <c r="FC3">
-        <v>0.0007360879013324315</v>
+        <v>0.0007167894704393383</v>
       </c>
       <c r="FD3">
-        <v>0.001288405602332211</v>
+        <v>0.001271171175478371</v>
       </c>
       <c r="FE3">
-        <v>0.006692527012114495</v>
+        <v>0.00669548771642921</v>
       </c>
       <c r="FF3">
-        <v>0.01463285802648771</v>
+        <v>0.01466549164415828</v>
       </c>
       <c r="FG3">
-        <v>0.02205958803993122</v>
+        <v>0.0221199752507212</v>
       </c>
       <c r="FH3">
-        <v>0.008241072014917599</v>
+        <v>0.008249819611694686</v>
       </c>
       <c r="FI3">
-        <v>3.763272606812098E-06</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.001293932602342215</v>
+        <v>0.001276718829815269</v>
       </c>
       <c r="FK3">
-        <v>1.689295303057882E-05</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.01454711902633251</v>
+        <v>0.01457943223847865</v>
       </c>
       <c r="FM3">
-        <v>0.009732705017617681</v>
+        <v>0.009747026827455627</v>
       </c>
       <c r="FN3">
-        <v>0.0002770876205015709</v>
+        <v>0.0002560739115503268</v>
       </c>
       <c r="FO3">
-        <v>0.0001861205703369066</v>
+        <v>0.0001647669187065869</v>
       </c>
       <c r="FP3">
-        <v>0.0004507452208159176</v>
+        <v>0.0004303804680503019</v>
       </c>
       <c r="FQ3">
-        <v>0.001615102902923583</v>
+        <v>0.001599089339617685</v>
       </c>
       <c r="FR3">
-        <v>0.0005991552610845625</v>
+        <v>0.0005793451147022398</v>
       </c>
       <c r="FS3">
-        <v>5.712491510340481E-05</v>
+        <v>3.528920839325305E-05</v>
       </c>
       <c r="FT3">
-        <v>1.008444801825439E-06</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>3.190158805774674E-06</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.000839649641519894</v>
+        <v>0.0008207382194980937</v>
       </c>
       <c r="FW3">
-        <v>0.001675735703033337</v>
+        <v>0.001659948723710012</v>
       </c>
       <c r="FX3">
-        <v>0.0002756769204990173</v>
+        <v>0.0002546579397802775</v>
       </c>
       <c r="FY3">
-        <v>0.0007400507013396047</v>
+        <v>0.000720767079378412</v>
       </c>
       <c r="FZ3">
-        <v>0.008166769514783099</v>
+        <v>0.008175239444087053</v>
       </c>
       <c r="GA3">
-        <v>0.007548782513664448</v>
+        <v>0.007554943033611783</v>
       </c>
       <c r="GB3">
-        <v>0.00544973980986486</v>
+        <v>0.005448056234626825</v>
       </c>
       <c r="GC3">
-        <v>4.195710007594875E-05</v>
+        <v>2.006471143902433E-05</v>
       </c>
       <c r="GD3">
-        <v>0.0003181945405759807</v>
+        <v>0.0002973344476484875</v>
       </c>
       <c r="GE3">
-        <v>0.0002438765804414538</v>
+        <v>0.0002227387622670076</v>
       </c>
       <c r="GF3">
-        <v>1.749780103167369E-05</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.001406292802545605</v>
+        <v>0.001389498918620185</v>
       </c>
       <c r="GH3">
-        <v>0.007451783413488866</v>
+        <v>0.007457581449064971</v>
       </c>
       <c r="GI3">
-        <v>0.008680358015712774</v>
+        <v>0.008690747218540849</v>
       </c>
       <c r="GJ3">
-        <v>0.002098238003798131</v>
+        <v>0.002084029910057856</v>
       </c>
       <c r="GK3">
-        <v>0.001768278403200854</v>
+        <v>0.001752837254740097</v>
       </c>
       <c r="GL3">
-        <v>4.003839007247559E-05</v>
+        <v>1.813883124131304E-05</v>
       </c>
       <c r="GM3">
-        <v>0.00143431020259632</v>
+        <v>0.00141762101932918</v>
       </c>
       <c r="GN3">
-        <v>0.008754557015847084</v>
+        <v>0.008765223499370145</v>
       </c>
       <c r="GO3">
-        <v>0.008436092015270612</v>
+        <v>0.008445568399243431</v>
       </c>
       <c r="GP3">
-        <v>0.01010802901829707</v>
+        <v>0.01012375340902647</v>
       </c>
       <c r="GQ3">
-        <v>0.008518703015420154</v>
+        <v>0.008528488115622212</v>
       </c>
       <c r="GR3">
-        <v>0.000249234230451152</v>
+        <v>0.0002281164337448588</v>
       </c>
       <c r="GS3">
-        <v>0.01686079203052061</v>
+        <v>0.01690175140848311</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.00016096475138362</v>
+        <v>0.0001137800718734905</v>
       </c>
       <c r="C4">
-        <v>1.915190897480582E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.26952153204301E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4.8052397427774E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002496477866364518</v>
+        <v>0.0002031446256314637</v>
       </c>
       <c r="G4">
-        <v>0.0003273069824793855</v>
+        <v>0.0002814006230939006</v>
       </c>
       <c r="H4">
-        <v>2.006670092583736E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.422781470309457E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002077355088799996</v>
+        <v>0.0001609102570399131</v>
       </c>
       <c r="K4">
-        <v>0.0005623917398953906</v>
+        <v>0.0005182919787166418</v>
       </c>
       <c r="L4">
-        <v>0.000350562141234546</v>
+        <v>0.0003048344949590315</v>
       </c>
       <c r="M4">
-        <v>0.0002724559554155394</v>
+        <v>0.0002261280724560876</v>
       </c>
       <c r="N4">
-        <v>0.0001466343121507227</v>
+        <v>9.933950493131741E-05</v>
       </c>
       <c r="O4">
-        <v>5.479915906662249E-05</v>
+        <v>6.798609694043541E-06</v>
       </c>
       <c r="P4">
-        <v>1.850698500932835E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0003125358032700809</v>
+        <v>0.0002665159291413851</v>
       </c>
       <c r="R4">
-        <v>0.0001313543129686551</v>
+        <v>8.39420807854849E-05</v>
       </c>
       <c r="S4">
-        <v>1.257722332674616E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>5.833868687715295E-05</v>
+        <v>1.036533835190023E-05</v>
       </c>
       <c r="U4">
-        <v>1.191328136228672E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>2.63356365902637E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0001379653426147693</v>
+        <v>9.060391540268536E-05</v>
       </c>
       <c r="X4">
-        <v>1.991828193378217E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1.94745569575346E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>3.886019091982921E-07</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>6.749491138702384E-07</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>2.689023856057607E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>3.15741113098502E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>6.336173660827108E-05</v>
+        <v>1.542698961863611E-05</v>
       </c>
       <c r="AE4">
-        <v>2.414211870768185E-07</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.749217752835451E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>1.205563935466635E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.279610931502929E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>5.635848198315255E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>2.006670092583736E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>6.655593143728708E-05</v>
+        <v>1.864573145237286E-05</v>
       </c>
       <c r="AL4">
-        <v>0.000440056706443937</v>
+        <v>0.0003950168151840903</v>
       </c>
       <c r="AM4">
-        <v>0.0002285849377639379</v>
+        <v>0.0001819199112878742</v>
       </c>
       <c r="AN4">
-        <v>0.0001899257398333496</v>
+        <v>0.0001429636220510568</v>
       </c>
       <c r="AO4">
-        <v>0.0001337327628413376</v>
+        <v>8.633880876059322E-05</v>
       </c>
       <c r="AP4">
-        <v>1.746544706508146E-08</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>9.412549996149887E-07</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1.411223724457747E-07</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.397566371659212E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>3.40801281757041E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>7.879992978187064E-07</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>6.277156663986263E-05</v>
+        <v>1.483228426469984E-05</v>
       </c>
       <c r="AW4">
-        <v>2.487422266849261E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>1.347107627889857E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0002367690673258446</v>
+        <v>0.0001901669349053239</v>
       </c>
       <c r="AZ4">
-        <v>0.0005246622319150364</v>
+        <v>0.0004802725239859855</v>
       </c>
       <c r="BA4">
-        <v>2.242475879961145E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0001152281338318832</v>
+        <v>6.769197389333556E-05</v>
       </c>
       <c r="BC4">
-        <v>0.0001099712981132795</v>
+        <v>6.239474002179882E-05</v>
       </c>
       <c r="BD4">
-        <v>2.422781470309457E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>8.713817533552763E-06</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>4.662246750431759E-06</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>3.390765018493678E-06</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>2.188144282869494E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>1.554555416785258E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>2.470895067733955E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1.157373238046264E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>8.212615560381907E-05</v>
+        <v>3.433561092691769E-05</v>
       </c>
       <c r="BM4">
-        <v>0.0002418811870521949</v>
+        <v>0.0001953183406595381</v>
       </c>
       <c r="BN4">
-        <v>6.616046645845616E-06</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>4.627011752317875E-06</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>7.31799660827051E-05</v>
+        <v>2.532067101073933E-05</v>
       </c>
       <c r="BQ4">
-        <v>0.0001801545203563991</v>
+        <v>0.0001331173119226379</v>
       </c>
       <c r="BR4">
-        <v>0.0001595035314618385</v>
+        <v>0.0001123076226516074</v>
       </c>
       <c r="BS4">
-        <v>1.538384217650896E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>4.824090741768313E-06</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>1.538384217650896E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>4.635056751887228E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>9.639085484023532E-05</v>
+        <v>4.870993266860992E-05</v>
       </c>
       <c r="BX4">
-        <v>7.25456161166616E-05</v>
+        <v>2.468144614117723E-05</v>
       </c>
       <c r="BY4">
-        <v>9.334341500336357E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>1.145856838662733E-07</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>8.713817533552763E-06</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>2.727135854017487E-06</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0001138125539076586</v>
+        <v>6.626551540692474E-05</v>
       </c>
       <c r="CD4">
-        <v>0.0001519795718645931</v>
+        <v>0.0001047258423259347</v>
       </c>
       <c r="CE4">
-        <v>2.088187188220158E-06</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>1.759561505811362E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>8.340169553553993E-05</v>
+        <v>3.562095323025377E-05</v>
       </c>
       <c r="CH4">
-        <v>8.476456546258603E-05</v>
+        <v>3.699429664947044E-05</v>
       </c>
       <c r="CI4">
-        <v>3.390765018493678E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>5.834436087684923E-07</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0001141669498886879</v>
+        <v>6.662263487862542E-05</v>
       </c>
       <c r="CL4">
-        <v>6.7774006372084E-05</v>
+        <v>1.987316714716572E-05</v>
       </c>
       <c r="CM4">
-        <v>0.0001104029540901731</v>
+        <v>6.282971322317929E-05</v>
       </c>
       <c r="CN4">
-        <v>0.1027071495021265</v>
+        <v>0.1034480199713834</v>
       </c>
       <c r="CO4">
-        <v>4.369146066121323E-05</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.05524859704256425</v>
+        <v>0.05562475421985717</v>
       </c>
       <c r="CQ4">
-        <v>0.01834152401818541</v>
+        <v>0.01843405475931712</v>
       </c>
       <c r="CR4">
-        <v>0.007319331608199047</v>
+        <v>0.007327158120689754</v>
       </c>
       <c r="CS4">
-        <v>0.007814884581672291</v>
+        <v>0.007826519359416178</v>
       </c>
       <c r="CT4">
-        <v>0.001765416605497941</v>
+        <v>0.001730561946335783</v>
       </c>
       <c r="CU4">
-        <v>0.01301185330348059</v>
+        <v>0.01306342616345695</v>
       </c>
       <c r="CV4">
-        <v>0.01286437731137492</v>
+        <v>0.01291481683601384</v>
       </c>
       <c r="CW4">
-        <v>0.02833562148320529</v>
+        <v>0.02850495566645171</v>
       </c>
       <c r="CX4">
-        <v>0.01741203406794064</v>
+        <v>0.01749742179012145</v>
       </c>
       <c r="CY4">
-        <v>0.02553145263331134</v>
+        <v>0.02567923711477664</v>
       </c>
       <c r="CZ4">
-        <v>0.0277135935165022</v>
+        <v>0.02787814748931926</v>
       </c>
       <c r="DA4">
-        <v>0.004324446168514092</v>
+        <v>0.004309257345071553</v>
       </c>
       <c r="DB4">
-        <v>0.04215802074329768</v>
+        <v>0.04243357840947237</v>
       </c>
       <c r="DC4">
-        <v>0.0001337327628413376</v>
+        <v>8.633880876059322E-05</v>
       </c>
       <c r="DD4">
-        <v>0.001688563409611863</v>
+        <v>0.001653118142843342</v>
       </c>
       <c r="DE4">
-        <v>0.0004499854159124571</v>
+        <v>0.000405021825595803</v>
       </c>
       <c r="DF4">
-        <v>0.0001626474212935473</v>
+        <v>0.0001154756729001572</v>
       </c>
       <c r="DG4">
-        <v>0.004155092777579512</v>
+        <v>0.004138602493609587</v>
       </c>
       <c r="DH4">
-        <v>0.00176854050533072</v>
+        <v>0.001733709852964655</v>
       </c>
       <c r="DI4">
-        <v>0.003764481298488791</v>
+        <v>0.003744989212082109</v>
       </c>
       <c r="DJ4">
-        <v>0.0002077355088799996</v>
+        <v>0.0001609102570399131</v>
       </c>
       <c r="DK4">
-        <v>1.739150706903944E-07</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.0008019159570737531</v>
+        <v>0.0007596569108183396</v>
       </c>
       <c r="DM4">
-        <v>0.0001492435320110522</v>
+        <v>0.0001019687763337905</v>
       </c>
       <c r="DN4">
-        <v>0.0005049908729680365</v>
+        <v>0.0004604499930013412</v>
       </c>
       <c r="DO4">
-        <v>0.0003068686435734417</v>
+        <v>0.0002608052180011824</v>
       </c>
       <c r="DP4">
-        <v>0.001609761113830118</v>
+        <v>0.001573710260855964</v>
       </c>
       <c r="DQ4">
-        <v>0.00105252274365887</v>
+        <v>0.001012189580545422</v>
       </c>
       <c r="DR4">
-        <v>3.279104024470847E-05</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.001269495232044418</v>
+        <v>0.001230829476519352</v>
       </c>
       <c r="DT4">
-        <v>0.00194060939611994</v>
+        <v>0.001907101072572433</v>
       </c>
       <c r="DU4">
-        <v>0.0005124442125690622</v>
+        <v>0.0004679606106245808</v>
       </c>
       <c r="DV4">
-        <v>0.003379194819113026</v>
+        <v>0.003356741852254668</v>
       </c>
       <c r="DW4">
-        <v>0.0001505597919405934</v>
+        <v>0.0001032951515632535</v>
       </c>
       <c r="DX4">
-        <v>0.007417868902924385</v>
+        <v>0.007426452662724122</v>
       </c>
       <c r="DY4">
-        <v>0.01352256727614227</v>
+        <v>0.01357806491183488</v>
       </c>
       <c r="DZ4">
-        <v>0.0004002888485726948</v>
+        <v>0.0003549433460877495</v>
       </c>
       <c r="EA4">
-        <v>0.01204344735531898</v>
+        <v>0.01208757813156107</v>
       </c>
       <c r="EB4">
-        <v>0.01747308206467276</v>
+        <v>0.01755893893339729</v>
       </c>
       <c r="EC4">
-        <v>0.02616331859948781</v>
+        <v>0.02631595889523022</v>
       </c>
       <c r="ED4">
-        <v>0.001712733508318046</v>
+        <v>0.001677473985863446</v>
       </c>
       <c r="EE4">
-        <v>0.001813978002898469</v>
+        <v>0.001779496532259568</v>
       </c>
       <c r="EF4">
-        <v>0.0275283315264192</v>
+        <v>0.02769146178302965</v>
       </c>
       <c r="EG4">
-        <v>0.0234387817453312</v>
+        <v>0.02357048430164291</v>
       </c>
       <c r="EH4">
-        <v>0.008970067519835801</v>
+        <v>0.008990579740113509</v>
       </c>
       <c r="EI4">
-        <v>0.002203199382063601</v>
+        <v>0.002171709031110009</v>
       </c>
       <c r="EJ4">
-        <v>0.00236135187359776</v>
+        <v>0.002331076905601094</v>
       </c>
       <c r="EK4">
-        <v>0.01832810501890372</v>
+        <v>0.01842053263663303</v>
       </c>
       <c r="EL4">
-        <v>0.006083646674344778</v>
+        <v>0.006081977096105784</v>
       </c>
       <c r="EM4">
-        <v>0.02435781269613583</v>
+        <v>0.02449657789524033</v>
       </c>
       <c r="EN4">
-        <v>0.04507197558731481</v>
+        <v>0.04536992664748737</v>
       </c>
       <c r="EO4">
-        <v>0.02848175547538279</v>
+        <v>0.02865221268085794</v>
       </c>
       <c r="EP4">
-        <v>0.005002937732194704</v>
+        <v>0.004992963035162164</v>
       </c>
       <c r="EQ4">
-        <v>0.001195290336016577</v>
+        <v>0.001156054324752396</v>
       </c>
       <c r="ER4">
-        <v>0.009179282508636605</v>
+        <v>0.009201402521047434</v>
       </c>
       <c r="ES4">
-        <v>0.01908701597827952</v>
+        <v>0.01918527573584363</v>
       </c>
       <c r="ET4">
-        <v>0.05723415693627801</v>
+        <v>0.0576255729035613</v>
       </c>
       <c r="EU4">
-        <v>0.04354765366891116</v>
+        <v>0.04383389049769524</v>
       </c>
       <c r="EV4">
-        <v>0.001860333900417055</v>
+        <v>0.001826208669298953</v>
       </c>
       <c r="EW4">
-        <v>0.0001811533603029316</v>
+        <v>0.0001341238278345373</v>
       </c>
       <c r="EX4">
-        <v>0.00483614674112296</v>
+        <v>0.004824890275299105</v>
       </c>
       <c r="EY4">
-        <v>0.004050908783156441</v>
+        <v>0.004033617857666563</v>
       </c>
       <c r="EZ4">
-        <v>4.512095758469282E-05</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.00311251503338829</v>
+        <v>0.003088012664314499</v>
       </c>
       <c r="FB4">
-        <v>0.0001035728344557868</v>
+        <v>5.594710493738518E-05</v>
       </c>
       <c r="FC4">
-        <v>0.0005686713695592445</v>
+        <v>0.0005246198665824072</v>
       </c>
       <c r="FD4">
-        <v>0.0003300014523351516</v>
+        <v>0.0002841157996278157</v>
       </c>
       <c r="FE4">
-        <v>0.007643579090842207</v>
+        <v>0.007653897406404796</v>
       </c>
       <c r="FF4">
-        <v>0.01189801336310401</v>
+        <v>0.01194102649653326</v>
       </c>
       <c r="FG4">
-        <v>0.01918069497326491</v>
+        <v>0.01927967464268639</v>
       </c>
       <c r="FH4">
-        <v>0.01514111618950198</v>
+        <v>0.01520905217975459</v>
       </c>
       <c r="FI4">
-        <v>5.190441922157678E-05</v>
+        <v>3.881624119965842E-06</v>
       </c>
       <c r="FJ4">
-        <v>0.0001203358035584716</v>
+        <v>7.283889545007277E-05</v>
       </c>
       <c r="FK4">
-        <v>0.002328173375373792</v>
+        <v>0.002297643434591768</v>
       </c>
       <c r="FL4">
-        <v>0.01611857813717883</v>
+        <v>0.01619402580543742</v>
       </c>
       <c r="FM4">
-        <v>0.01954836295358379</v>
+        <v>0.0196501681074017</v>
       </c>
       <c r="FN4">
-        <v>0.001911972397652867</v>
+        <v>0.001878244002201739</v>
       </c>
       <c r="FO4">
-        <v>3.529686211057281E-05</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>2.898480144845494E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.002507191865791002</v>
+        <v>0.002478037660668385</v>
       </c>
       <c r="FR4">
-        <v>0.000375411659904361</v>
+        <v>0.0003298749792038187</v>
       </c>
       <c r="FS4">
-        <v>0.0008735988032365985</v>
+        <v>0.000831890631069131</v>
       </c>
       <c r="FT4">
-        <v>6.45503565446447E-05</v>
+        <v>1.662474395687035E-05</v>
       </c>
       <c r="FU4">
-        <v>3.794375996888539E-05</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0003663477103895507</v>
+        <v>0.0003207413743224955</v>
       </c>
       <c r="FW4">
-        <v>0.002687264856151765</v>
+        <v>0.002659494490394334</v>
       </c>
       <c r="FX4">
-        <v>3.701363301867473E-06</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0002346165774410666</v>
+        <v>0.0001879979033935659</v>
       </c>
       <c r="FZ4">
-        <v>0.005384920711747305</v>
+        <v>0.00537788150816593</v>
       </c>
       <c r="GA4">
-        <v>0.00749916399857269</v>
+        <v>0.007508372501446496</v>
       </c>
       <c r="GB4">
-        <v>0.01005937946152536</v>
+        <v>0.01008826291361777</v>
       </c>
       <c r="GC4">
-        <v>0.000430238756969488</v>
+        <v>0.0003851234159437385</v>
       </c>
       <c r="GD4">
-        <v>0.0003845863494132434</v>
+        <v>0.0003391201751028061</v>
       </c>
       <c r="GE4">
-        <v>0.0001125843739734026</v>
+        <v>6.502789705696213E-05</v>
       </c>
       <c r="GF4">
-        <v>0.0004669577750039333</v>
+        <v>0.000422124615234269</v>
       </c>
       <c r="GG4">
-        <v>0.0001641229212145643</v>
+        <v>0.0001169625118613598</v>
       </c>
       <c r="GH4">
-        <v>0.002770077851718818</v>
+        <v>0.002742943893914546</v>
       </c>
       <c r="GI4">
-        <v>0.004094636280815724</v>
+        <v>0.004077681395908505</v>
       </c>
       <c r="GJ4">
-        <v>0.004520469058021063</v>
+        <v>0.004506786647008472</v>
       </c>
       <c r="GK4">
-        <v>0.002904658544514766</v>
+        <v>0.002878558823217101</v>
       </c>
       <c r="GL4">
-        <v>0.0009038756916158885</v>
+        <v>0.0008624001937096228</v>
       </c>
       <c r="GM4">
-        <v>0.0008452775547526237</v>
+        <v>0.0008033517371823403</v>
       </c>
       <c r="GN4">
-        <v>0.005118645426000916</v>
+        <v>0.005109559928737998</v>
       </c>
       <c r="GO4">
-        <v>0.00879650452912656</v>
+        <v>0.00881568293860676</v>
       </c>
       <c r="GP4">
-        <v>0.01024823545141597</v>
+        <v>0.0102785702391731</v>
       </c>
       <c r="GQ4">
-        <v>0.01012821845784044</v>
+        <v>0.0101576309293753</v>
       </c>
       <c r="GR4">
-        <v>0.002395177171787105</v>
+        <v>0.00236516214715607</v>
       </c>
       <c r="GS4">
-        <v>0.007826582081046128</v>
+        <v>0.007838306752671798</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.748499345774021E-05</v>
+        <v>5.055894778948946E-05</v>
       </c>
       <c r="C5">
-        <v>1.351414868988545E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0002037538802473002</v>
+        <v>0.0001872631520996716</v>
       </c>
       <c r="E5">
-        <v>0.0005988500419451296</v>
+        <v>0.0005836214675111601</v>
       </c>
       <c r="F5">
-        <v>0.0003105041098985145</v>
+        <v>0.0002943544004998639</v>
       </c>
       <c r="G5">
-        <v>1.083006395009115E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.163695387186808E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.398735414401106E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3.749996936460598E-05</v>
+        <v>2.047813509301706E-05</v>
       </c>
       <c r="K5">
-        <v>6.973866323926062E-05</v>
+        <v>5.281981702764818E-05</v>
       </c>
       <c r="L5">
-        <v>2.943551114640617E-05</v>
+        <v>1.238791457471034E-05</v>
       </c>
       <c r="M5">
-        <v>8.442818181520112E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.708704434351494E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.258362278009428E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3.045000304805735E-05</v>
+        <v>1.34056473195923E-05</v>
       </c>
       <c r="Q5">
-        <v>6.630340357228816E-05</v>
+        <v>4.937358325825108E-05</v>
       </c>
       <c r="R5">
-        <v>0.0001954875310486725</v>
+        <v>0.0001789703956504783</v>
       </c>
       <c r="S5">
-        <v>2.152303891347224E-05</v>
+        <v>4.45016556821803E-06</v>
       </c>
       <c r="T5">
-        <v>6.042090414256071E-05</v>
+        <v>4.347229190083464E-05</v>
       </c>
       <c r="U5">
-        <v>4.127678599846656E-05</v>
+        <v>2.426701694948004E-05</v>
       </c>
       <c r="V5">
-        <v>5.299086486285785E-05</v>
+        <v>3.601851700287314E-05</v>
       </c>
       <c r="W5">
-        <v>3.51778905897174E-05</v>
+        <v>1.814863832566674E-05</v>
       </c>
       <c r="X5">
-        <v>5.801227737606244E-05</v>
+        <v>4.105597066014787E-05</v>
       </c>
       <c r="Y5">
-        <v>0.0001702044534997131</v>
+        <v>0.0001536065500928296</v>
       </c>
       <c r="Z5">
-        <v>0.0001451300159305274</v>
+        <v>0.0001284520110254165</v>
       </c>
       <c r="AA5">
-        <v>6.830836037791979E-07</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>2.550394352754775E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>2.926593016284601E-05</v>
+        <v>1.221779185653235E-05</v>
       </c>
       <c r="AD5">
-        <v>3.634368847670038E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>7.360511286443184E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>5.8748171304722E-05</v>
+        <v>4.179421543739813E-05</v>
       </c>
       <c r="AG5">
-        <v>7.912694232912405E-06</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>7.908065833361101E-05</v>
+        <v>6.219165557517374E-05</v>
       </c>
       <c r="AI5">
-        <v>0.00015546008492909</v>
+        <v>0.0001388150799268202</v>
       </c>
       <c r="AJ5">
-        <v>1.361612767999921E-07</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>6.748499345774021E-05</v>
+        <v>5.055894778948946E-05</v>
       </c>
       <c r="AL5">
-        <v>1.864380319259664E-05</v>
+        <v>1.56173199018789E-06</v>
       </c>
       <c r="AM5">
-        <v>0.0001244584279345122</v>
+        <v>0.0001077143866461464</v>
       </c>
       <c r="AN5">
-        <v>3.787426632832016E-06</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>7.440894878650484E-07</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>5.434908773118639E-05</v>
+        <v>3.738107877955724E-05</v>
       </c>
       <c r="AQ5">
-        <v>5.961876922032282E-05</v>
+        <v>4.266759451996235E-05</v>
       </c>
       <c r="AR5">
-        <v>5.351800281175503E-05</v>
+        <v>3.654733891933142E-05</v>
       </c>
       <c r="AS5">
-        <v>6.287851390431039E-05</v>
+        <v>4.593775261530981E-05</v>
       </c>
       <c r="AT5">
-        <v>0.0001090389294293388</v>
+        <v>9.224562981050122E-05</v>
       </c>
       <c r="AU5">
-        <v>5.668121050510127E-05</v>
+        <v>3.972065163197239E-05</v>
       </c>
       <c r="AV5">
-        <v>7.824889241424565E-06</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>1.575066847306846E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0001144601689037826</v>
+        <v>9.768418769549574E-05</v>
       </c>
       <c r="AY5">
-        <v>0.0002241760482674951</v>
+        <v>0.0002077505597189983</v>
       </c>
       <c r="AZ5">
-        <v>0.04348668578423023</v>
+        <v>0.04360846446625835</v>
       </c>
       <c r="BA5">
-        <v>0.001170975986480998</v>
+        <v>0.001157575095926501</v>
       </c>
       <c r="BB5">
-        <v>0.02925751116366218</v>
+        <v>0.02933383406218567</v>
       </c>
       <c r="BC5">
-        <v>0.01904420915377971</v>
+        <v>0.0190879051672302</v>
       </c>
       <c r="BD5">
-        <v>0.01372387066955418</v>
+        <v>0.01375057060552588</v>
       </c>
       <c r="BE5">
-        <v>0.001588617545993188</v>
+        <v>0.0015765508315113</v>
       </c>
       <c r="BF5">
-        <v>0.002844013424290191</v>
+        <v>0.002835957132392758</v>
       </c>
       <c r="BG5">
-        <v>0.001101188393246481</v>
+        <v>0.001087564562864905</v>
       </c>
       <c r="BH5">
-        <v>5.125257903137409E-05</v>
+        <v>3.427467813359681E-05</v>
       </c>
       <c r="BI5">
-        <v>0.006350728384335497</v>
+        <v>0.006353874462237217</v>
       </c>
       <c r="BJ5">
-        <v>0.01673531737761273</v>
+        <v>0.0167716375251039</v>
       </c>
       <c r="BK5">
-        <v>0.02842619524425321</v>
+        <v>0.02849986246404168</v>
       </c>
       <c r="BL5">
-        <v>0.01338662820224779</v>
+        <v>0.0134122508009184</v>
       </c>
       <c r="BM5">
-        <v>0.0002726964335637388</v>
+        <v>0.000256425945722479</v>
       </c>
       <c r="BN5">
-        <v>0.02777755930713452</v>
+        <v>0.02784915442818801</v>
       </c>
       <c r="BO5">
-        <v>0.002287459578244702</v>
+        <v>0.00227762534828627</v>
       </c>
       <c r="BP5">
-        <v>0.00327485788252244</v>
+        <v>0.003268177943993338</v>
       </c>
       <c r="BQ5">
-        <v>0.0006469160372854236</v>
+        <v>0.0006318410119880966</v>
       </c>
       <c r="BR5">
-        <v>0.0002648020443290518</v>
+        <v>0.0002485063374812423</v>
       </c>
       <c r="BS5">
-        <v>0.002505466757110232</v>
+        <v>0.002496328961582413</v>
       </c>
       <c r="BT5">
-        <v>0.0008598497666427932</v>
+        <v>0.000845454968397323</v>
       </c>
       <c r="BU5">
-        <v>0.002476265759941091</v>
+        <v>0.002467034680421695</v>
       </c>
       <c r="BV5">
-        <v>2.965801412483586E-05</v>
+        <v>1.261112834961883E-05</v>
       </c>
       <c r="BW5">
-        <v>0.0002387168368578541</v>
+        <v>0.0002223377995586936</v>
       </c>
       <c r="BX5">
-        <v>0.0009548301074350266</v>
+        <v>0.0009407387284618176</v>
       </c>
       <c r="BY5">
-        <v>3.647492846397746E-05</v>
+        <v>1.944981964987256E-05</v>
       </c>
       <c r="BZ5">
-        <v>0.0003704244640896005</v>
+        <v>0.0003544661731477657</v>
       </c>
       <c r="CA5">
-        <v>0.001606904144220414</v>
+        <v>0.001594895847157119</v>
       </c>
       <c r="CB5">
-        <v>0.0035609783547848</v>
+        <v>0.003555212441881935</v>
       </c>
       <c r="CC5">
-        <v>0.003393448371025813</v>
+        <v>0.003387147275522738</v>
       </c>
       <c r="CD5">
-        <v>3.075636501835742E-05</v>
+        <v>1.371298797795878E-05</v>
       </c>
       <c r="CE5">
-        <v>0.0004850499229773592</v>
+        <v>0.0004694578085835156</v>
       </c>
       <c r="CF5">
-        <v>0.001443071860102957</v>
+        <v>0.001430540192919013</v>
       </c>
       <c r="CG5">
-        <v>0.0008406826185009316</v>
+        <v>0.0008262265898777641</v>
       </c>
       <c r="CH5">
-        <v>0.0008415903184129357</v>
+        <v>0.0008271371894808457</v>
       </c>
       <c r="CI5">
-        <v>0.0002339050473243279</v>
+        <v>0.0002175106385317998</v>
       </c>
       <c r="CJ5">
-        <v>0.005300576486141339</v>
+        <v>0.00530036780323618</v>
       </c>
       <c r="CK5">
-        <v>0.01175683586024625</v>
+        <v>0.01177725200880074</v>
       </c>
       <c r="CL5">
-        <v>0.000448639286507149</v>
+        <v>0.0004329308565818153</v>
       </c>
       <c r="CM5">
-        <v>0.01036303299536696</v>
+        <v>0.01037899657355363</v>
       </c>
       <c r="CN5">
-        <v>0.01350753169052693</v>
+        <v>0.01353354052121273</v>
       </c>
       <c r="CO5">
-        <v>0.0223533008329834</v>
+        <v>0.02240756789914621</v>
       </c>
       <c r="CP5">
-        <v>0.003001509209021932</v>
+        <v>0.002993956044992739</v>
       </c>
       <c r="CQ5">
-        <v>5.034303711954865E-05</v>
+        <v>3.336223064633676E-05</v>
       </c>
       <c r="CR5">
-        <v>0.01370046567182315</v>
+        <v>0.01372709083940258</v>
       </c>
       <c r="CS5">
-        <v>0.02111001695351221</v>
+        <v>0.02116031228945405</v>
       </c>
       <c r="CT5">
-        <v>0.007449933977774198</v>
+        <v>0.007456591520874344</v>
       </c>
       <c r="CU5">
-        <v>0.002779791330516132</v>
+        <v>0.002771529878047644</v>
       </c>
       <c r="CV5">
-        <v>0.00145985895847555</v>
+        <v>0.001447380918485708</v>
       </c>
       <c r="CW5">
-        <v>0.01356355768509555</v>
+        <v>0.01358974549351883</v>
       </c>
       <c r="CX5">
-        <v>0.006925991328567252</v>
+        <v>0.006930975111645029</v>
       </c>
       <c r="CY5">
-        <v>0.00705018201652772</v>
+        <v>0.007055562532738357</v>
       </c>
       <c r="CZ5">
-        <v>0.03761861135310436</v>
+        <v>0.03772164418879613</v>
       </c>
       <c r="DA5">
-        <v>0.02667588741393491</v>
+        <v>0.02674396319107663</v>
       </c>
       <c r="DB5">
-        <v>0.005482675468487949</v>
+        <v>0.005483048509550533</v>
       </c>
       <c r="DC5">
-        <v>0.00029335197156131</v>
+        <v>0.0002771474688308122</v>
       </c>
       <c r="DD5">
-        <v>0.006729029847661471</v>
+        <v>0.006733384427804184</v>
       </c>
       <c r="DE5">
-        <v>0.01987039707368582</v>
+        <v>0.01991673238422998</v>
       </c>
       <c r="DF5">
-        <v>0.04688099545517253</v>
+        <v>0.0470136174228911</v>
       </c>
       <c r="DG5">
-        <v>0.0355659365520987</v>
+        <v>0.03566241201929594</v>
       </c>
       <c r="DH5">
-        <v>0.005536829063238088</v>
+        <v>0.005537375100566765</v>
       </c>
       <c r="DI5">
-        <v>8.291602196179583E-05</v>
+        <v>6.603927145715354E-05</v>
       </c>
       <c r="DJ5">
-        <v>0.003858183125972605</v>
+        <v>0.003853366648022638</v>
       </c>
       <c r="DK5">
-        <v>0.002362575370962683</v>
+        <v>0.002352981102021148</v>
       </c>
       <c r="DL5">
-        <v>4.370613176295627E-06</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.001745880330747517</v>
+        <v>0.001734315999804221</v>
       </c>
       <c r="DN5">
-        <v>0.0009194507408648411</v>
+        <v>0.0009052463408014965</v>
       </c>
       <c r="DO5">
-        <v>0.001501551854433678</v>
+        <v>0.001489207004407617</v>
       </c>
       <c r="DP5">
-        <v>8.117192213087569E-06</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.002333406773790401</v>
+        <v>0.00232371932436064</v>
       </c>
       <c r="DR5">
-        <v>0.008787406148114404</v>
+        <v>0.008798336310466167</v>
       </c>
       <c r="DS5">
-        <v>0.0191130511471059</v>
+        <v>0.01915696707961903</v>
       </c>
       <c r="DT5">
-        <v>0.006775923343115431</v>
+        <v>0.00678042772678744</v>
       </c>
       <c r="DU5">
-        <v>0.001166037486959755</v>
+        <v>0.001152620820130733</v>
       </c>
       <c r="DV5">
-        <v>5.88774242921917E-05</v>
+        <v>4.192388132976025E-05</v>
       </c>
       <c r="DW5">
-        <v>0.0005863651431554646</v>
+        <v>0.0005710966851111246</v>
       </c>
       <c r="DX5">
-        <v>0.006117469006948575</v>
+        <v>0.006119869926537064</v>
       </c>
       <c r="DY5">
-        <v>0.01860155219669261</v>
+        <v>0.01864383412117837</v>
       </c>
       <c r="DZ5">
-        <v>0.004726763841768985</v>
+        <v>0.004724722086740507</v>
       </c>
       <c r="EA5">
-        <v>7.912694232912405E-06</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.0001373190766877504</v>
+        <v>0.0001206161193611074</v>
       </c>
       <c r="EC5">
-        <v>0.0002705931237676419</v>
+        <v>0.0002543159168019576</v>
       </c>
       <c r="ED5">
-        <v>7.824889241424565E-06</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.000320339368945046</v>
+        <v>0.000304221078755018</v>
       </c>
       <c r="EF5">
-        <v>3.376427672675867E-05</v>
+        <v>1.673050860515287E-05</v>
       </c>
       <c r="EG5">
-        <v>0.0003768005034714822</v>
+        <v>0.0003608625810944791</v>
       </c>
       <c r="EH5">
-        <v>1.232868580480887E-05</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.002242767482577329</v>
+        <v>0.002232790481567223</v>
       </c>
       <c r="EJ5">
-        <v>6.352414384172049E-06</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0006516404068274246</v>
+        <v>0.0006365804737560926</v>
       </c>
       <c r="EL5">
-        <v>0.002912087317690841</v>
+        <v>0.002904248491123848</v>
       </c>
       <c r="EM5">
-        <v>0.008073474217325764</v>
+        <v>0.008082123689746567</v>
       </c>
       <c r="EN5">
-        <v>0.008771613149645439</v>
+        <v>0.008782492860503111</v>
       </c>
       <c r="EO5">
-        <v>0.0004010145411240785</v>
+        <v>0.0003851539716563382</v>
       </c>
       <c r="EP5">
-        <v>0.0004948029020318672</v>
+        <v>0.0004792419439992496</v>
       </c>
       <c r="EQ5">
-        <v>0.0005617329455434064</v>
+        <v>0.0005463857987576773</v>
       </c>
       <c r="ER5">
-        <v>3.989626613229957E-05</v>
+        <v>2.288208694612424E-05</v>
       </c>
       <c r="ES5">
-        <v>0.000295831591320926</v>
+        <v>0.0002796350098551517</v>
       </c>
       <c r="ET5">
-        <v>0.001850008620652913</v>
+        <v>0.001838776932545822</v>
       </c>
       <c r="EU5">
-        <v>0.004238478589105272</v>
+        <v>0.004234876983324698</v>
       </c>
       <c r="EV5">
-        <v>0.003428605067617586</v>
+        <v>0.003422416281874677</v>
       </c>
       <c r="EW5">
-        <v>0.002142429192304516</v>
+        <v>0.002132131655794532</v>
       </c>
       <c r="EX5">
-        <v>0.0008619692164373254</v>
+        <v>0.0008475811888762819</v>
       </c>
       <c r="EY5">
-        <v>7.506466272293736E-05</v>
+        <v>5.816283067313905E-05</v>
       </c>
       <c r="EZ5">
-        <v>0.004528580260981678</v>
+        <v>0.004525905398961216</v>
       </c>
       <c r="FA5">
-        <v>0.01040965699084705</v>
+        <v>0.01042576951163237</v>
       </c>
       <c r="FB5">
-        <v>0.009445502084316004</v>
+        <v>0.009458534565825339</v>
       </c>
       <c r="FC5">
-        <v>0.01057490397482736</v>
+        <v>0.01059154438506016</v>
       </c>
       <c r="FD5">
-        <v>0.002100287296389917</v>
+        <v>0.002089855135564169</v>
       </c>
       <c r="FE5">
-        <v>0.001655233239535202</v>
+        <v>0.001643379332094087</v>
       </c>
       <c r="FF5">
-        <v>0.02436847163762484</v>
+        <v>0.02442917626395986</v>
       </c>
       <c r="FG5">
-        <v>0.04030833409235209</v>
+        <v>0.04041995937685294</v>
       </c>
       <c r="FH5">
-        <v>0.02352270971961632</v>
+        <v>0.02358071251877818</v>
       </c>
       <c r="FI5">
-        <v>0.007922740231938508</v>
+        <v>0.007930908177384679</v>
       </c>
       <c r="FJ5">
-        <v>0.006333470686008526</v>
+        <v>0.006336561633361928</v>
       </c>
       <c r="FK5">
-        <v>0.001776903927739968</v>
+        <v>0.001765438703171147</v>
       </c>
       <c r="FL5">
-        <v>0.0005092068006354967</v>
+        <v>0.0004936918565505613</v>
       </c>
       <c r="FM5">
-        <v>1.575066847306846E-05</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0008940743133249316</v>
+        <v>0.0008797888470418564</v>
       </c>
       <c r="FO5">
-        <v>0.0001201976083475727</v>
+        <v>0.0001034399556658647</v>
       </c>
       <c r="FP5">
-        <v>0.00147896505662333</v>
+        <v>0.001466548051984039</v>
       </c>
       <c r="FQ5">
-        <v>0.0006033956415044613</v>
+        <v>0.0005881815882071689</v>
       </c>
       <c r="FR5">
-        <v>0.0001071115296161885</v>
+        <v>9.031207282583747E-05</v>
       </c>
       <c r="FS5">
-        <v>0.002847867023916608</v>
+        <v>0.002839823042528745</v>
       </c>
       <c r="FT5">
-        <v>0.01088667894460267</v>
+        <v>0.01090431533498936</v>
       </c>
       <c r="FU5">
-        <v>0.01352712768862722</v>
+        <v>0.01355319911967256</v>
       </c>
       <c r="FV5">
-        <v>0.009008396126690767</v>
+        <v>0.00902003225217045</v>
       </c>
       <c r="FW5">
-        <v>0.01171327786446893</v>
+        <v>0.01173355486490846</v>
       </c>
       <c r="FX5">
-        <v>0.01091181694216569</v>
+        <v>0.01092953363709607</v>
       </c>
       <c r="FY5">
-        <v>0.003434246967070638</v>
+        <v>0.003428076204647208</v>
       </c>
       <c r="FZ5">
-        <v>1.872111318510191E-06</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>8.23423420174106E-06</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>5.022352213113489E-05</v>
+        <v>3.324233386153749E-05</v>
       </c>
       <c r="GC5">
-        <v>3.251680684769328E-05</v>
+        <v>1.547905362348924E-05</v>
       </c>
       <c r="GD5">
-        <v>0.0008754531151301434</v>
+        <v>0.000861108162532766</v>
       </c>
       <c r="GE5">
-        <v>0.005838239434018185</v>
+        <v>0.005839748341290171</v>
       </c>
       <c r="GF5">
-        <v>0.006824171938438023</v>
+        <v>0.006828830454571111</v>
       </c>
       <c r="GG5">
-        <v>0.0001152342788287373</v>
+        <v>9.846077055188158E-05</v>
       </c>
       <c r="GH5">
-        <v>0.007212849600758087</v>
+        <v>0.0072187497663995</v>
       </c>
       <c r="GI5">
-        <v>0.01900667715741821</v>
+        <v>0.01905025327309904</v>
       </c>
       <c r="GJ5">
-        <v>0.02016917604472102</v>
+        <v>0.02021646581907529</v>
       </c>
       <c r="GK5">
-        <v>0.02210451585710159</v>
+        <v>0.02215798816767918</v>
       </c>
       <c r="GL5">
-        <v>0.01334209170656533</v>
+        <v>0.01336757203125591</v>
       </c>
       <c r="GM5">
-        <v>0.007456169677169685</v>
+        <v>0.007462847140511818</v>
       </c>
       <c r="GN5">
-        <v>0.007305165091808661</v>
+        <v>0.007311360163731516</v>
       </c>
       <c r="GO5">
-        <v>0.001137437789732322</v>
+        <v>0.001123929759793342</v>
       </c>
       <c r="GP5">
-        <v>3.883875923481844E-05</v>
+        <v>2.182120179193683E-05</v>
       </c>
       <c r="GQ5">
-        <v>0.0001067877996475721</v>
+        <v>8.998730868624775E-05</v>
       </c>
       <c r="GR5">
-        <v>0.0004420337371475168</v>
+        <v>0.0004263042054766759</v>
       </c>
       <c r="GS5">
-        <v>0.001287441275190396</v>
+        <v>0.001274412438608849</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0002238346529673218</v>
+        <v>0.000199493239794311</v>
       </c>
       <c r="C6">
-        <v>5.589793774102544E-07</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.056358427260646E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.256058916651269E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>7.862066104225508E-05</v>
+        <v>5.363323492960015E-05</v>
       </c>
       <c r="G6">
-        <v>6.791032590027075E-05</v>
+        <v>4.287525275995738E-05</v>
       </c>
       <c r="H6">
-        <v>6.953213692177071E-05</v>
+        <v>4.450427872604813E-05</v>
       </c>
       <c r="I6">
-        <v>6.084897080666008E-05</v>
+        <v>3.578248384250356E-05</v>
       </c>
       <c r="J6">
-        <v>1.47364381953574E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>9.123266620944938E-05</v>
+        <v>6.630134707674078E-05</v>
       </c>
       <c r="L6">
-        <v>1.643503021787522E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>4.130473754756691E-09</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>6.148244081505784E-05</v>
+        <v>3.641877196654484E-05</v>
       </c>
       <c r="O6">
-        <v>4.226195656025654E-05</v>
+        <v>1.711278161573844E-05</v>
       </c>
       <c r="P6">
-        <v>2.522496733440129E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.878130938154685E-05</v>
+        <v>3.572163132633264E-06</v>
       </c>
       <c r="R6">
-        <v>3.257209043180032E-05</v>
+        <v>7.379808216285694E-06</v>
       </c>
       <c r="S6">
-        <v>3.9562990524477E-09</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1.032176013683308E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>4.980311566022785E-05</v>
+        <v>2.468748904183118E-05</v>
       </c>
       <c r="V6">
-        <v>3.589062547579333E-05</v>
+        <v>1.071310641464601E-05</v>
       </c>
       <c r="W6">
-        <v>1.54201202044208E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1.484892919684866E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>6.102308080896822E-05</v>
+        <v>3.595736840732404E-05</v>
       </c>
       <c r="Z6">
-        <v>2.858641937896325E-05</v>
+        <v>3.376406123628254E-06</v>
       </c>
       <c r="AA6">
-        <v>2.693726735710083E-05</v>
+        <v>1.719917525369588E-06</v>
       </c>
       <c r="AB6">
-        <v>2.24438282975324E-07</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1.191140715790664E-06</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>8.739998615864047E-07</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1.243111316479626E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.07754251428472E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.724275036115055E-05</v>
+        <v>2.026759530510322E-06</v>
       </c>
       <c r="AH6">
-        <v>6.540018086699437E-06</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>6.583057087269994E-05</v>
+        <v>4.078624553401856E-05</v>
       </c>
       <c r="AJ6">
-        <v>5.169547068531434E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>6.341419084066658E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>2.228377729541064E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>6.902130791499878E-06</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1.932823625622975E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.443755519139518E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.21956891616753E-09</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>2.693726735710083E-05</v>
+        <v>1.719917525369588E-06</v>
       </c>
       <c r="AR6">
-        <v>6.902130791499878E-06</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>9.340574123825731E-06</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>7.100814094133775E-05</v>
+        <v>4.598684903914492E-05</v>
       </c>
       <c r="AU6">
-        <v>8.826724117013746E-05</v>
+        <v>6.332272976221114E-05</v>
       </c>
       <c r="AV6">
-        <v>0.0002597060534428603</v>
+        <v>0.0002355242212342121</v>
       </c>
       <c r="AW6">
-        <v>0.0002267712430062515</v>
+        <v>0.0002024428938303007</v>
       </c>
       <c r="AX6">
-        <v>0.0002021418926797462</v>
+        <v>0.0001777039750056429</v>
       </c>
       <c r="AY6">
-        <v>5.037636066782722E-05</v>
+        <v>2.526328424233956E-05</v>
       </c>
       <c r="AZ6">
-        <v>0.101425101344568</v>
+        <v>0.1018509736258501</v>
       </c>
       <c r="BA6">
-        <v>0.01401101918574069</v>
+        <v>0.01404801276853714</v>
       </c>
       <c r="BB6">
-        <v>0.04221323055961058</v>
+        <v>0.0423756872140613</v>
       </c>
       <c r="BC6">
-        <v>0.01018617613503567</v>
+        <v>0.01020615415293987</v>
       </c>
       <c r="BD6">
-        <v>0.003966688652585431</v>
+        <v>0.003958998059921506</v>
       </c>
       <c r="BE6">
-        <v>0.002862544737948063</v>
+        <v>0.002849942144404407</v>
       </c>
       <c r="BF6">
-        <v>0.0003719568549309421</v>
+        <v>0.0003482743924406344</v>
       </c>
       <c r="BG6">
-        <v>0.000137204511818887</v>
+        <v>0.0001124777074628147</v>
       </c>
       <c r="BH6">
-        <v>0.0007879557104457383</v>
+        <v>0.0007661239004991495</v>
       </c>
       <c r="BI6">
-        <v>0.01621043121489776</v>
+        <v>0.01625720931371507</v>
       </c>
       <c r="BJ6">
-        <v>0.008976738119002445</v>
+        <v>0.008991335714554105</v>
       </c>
       <c r="BK6">
-        <v>0.01849783024522126</v>
+        <v>0.01855478428750055</v>
       </c>
       <c r="BL6">
-        <v>0.006856113090889832</v>
+        <v>0.006861276669855811</v>
       </c>
       <c r="BM6">
-        <v>0.007829365103791999</v>
+        <v>0.00783885838532682</v>
       </c>
       <c r="BN6">
-        <v>0.02502447633174343</v>
+        <v>0.02511046543991738</v>
       </c>
       <c r="BO6">
-        <v>0.0002513065033315095</v>
+        <v>0.0002270873040758765</v>
       </c>
       <c r="BP6">
-        <v>0.0001000585613264521</v>
+        <v>7.516650592015129E-05</v>
       </c>
       <c r="BQ6">
-        <v>0.0002829488437509843</v>
+        <v>0.0002588704116561505</v>
       </c>
       <c r="BR6">
-        <v>0.0001789646823724915</v>
+        <v>0.0001544236563300771</v>
       </c>
       <c r="BS6">
-        <v>0.003519233846653631</v>
+        <v>0.00350955266347769</v>
       </c>
       <c r="BT6">
-        <v>0.00205611882725747</v>
+        <v>0.002039928689798354</v>
       </c>
       <c r="BU6">
-        <v>0.0008580984513756036</v>
+        <v>0.0008365786851767425</v>
       </c>
       <c r="BV6">
-        <v>0.0007879557104457383</v>
+        <v>0.0007661239004991495</v>
       </c>
       <c r="BW6">
-        <v>4.858735064411075E-05</v>
+        <v>2.346631545646007E-05</v>
       </c>
       <c r="BX6">
-        <v>0.0005019982366548691</v>
+        <v>0.0004788942887702766</v>
       </c>
       <c r="BY6">
-        <v>0.004037234553520642</v>
+        <v>0.004029857798140843</v>
       </c>
       <c r="BZ6">
-        <v>0.001777083523558366</v>
+        <v>0.001759652042793296</v>
       </c>
       <c r="CA6">
-        <v>0.0003525434646735834</v>
+        <v>0.0003287746379070627</v>
       </c>
       <c r="CB6">
-        <v>0.001120168714849806</v>
+        <v>0.001099814819646266</v>
       </c>
       <c r="CC6">
-        <v>0.0002985801839582052</v>
+        <v>0.0002745712909477528</v>
       </c>
       <c r="CD6">
-        <v>7.365037097636515E-06</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.001163228315420636</v>
+        <v>0.001143065979300184</v>
       </c>
       <c r="CF6">
-        <v>0.00317981584215405</v>
+        <v>0.003168624691378236</v>
       </c>
       <c r="CG6">
-        <v>1.810988524007837E-06</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.002465954032690556</v>
+        <v>0.002451587127568225</v>
       </c>
       <c r="CI6">
-        <v>0.0009384095424402682</v>
+        <v>0.0009172470558901306</v>
       </c>
       <c r="CJ6">
-        <v>0.01214866916105197</v>
+        <v>0.01217737771429895</v>
       </c>
       <c r="CK6">
-        <v>0.01246117416519477</v>
+        <v>0.01249127295827817</v>
       </c>
       <c r="CL6">
-        <v>0.002206019629244668</v>
+        <v>0.00219049635491949</v>
       </c>
       <c r="CM6">
-        <v>0.017929798237691</v>
+        <v>0.01798422527811508</v>
       </c>
       <c r="CN6">
-        <v>0.0257225333409974</v>
+        <v>0.02581162789276263</v>
       </c>
       <c r="CO6">
-        <v>0.01194009715828698</v>
+        <v>0.01196787783804982</v>
       </c>
       <c r="CP6">
-        <v>9.695185128526724E-05</v>
+        <v>7.20459750696923E-05</v>
       </c>
       <c r="CQ6">
-        <v>0.004354170557722185</v>
+        <v>0.004348203754352101</v>
       </c>
       <c r="CR6">
-        <v>0.01798259823839095</v>
+        <v>0.01803726016997954</v>
       </c>
       <c r="CS6">
-        <v>0.0083665101109128</v>
+        <v>0.00837839298742029</v>
       </c>
       <c r="CT6">
-        <v>0.00396686055258771</v>
+        <v>0.003959170724654677</v>
       </c>
       <c r="CU6">
-        <v>0.0002433074332254678</v>
+        <v>0.0002190526485367431</v>
       </c>
       <c r="CV6">
-        <v>0.004681368462059769</v>
+        <v>0.004676857262775932</v>
       </c>
       <c r="CW6">
-        <v>0.01681087222285767</v>
+        <v>0.01686032150132849</v>
       </c>
       <c r="CX6">
-        <v>0.0006742340689381579</v>
+        <v>0.0006518963459527666</v>
       </c>
       <c r="CY6">
-        <v>0.03420894045349965</v>
+        <v>0.03433578845266402</v>
       </c>
       <c r="CZ6">
-        <v>0.03283707443531315</v>
+        <v>0.0329578194192828</v>
       </c>
       <c r="DA6">
-        <v>0.01372565518195769</v>
+        <v>0.01376137926698392</v>
       </c>
       <c r="DB6">
-        <v>0.0003891300651586031</v>
+        <v>0.0003655240010640369</v>
       </c>
       <c r="DC6">
-        <v>0.002481523232896953</v>
+        <v>0.002467225590417016</v>
       </c>
       <c r="DD6">
-        <v>0.009516343626155865</v>
+        <v>0.009533341762697434</v>
       </c>
       <c r="DE6">
-        <v>0.01765578423405846</v>
+        <v>0.01770899226941531</v>
       </c>
       <c r="DF6">
-        <v>0.04232988056115698</v>
+        <v>0.04249285615603079</v>
       </c>
       <c r="DG6">
-        <v>0.01853739124574571</v>
+        <v>0.01859452128289922</v>
       </c>
       <c r="DH6">
-        <v>0.0007408267098209605</v>
+        <v>0.0007187852372665714</v>
       </c>
       <c r="DI6">
-        <v>0.000139538111849823</v>
+        <v>0.0001148216889714303</v>
       </c>
       <c r="DJ6">
-        <v>0.001953755325900461</v>
+        <v>0.001937109804317906</v>
       </c>
       <c r="DK6">
-        <v>0.00177554952353803</v>
+        <v>0.00175811121847284</v>
       </c>
       <c r="DL6">
-        <v>0.001526020220230081</v>
+        <v>0.001507471835091887</v>
       </c>
       <c r="DM6">
-        <v>0.002027828726882435</v>
+        <v>0.002011512735360196</v>
       </c>
       <c r="DN6">
-        <v>0.0006808543090259209</v>
+        <v>0.0006585460374777055</v>
       </c>
       <c r="DO6">
-        <v>0.0007376350797786498</v>
+        <v>0.000715579408631697</v>
       </c>
       <c r="DP6">
-        <v>0.0007601963700777393</v>
+        <v>0.0007382410672580742</v>
       </c>
       <c r="DQ6">
-        <v>0.008077361107079621</v>
+        <v>0.008087957647501412</v>
       </c>
       <c r="DR6">
-        <v>0.01012533313422909</v>
+        <v>0.01014504048010447</v>
       </c>
       <c r="DS6">
-        <v>0.01008010513362952</v>
+        <v>0.01009961127386875</v>
       </c>
       <c r="DT6">
-        <v>0.005088963567463158</v>
+        <v>0.005086265634991531</v>
       </c>
       <c r="DU6">
-        <v>8.015953106265551E-06</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.002436063332294302</v>
+        <v>0.002421563452525555</v>
       </c>
       <c r="DW6">
-        <v>4.242883756246883E-06</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01577218820908808</v>
+        <v>0.01581701669789393</v>
       </c>
       <c r="DY6">
-        <v>0.01243685616487239</v>
+        <v>0.01246684677455923</v>
       </c>
       <c r="DZ6">
-        <v>0.0001257659816672492</v>
+        <v>0.0001009882907651181</v>
       </c>
       <c r="EA6">
-        <v>0.0005615919074448881</v>
+        <v>0.0005387530736993732</v>
       </c>
       <c r="EB6">
-        <v>3.451401045754389E-05</v>
+        <v>9.330367254343117E-06</v>
       </c>
       <c r="EC6">
-        <v>0.0005064528767139233</v>
+        <v>0.000483368746169805</v>
       </c>
       <c r="ED6">
-        <v>0.001610462221349508</v>
+        <v>0.001592289493024059</v>
       </c>
       <c r="EE6">
-        <v>0.0001049827913917315</v>
+        <v>8.011264238919919E-05</v>
       </c>
       <c r="EF6">
-        <v>0.0002754303336513133</v>
+        <v>0.0002513184539888804</v>
       </c>
       <c r="EG6">
-        <v>2.555828433881999E-06</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.001530609220290916</v>
+        <v>0.00151208125022003</v>
       </c>
       <c r="EI6">
-        <v>0.0009862670130747033</v>
+        <v>0.0009653174298741577</v>
       </c>
       <c r="EJ6">
-        <v>0.000279667473707484</v>
+        <v>0.0002555744437940808</v>
       </c>
       <c r="EK6">
-        <v>0.0008308099410138463</v>
+        <v>0.0008091687765215866</v>
       </c>
       <c r="EL6">
-        <v>0.00270274073582958</v>
+        <v>0.002689427222822814</v>
       </c>
       <c r="EM6">
-        <v>0.002119713528100529</v>
+        <v>0.002103806304147838</v>
       </c>
       <c r="EN6">
-        <v>0.002631008434878642</v>
+        <v>0.002617375806654461</v>
       </c>
       <c r="EO6">
-        <v>0.000148424901967633</v>
+        <v>0.0001237480137190091</v>
       </c>
       <c r="EP6">
-        <v>0.0001993698826429983</v>
+        <v>0.0001749196331382717</v>
       </c>
       <c r="EQ6">
-        <v>0.0001666222722088711</v>
+        <v>0.0001420263385327887</v>
       </c>
       <c r="ER6">
-        <v>4.843200864205142E-05</v>
+        <v>2.331028238502051E-05</v>
       </c>
       <c r="ES6">
-        <v>0.0007563497700267459</v>
+        <v>0.0007343773548519032</v>
       </c>
       <c r="ET6">
-        <v>0.002447529532446307</v>
+        <v>0.002433080662319045</v>
       </c>
       <c r="EU6">
-        <v>0.005687386075396301</v>
+        <v>0.005687350342884707</v>
       </c>
       <c r="EV6">
-        <v>0.002598854534452386</v>
+        <v>0.002585078863292328</v>
       </c>
       <c r="EW6">
-        <v>0.001461001119368138</v>
+        <v>0.001442163484000514</v>
       </c>
       <c r="EX6">
-        <v>1.263891116755099E-05</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.0006676461088508229</v>
+        <v>0.0006452790780321721</v>
       </c>
       <c r="EZ6">
-        <v>0.007265180396312738</v>
+        <v>0.007272163791461616</v>
       </c>
       <c r="FA6">
-        <v>0.009443957125196254</v>
+        <v>0.009460633236183289</v>
       </c>
       <c r="FB6">
-        <v>0.007985941105867689</v>
+        <v>0.007996130946473971</v>
       </c>
       <c r="FC6">
-        <v>0.006124841081195536</v>
+        <v>0.006126751453122721</v>
       </c>
       <c r="FD6">
-        <v>0.0004688130662149414</v>
+        <v>0.0004455614875874412</v>
       </c>
       <c r="FE6">
-        <v>0.01035299313724712</v>
+        <v>0.01037371327332157</v>
       </c>
       <c r="FF6">
-        <v>0.03677755048755109</v>
+        <v>0.03691582545251194</v>
       </c>
       <c r="FG6">
-        <v>0.03650416848392692</v>
+        <v>0.0366412272553966</v>
       </c>
       <c r="FH6">
-        <v>0.01707352122633954</v>
+        <v>0.01712413895044418</v>
       </c>
       <c r="FI6">
-        <v>0.0034973784463639</v>
+        <v>0.0034876000351509</v>
       </c>
       <c r="FJ6">
-        <v>0.002239353529686568</v>
+        <v>0.002223978547758898</v>
       </c>
       <c r="FK6">
-        <v>0.001195477315848154</v>
+        <v>0.001175458445734596</v>
       </c>
       <c r="FL6">
-        <v>0.0002531708533562248</v>
+        <v>0.0002289599480275338</v>
       </c>
       <c r="FM6">
-        <v>1.410977518704988E-06</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.00049066596650464</v>
+        <v>0.0004675116047924574</v>
       </c>
       <c r="FO6">
-        <v>6.440969085386369E-05</v>
+        <v>3.935904445158725E-05</v>
       </c>
       <c r="FP6">
-        <v>0.001770606623472504</v>
+        <v>0.001753146328946385</v>
       </c>
       <c r="FQ6">
-        <v>0.0001547208220510965</v>
+        <v>0.0001300719424384653</v>
       </c>
       <c r="FR6">
-        <v>3.589062547579333E-05</v>
+        <v>1.071310641464601E-05</v>
       </c>
       <c r="FS6">
-        <v>0.005087373367442078</v>
+        <v>0.005084668360653599</v>
       </c>
       <c r="FT6">
-        <v>0.01473811019537956</v>
+        <v>0.01477833838521558</v>
       </c>
       <c r="FU6">
-        <v>0.01031293913671614</v>
+        <v>0.01033348108470909</v>
       </c>
       <c r="FV6">
-        <v>0.006855885090886809</v>
+        <v>0.006861047655550034</v>
       </c>
       <c r="FW6">
-        <v>0.01035669613729621</v>
+        <v>0.01037743274689305</v>
       </c>
       <c r="FX6">
-        <v>0.006797692090115359</v>
+        <v>0.006802595771794948</v>
       </c>
       <c r="FY6">
-        <v>0.0008465948112231026</v>
+        <v>0.0008250238688235668</v>
       </c>
       <c r="FZ6">
-        <v>8.246915109327357E-06</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>6.547025486792333E-06</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>1.051118713934426E-05</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.0001515396320089242</v>
+        <v>0.0001268766002481187</v>
       </c>
       <c r="GD6">
-        <v>0.00280319133716123</v>
+        <v>0.002790324698366755</v>
       </c>
       <c r="GE6">
-        <v>0.008605953114087038</v>
+        <v>0.008618901199782066</v>
       </c>
       <c r="GF6">
-        <v>0.003817785850611463</v>
+        <v>0.003809432834612504</v>
       </c>
       <c r="GG6">
-        <v>0.001507079719978991</v>
+        <v>0.001488447074308576</v>
       </c>
       <c r="GH6">
-        <v>0.01090766214460024</v>
+        <v>0.01093084983460126</v>
       </c>
       <c r="GI6">
-        <v>0.01633771721658516</v>
+        <v>0.01638506157215939</v>
       </c>
       <c r="GJ6">
-        <v>0.02165846728712106</v>
+        <v>0.02172948204351969</v>
       </c>
       <c r="GK6">
-        <v>0.01976133026197117</v>
+        <v>0.01982390523202223</v>
       </c>
       <c r="GL6">
-        <v>0.00881803311689853</v>
+        <v>0.00883192468210431</v>
       </c>
       <c r="GM6">
-        <v>0.004820449063903527</v>
+        <v>0.004816556591969949</v>
       </c>
       <c r="GN6">
-        <v>0.002472895232782574</v>
+        <v>0.002458559206950983</v>
       </c>
       <c r="GO6">
-        <v>4.0624713538552E-05</v>
+        <v>1.546825499716185E-05</v>
       </c>
       <c r="GP6">
-        <v>3.016194639984962E-05</v>
+        <v>4.958942185645991E-06</v>
       </c>
       <c r="GQ6">
-        <v>7.335840097249457E-05</v>
+        <v>4.834756466326167E-05</v>
       </c>
       <c r="GR6">
-        <v>0.0002859184237903514</v>
+        <v>0.0002618532024550683</v>
       </c>
       <c r="GS6">
-        <v>0.001561487220700258</v>
+        <v>0.001543096617473644</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.218161061531359E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.255532847351185E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.279950061580107E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.171081970280263E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.271640570042515E-05</v>
+        <v>4.804306143603103E-06</v>
       </c>
       <c r="G2">
-        <v>1.690336126820414E-05</v>
+        <v>5.247220126760342E-06</v>
       </c>
       <c r="H2">
-        <v>2.250781249121964E-05</v>
+        <v>7.108613276408795E-06</v>
       </c>
       <c r="I2">
-        <v>2.625216117297583E-05</v>
+        <v>7.108613276408795E-06</v>
       </c>
       <c r="J2">
-        <v>2.738989403704706E-05</v>
+        <v>7.108613276408795E-06</v>
       </c>
       <c r="K2">
-        <v>3.070285113242628E-05</v>
+        <v>7.108613276408795E-06</v>
       </c>
       <c r="L2">
-        <v>6.754096996910525E-05</v>
+        <v>4.022534512104641E-05</v>
       </c>
       <c r="M2">
-        <v>0.0001161383154344364</v>
+        <v>8.510946258353172E-05</v>
       </c>
       <c r="N2">
-        <v>0.0001687775317721282</v>
+        <v>0.0001340382553188556</v>
       </c>
       <c r="O2">
-        <v>0.0002335132997278197</v>
+        <v>0.0001950719927100099</v>
       </c>
       <c r="P2">
-        <v>0.0002606028328723519</v>
+        <v>0.0002184333749308371</v>
       </c>
       <c r="Q2">
-        <v>0.0002804164872466511</v>
+        <v>0.0002345138301058814</v>
       </c>
       <c r="R2">
-        <v>0.0002940898098148575</v>
+        <v>0.0002444496930840398</v>
       </c>
       <c r="S2">
-        <v>0.0003069533104086375</v>
+        <v>0.0002535751722031387</v>
       </c>
       <c r="T2">
-        <v>0.0003078427852305486</v>
+        <v>0.0002535751722031387</v>
       </c>
       <c r="U2">
-        <v>0.0003095362830770691</v>
+        <v>0.0002535751722031387</v>
       </c>
       <c r="V2">
-        <v>0.0003145545139185971</v>
+        <v>0.0002548499382297757</v>
       </c>
       <c r="W2">
-        <v>0.0003232230526448509</v>
+        <v>0.000259777544860639</v>
       </c>
       <c r="X2">
-        <v>0.0003232761255531749</v>
+        <v>0.000259777544860639</v>
       </c>
       <c r="Y2">
-        <v>0.0003243361766196993</v>
+        <v>0.000259777544860639</v>
       </c>
       <c r="Z2">
-        <v>0.0003248919147021495</v>
+        <v>0.000259777544860639</v>
       </c>
       <c r="AA2">
-        <v>0.0003292164731655831</v>
+        <v>0.0002603581572134623</v>
       </c>
       <c r="AB2">
-        <v>0.000334234704007111</v>
+        <v>0.0002616329232400993</v>
       </c>
       <c r="AC2">
-        <v>0.0003368672484239772</v>
+        <v>0.0002616329232400993</v>
       </c>
       <c r="AD2">
-        <v>0.0003444110421857497</v>
+        <v>0.000265435004516554</v>
       </c>
       <c r="AE2">
-        <v>0.0003533729739027384</v>
+        <v>0.0002706562077051313</v>
       </c>
       <c r="AF2">
-        <v>0.0003685470134235532</v>
+        <v>0.000282093828889187</v>
       </c>
       <c r="AG2">
-        <v>0.0003901592327410551</v>
+        <v>0.0002999740969187467</v>
       </c>
       <c r="AH2">
-        <v>0.0004236292986840947</v>
+        <v>0.000329720438989265</v>
       </c>
       <c r="AI2">
-        <v>0.0005116124359056511</v>
+        <v>0.0004140176755365104</v>
       </c>
       <c r="AJ2">
-        <v>0.0005732068789605434</v>
+        <v>0.0004719079084587072</v>
       </c>
       <c r="AK2">
-        <v>0.0005948190982780452</v>
+        <v>0.0004897881764882669</v>
       </c>
       <c r="AL2">
-        <v>0.0006040042779879839</v>
+        <v>0.0004952327825675626</v>
       </c>
       <c r="AM2">
-        <v>0.0006067584489010091</v>
+        <v>0.0004952327825675626</v>
       </c>
       <c r="AN2">
-        <v>0.0006157425801172968</v>
+        <v>0.0005004762006582778</v>
       </c>
       <c r="AO2">
-        <v>0.0006310419826341528</v>
+        <v>0.0005120392718198882</v>
       </c>
       <c r="AP2">
-        <v>0.0006405519413338353</v>
+        <v>0.0005178088822326811</v>
       </c>
       <c r="AQ2">
-        <v>0.00066603306052916</v>
+        <v>0.0005395607345268265</v>
       </c>
       <c r="AR2">
-        <v>0.000666039808264247</v>
+        <v>0.0005395607345268265</v>
       </c>
       <c r="AS2">
-        <v>0.0006660805980429589</v>
+        <v>0.0005395607345268265</v>
       </c>
       <c r="AT2">
-        <v>0.0006660867507153646</v>
+        <v>0.0005395607345268265</v>
       </c>
       <c r="AU2">
-        <v>0.0006672324023791858</v>
+        <v>0.0005395607345268265</v>
       </c>
       <c r="AV2">
-        <v>0.0006693804849113509</v>
+        <v>0.0005395607345268265</v>
       </c>
       <c r="AW2">
-        <v>0.0006834494474670633</v>
+        <v>0.0005498925120022428</v>
       </c>
       <c r="AX2">
-        <v>0.0006942174496270176</v>
+        <v>0.0005569210387526935</v>
       </c>
       <c r="AY2">
-        <v>0.0007076180852038352</v>
+        <v>0.0005665840255390772</v>
       </c>
       <c r="AZ2">
-        <v>0.007696235464508378</v>
+        <v>0.007556303421096283</v>
       </c>
       <c r="BA2">
-        <v>0.0627256837267184</v>
+        <v>0.06262018621644089</v>
       </c>
       <c r="BB2">
-        <v>0.1105583392161979</v>
+        <v>0.1104822828363144</v>
       </c>
       <c r="BC2">
-        <v>0.1307250675793473</v>
+        <v>0.1306592566796984</v>
       </c>
       <c r="BD2">
-        <v>0.1433173131816933</v>
+        <v>0.1432564923041644</v>
       </c>
       <c r="BE2">
-        <v>0.1539696463453004</v>
+        <v>0.1539124695064244</v>
       </c>
       <c r="BF2">
-        <v>0.1574317536359695</v>
+        <v>0.1573732319893654</v>
       </c>
       <c r="BG2">
-        <v>0.1719270221782195</v>
+        <v>0.1718748109418948</v>
       </c>
       <c r="BH2">
-        <v>0.1840959537939335</v>
+        <v>0.1840484388687262</v>
       </c>
       <c r="BI2">
-        <v>0.1963804404059983</v>
+        <v>0.1963377019682666</v>
       </c>
       <c r="BJ2">
-        <v>0.2095823119890928</v>
+        <v>0.2095449865546811</v>
       </c>
       <c r="BK2">
-        <v>0.2203197261500131</v>
+        <v>0.2202861037866175</v>
       </c>
       <c r="BL2">
-        <v>0.2485821522575062</v>
+        <v>0.2485643924708187</v>
       </c>
       <c r="BM2">
-        <v>0.2486725384496519</v>
+        <v>0.2486510944296191</v>
       </c>
       <c r="BN2">
-        <v>0.2729292536836425</v>
+        <v>0.2729208929289931</v>
       </c>
       <c r="BO2">
-        <v>0.2755931981995171</v>
+        <v>0.2755829388420932</v>
       </c>
       <c r="BP2">
-        <v>0.2770169634545556</v>
+        <v>0.2770039450118179</v>
       </c>
       <c r="BQ2">
-        <v>0.2770274096212257</v>
+        <v>0.277010651479777</v>
       </c>
       <c r="BR2">
-        <v>0.2770762311196839</v>
+        <v>0.2770557599057581</v>
       </c>
       <c r="BS2">
-        <v>0.2781103741870264</v>
+        <v>0.2780868735534086</v>
       </c>
       <c r="BT2">
-        <v>0.2832581673244629</v>
+        <v>0.2832344914747103</v>
       </c>
       <c r="BU2">
-        <v>0.2835981301737271</v>
+        <v>0.2835709432562049</v>
       </c>
       <c r="BV2">
-        <v>0.2856406074092271</v>
+        <v>0.2856110906917959</v>
       </c>
       <c r="BW2">
-        <v>0.2857186897167613</v>
+        <v>0.2856854802290916</v>
       </c>
       <c r="BX2">
-        <v>0.2865010425920552</v>
+        <v>0.2864646289832847</v>
       </c>
       <c r="BY2">
-        <v>0.2866005004689144</v>
+        <v>0.2865604089210712</v>
       </c>
       <c r="BZ2">
-        <v>0.2877147917337259</v>
+        <v>0.2876717263759936</v>
       </c>
       <c r="CA2">
-        <v>0.2885040700088011</v>
+        <v>0.2884578053350682</v>
       </c>
       <c r="CB2">
-        <v>0.2910882875271933</v>
+        <v>0.2910400689331271</v>
       </c>
       <c r="CC2">
-        <v>0.2933952801543402</v>
+        <v>0.2933449152909908</v>
       </c>
       <c r="CD2">
-        <v>0.2934568745973951</v>
+        <v>0.293402805523913</v>
       </c>
       <c r="CE2">
-        <v>0.2940250371794529</v>
+        <v>0.293967615371671</v>
       </c>
       <c r="CF2">
-        <v>0.2947931512151964</v>
+        <v>0.2947325154068768</v>
       </c>
       <c r="CG2">
-        <v>0.2959425993788977</v>
+        <v>0.2958790141538543</v>
       </c>
       <c r="CH2">
-        <v>0.2976820434239673</v>
+        <v>0.2976159181433064</v>
       </c>
       <c r="CI2">
-        <v>0.2976864350286286</v>
+        <v>0.2976165658483763</v>
       </c>
       <c r="CJ2">
-        <v>0.3023015828828856</v>
+        <v>0.3022311689173723</v>
       </c>
       <c r="CK2">
-        <v>0.310550620622387</v>
+        <v>0.3104821831996939</v>
       </c>
       <c r="CL2">
-        <v>0.3126651800556107</v>
+        <v>0.3125944628463208</v>
       </c>
       <c r="CM2">
-        <v>0.321164479787209</v>
+        <v>0.3210959127618259</v>
       </c>
       <c r="CN2">
-        <v>0.331783692451862</v>
+        <v>0.3317187464848967</v>
       </c>
       <c r="CO2">
-        <v>0.353215121775073</v>
+        <v>0.3531612987849495</v>
       </c>
       <c r="CP2">
-        <v>0.358837797197513</v>
+        <v>0.3587841284822625</v>
       </c>
       <c r="CQ2">
-        <v>0.3588917530308091</v>
+        <v>0.3588343748054741</v>
       </c>
       <c r="CR2">
-        <v>0.3684814397279738</v>
+        <v>0.3684269682376142</v>
       </c>
       <c r="CS2">
-        <v>0.3920933889823255</v>
+        <v>0.3920515533947101</v>
       </c>
       <c r="CT2">
-        <v>0.4015072801850417</v>
+        <v>0.4014682293589432</v>
       </c>
       <c r="CU2">
-        <v>0.4047692909820298</v>
+        <v>0.4047287565138068</v>
       </c>
       <c r="CV2">
-        <v>0.4052415931971148</v>
+        <v>0.4051976394831008</v>
       </c>
       <c r="CW2">
-        <v>0.415110781885453</v>
+        <v>0.4150699288353009</v>
       </c>
       <c r="CX2">
-        <v>0.4261490215368735</v>
+        <v>0.4261120802816616</v>
       </c>
       <c r="CY2">
-        <v>0.431309761973901</v>
+        <v>0.4312726544858729</v>
       </c>
       <c r="CZ2">
-        <v>0.467613068827469</v>
+        <v>0.4675974029785483</v>
       </c>
       <c r="DA2">
-        <v>0.4880413141823599</v>
+        <v>0.4880360752638982</v>
       </c>
       <c r="DB2">
-        <v>0.4986969658458621</v>
+        <v>0.4986953732685521</v>
       </c>
       <c r="DC2">
-        <v>0.4986983823537174</v>
+        <v>0.4986953732685521</v>
       </c>
       <c r="DD2">
-        <v>0.5052514136467774</v>
+        <v>0.5052492043520226</v>
       </c>
       <c r="DE2">
-        <v>0.5195147201963526</v>
+        <v>0.5195186603680115</v>
       </c>
       <c r="DF2">
-        <v>0.5537247491160248</v>
+        <v>0.5537486785326342</v>
       </c>
       <c r="DG2">
-        <v>0.6055380474797984</v>
+        <v>0.6055941799450154</v>
       </c>
       <c r="DH2">
-        <v>0.6121231162718468</v>
+        <v>0.6121800707562837</v>
       </c>
       <c r="DI2">
-        <v>0.6121418454952553</v>
+        <v>0.6121950660280744</v>
       </c>
       <c r="DJ2">
-        <v>0.6139387353385108</v>
+        <v>0.6139894556737457</v>
       </c>
       <c r="DK2">
-        <v>0.618836692183837</v>
+        <v>0.618887063957217</v>
       </c>
       <c r="DL2">
-        <v>0.6190362651875346</v>
+        <v>0.6190830284854438</v>
       </c>
       <c r="DM2">
-        <v>0.6223887767816647</v>
+        <v>0.6224341192302716</v>
       </c>
       <c r="DN2">
-        <v>0.6224069015330923</v>
+        <v>0.6224485096106762</v>
       </c>
       <c r="DO2">
-        <v>0.6231892544083861</v>
+        <v>0.6232276583648694</v>
       </c>
       <c r="DP2">
-        <v>0.6235272613677121</v>
+        <v>0.6235621528993565</v>
       </c>
       <c r="DQ2">
-        <v>0.6269912582583216</v>
+        <v>0.6270248062933126</v>
       </c>
       <c r="DR2">
-        <v>0.633868794441134</v>
+        <v>0.6339033674201083</v>
       </c>
       <c r="DS2">
-        <v>0.6457729220652103</v>
+        <v>0.6458120076244348</v>
       </c>
       <c r="DT2">
-        <v>0.6565821347238632</v>
+        <v>0.6566249731705744</v>
       </c>
       <c r="DU2">
-        <v>0.6584402780651843</v>
+        <v>0.6584806588142686</v>
       </c>
       <c r="DV2">
-        <v>0.6589250098298769</v>
+        <v>0.6589619799572544</v>
       </c>
       <c r="DW2">
-        <v>0.6612704893558083</v>
+        <v>0.6613053399175458</v>
       </c>
       <c r="DX2">
-        <v>0.6654335598243416</v>
+        <v>0.6654675519326985</v>
       </c>
       <c r="DY2">
-        <v>0.682327889290831</v>
+        <v>0.6823698563672463</v>
       </c>
       <c r="DZ2">
-        <v>0.6864861791595153</v>
+        <v>0.6865272844655917</v>
       </c>
       <c r="EA2">
-        <v>0.6869780077439837</v>
+        <v>0.6870157073523911</v>
       </c>
       <c r="EB2">
-        <v>0.6869803671742092</v>
+        <v>0.6870157073523911</v>
       </c>
       <c r="EC2">
-        <v>0.6879902637423174</v>
+        <v>0.6880225576776835</v>
       </c>
       <c r="ED2">
-        <v>0.6880166252994849</v>
+        <v>0.6880451905788305</v>
       </c>
       <c r="EE2">
-        <v>0.6889959031685601</v>
+        <v>0.6890214009606965</v>
       </c>
       <c r="EF2">
-        <v>0.6889999249654331</v>
+        <v>0.6890216786013916</v>
       </c>
       <c r="EG2">
-        <v>0.6890036549868153</v>
+        <v>0.6890216786013916</v>
       </c>
       <c r="EH2">
-        <v>0.6892716808283512</v>
+        <v>0.689286143462584</v>
       </c>
       <c r="EI2">
-        <v>0.6916976442517411</v>
+        <v>0.6917100431630581</v>
       </c>
       <c r="EJ2">
-        <v>0.6923817147301387</v>
+        <v>0.6923908413283691</v>
       </c>
       <c r="EK2">
-        <v>0.6925323693353811</v>
+        <v>0.6925378535167348</v>
       </c>
       <c r="EL2">
-        <v>0.6946834387674519</v>
+        <v>0.6946866684942051</v>
       </c>
       <c r="EM2">
-        <v>0.6990437400297567</v>
+        <v>0.6990462481491964</v>
       </c>
       <c r="EN2">
-        <v>0.7058232843156635</v>
+        <v>0.7058267493886606</v>
       </c>
       <c r="EO2">
-        <v>0.707603457259447</v>
+        <v>0.7076044105360527</v>
       </c>
       <c r="EP2">
-        <v>0.7082855906379056</v>
+        <v>0.7082832702573929</v>
       </c>
       <c r="EQ2">
-        <v>0.7083553911257013</v>
+        <v>0.7083493722287153</v>
       </c>
       <c r="ER2">
-        <v>0.7086881047951945</v>
+        <v>0.708678569800688</v>
       </c>
       <c r="ES2">
-        <v>0.7089187086679122</v>
+        <v>0.7089055867283071</v>
       </c>
       <c r="ET2">
-        <v>0.7102084724271823</v>
+        <v>0.7101924984270372</v>
       </c>
       <c r="EU2">
-        <v>0.7123363448599856</v>
+        <v>0.7123181003102985</v>
       </c>
       <c r="EV2">
-        <v>0.7165923817255831</v>
+        <v>0.7165733432260625</v>
       </c>
       <c r="EW2">
-        <v>0.7178259868866268</v>
+        <v>0.71780405736164</v>
       </c>
       <c r="EX2">
-        <v>0.7185126444249427</v>
+        <v>0.7184874443818678</v>
       </c>
       <c r="EY2">
-        <v>0.7186809829796267</v>
+        <v>0.7186521527894576</v>
       </c>
       <c r="EZ2">
-        <v>0.7207545051141464</v>
+        <v>0.7207233666641749</v>
       </c>
       <c r="FA2">
-        <v>0.7291312588496146</v>
+        <v>0.7291021855565758</v>
       </c>
       <c r="FB2">
-        <v>0.7368217256067553</v>
+        <v>0.7367942412991952</v>
       </c>
       <c r="FC2">
-        <v>0.7447084153576994</v>
+        <v>0.7446826561824359</v>
       </c>
       <c r="FD2">
-        <v>0.7481241622498326</v>
+        <v>0.7480970261002705</v>
       </c>
       <c r="FE2">
-        <v>0.7486946827318159</v>
+        <v>0.7486641954839528</v>
       </c>
       <c r="FF2">
-        <v>0.7710741870250875</v>
+        <v>0.7710554805637743</v>
       </c>
       <c r="FG2">
-        <v>0.8056383499335763</v>
+        <v>0.8056398784285584</v>
       </c>
       <c r="FH2">
-        <v>0.8315233201161477</v>
+        <v>0.8315390616204117</v>
       </c>
       <c r="FI2">
-        <v>0.8379892467119584</v>
+        <v>0.8380057275701513</v>
       </c>
       <c r="FJ2">
-        <v>0.8405500321310907</v>
+        <v>0.8405645428108874</v>
       </c>
       <c r="FK2">
-        <v>0.8421962741791036</v>
+        <v>0.8422081801362676</v>
       </c>
       <c r="FL2">
-        <v>0.8430222695530193</v>
+        <v>0.8430310016698728</v>
       </c>
       <c r="FM2">
-        <v>0.8430384510115083</v>
+        <v>0.8430434474090098</v>
       </c>
       <c r="FN2">
-        <v>0.8430398675193636</v>
+        <v>0.8430434474090098</v>
       </c>
       <c r="FO2">
-        <v>0.8431904311446089</v>
+        <v>0.8431903685542531</v>
       </c>
       <c r="FP2">
-        <v>0.8438427643840087</v>
+        <v>0.8438394074600886</v>
       </c>
       <c r="FQ2">
-        <v>0.8456062986283176</v>
+        <v>0.8456004183634569</v>
       </c>
       <c r="FR2">
-        <v>0.8456286054516131</v>
+        <v>0.8456189937174066</v>
       </c>
       <c r="FS2">
-        <v>0.8470670441061883</v>
+        <v>0.8470546834676187</v>
       </c>
       <c r="FT2">
-        <v>0.856249149816224</v>
+        <v>0.856239413117768</v>
       </c>
       <c r="FU2">
-        <v>0.868287618436058</v>
+        <v>0.868282487528636</v>
       </c>
       <c r="FV2">
-        <v>0.8769562971623074</v>
+        <v>0.8769534339602443</v>
       </c>
       <c r="FW2">
-        <v>0.8874384768312877</v>
+        <v>0.8874391396090487</v>
       </c>
       <c r="FX2">
-        <v>0.8984119224847543</v>
+        <v>0.8984164521009678</v>
       </c>
       <c r="FY2">
-        <v>0.9008647299072965</v>
+        <v>0.90086721442596</v>
       </c>
       <c r="FZ2">
-        <v>0.9011995649267226</v>
+        <v>0.9011985348197372</v>
       </c>
       <c r="GA2">
-        <v>0.901221211615039</v>
+        <v>0.9012164495806816</v>
       </c>
       <c r="GB2">
-        <v>0.9012348849376072</v>
+        <v>0.9012263854436597</v>
       </c>
       <c r="GC2">
-        <v>0.9013912633826688</v>
+        <v>0.9013791254432578</v>
       </c>
       <c r="GD2">
-        <v>0.9025946855446656</v>
+        <v>0.9025796356377002</v>
       </c>
       <c r="GE2">
-        <v>0.9069642914066767</v>
+        <v>0.9069485263482753</v>
       </c>
       <c r="GF2">
-        <v>0.9135033312001786</v>
+        <v>0.9134883562243644</v>
       </c>
       <c r="GG2">
-        <v>0.9137522944923165</v>
+        <v>0.9137337453098523</v>
       </c>
       <c r="GH2">
-        <v>0.9189361333286147</v>
+        <v>0.9189174339398635</v>
       </c>
       <c r="GI2">
-        <v>0.9343282618425425</v>
+        <v>0.9343164951389065</v>
       </c>
       <c r="GJ2">
-        <v>0.9531746852473861</v>
+        <v>0.9531722479472536</v>
       </c>
       <c r="GK2">
-        <v>0.974585507571248</v>
+        <v>0.9745941789500538</v>
       </c>
       <c r="GL2">
-        <v>0.9871093721757535</v>
+        <v>0.9871229861313974</v>
       </c>
       <c r="GM2">
-        <v>0.9932671689812947</v>
+        <v>0.9932813084989482</v>
       </c>
       <c r="GN2">
-        <v>0.9977011898412715</v>
+        <v>0.9977146589010127</v>
       </c>
       <c r="GO2">
-        <v>0.9993095616904804</v>
+        <v>0.9993203997518351</v>
       </c>
       <c r="GP2">
-        <v>0.9993224251910742</v>
+        <v>0.9993295252309542</v>
       </c>
       <c r="GQ2">
-        <v>0.9993225014113958</v>
+        <v>0.9993295252309542</v>
       </c>
       <c r="GR2">
-        <v>0.9994482063474261</v>
+        <v>0.9994515704390985</v>
       </c>
       <c r="GS2">
         <v>1.000000000000001</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0002375131704299351</v>
+        <v>0.0002163515722753372</v>
       </c>
       <c r="C3">
-        <v>0.0006278407311364875</v>
+        <v>0.0005860886002090747</v>
       </c>
       <c r="D3">
-        <v>0.0008614195015593007</v>
+        <v>0.0007984910696758191</v>
       </c>
       <c r="E3">
-        <v>0.0009135603856536837</v>
+        <v>0.0008287776218012259</v>
       </c>
       <c r="F3">
-        <v>0.001049120265899068</v>
+        <v>0.000942794905777385</v>
       </c>
       <c r="G3">
-        <v>0.001460489546643709</v>
+        <v>0.001333652286382337</v>
       </c>
       <c r="H3">
-        <v>0.001898803567437124</v>
+        <v>0.001751555099177916</v>
       </c>
       <c r="I3">
-        <v>0.002027585387670239</v>
+        <v>0.001858768993620014</v>
       </c>
       <c r="J3">
-        <v>0.002099662607800709</v>
+        <v>0.001909066383609047</v>
       </c>
       <c r="K3">
-        <v>0.002099681260270743</v>
+        <v>0.001909066383609047</v>
       </c>
       <c r="L3">
-        <v>0.0021910306104361</v>
+        <v>0.001978707923331348</v>
       </c>
       <c r="M3">
-        <v>0.002795846711530909</v>
+        <v>0.002563735032529062</v>
       </c>
       <c r="N3">
-        <v>0.003245129092344179</v>
+        <v>0.002992647193962721</v>
       </c>
       <c r="O3">
-        <v>0.003570682292933479</v>
+        <v>0.003297367800840946</v>
       </c>
       <c r="P3">
-        <v>0.003602875207991754</v>
+        <v>0.003307631838630336</v>
       </c>
       <c r="Q3">
-        <v>0.003611897999008087</v>
+        <v>0.003307631838630336</v>
       </c>
       <c r="R3">
-        <v>0.003614369723412561</v>
+        <v>0.003307631838630336</v>
       </c>
       <c r="S3">
-        <v>0.003701840843570897</v>
+        <v>0.003373380655450703</v>
       </c>
       <c r="T3">
-        <v>0.003723807934610661</v>
+        <v>0.003373380655450703</v>
       </c>
       <c r="U3">
-        <v>0.003726307546915185</v>
+        <v>0.003373380655450703</v>
       </c>
       <c r="V3">
-        <v>0.003727074984456574</v>
+        <v>0.003373380655450703</v>
       </c>
       <c r="W3">
-        <v>0.003731859826065235</v>
+        <v>0.003373380655450703</v>
       </c>
       <c r="X3">
-        <v>0.003737938254776238</v>
+        <v>0.003373380655450703</v>
       </c>
       <c r="Y3">
-        <v>0.003743401079186127</v>
+        <v>0.003373380655450703</v>
       </c>
       <c r="Z3">
-        <v>0.003784367776260283</v>
+        <v>0.003392451262764844</v>
       </c>
       <c r="AA3">
-        <v>0.003862894800402429</v>
+        <v>0.003449222559598955</v>
       </c>
       <c r="AB3">
-        <v>0.003868256833712135</v>
+        <v>0.003449222559598955</v>
       </c>
       <c r="AC3">
-        <v>0.003882618338738131</v>
+        <v>0.003449222559598955</v>
       </c>
       <c r="AD3">
-        <v>0.003882710272573298</v>
+        <v>0.003449222559598955</v>
       </c>
       <c r="AE3">
-        <v>0.003882931020173697</v>
+        <v>0.003449222559598955</v>
       </c>
       <c r="AF3">
-        <v>0.003889858859586238</v>
+        <v>0.003449222559598955</v>
       </c>
       <c r="AG3">
-        <v>0.003931815959662186</v>
+        <v>0.00346928727103798</v>
       </c>
       <c r="AH3">
-        <v>0.003995042009776635</v>
+        <v>0.003510700414304175</v>
       </c>
       <c r="AI3">
-        <v>0.004302666380333482</v>
+        <v>0.00379742519134614</v>
       </c>
       <c r="AJ3">
-        <v>0.004622092180911691</v>
+        <v>0.004095995500199413</v>
       </c>
       <c r="AK3">
-        <v>0.004745405871134908</v>
+        <v>0.004197720830301141</v>
       </c>
       <c r="AL3">
-        <v>0.00479284491522078</v>
+        <v>0.004223287971703298</v>
       </c>
       <c r="AM3">
-        <v>0.004794401801223599</v>
+        <v>0.004223287971703298</v>
       </c>
       <c r="AN3">
-        <v>0.004806857953246146</v>
+        <v>0.004223287971703298</v>
       </c>
       <c r="AO3">
-        <v>0.004966374653534896</v>
+        <v>0.004361351602046617</v>
       </c>
       <c r="AP3">
-        <v>0.00499310366358328</v>
+        <v>0.004366131316284415</v>
       </c>
       <c r="AQ3">
-        <v>0.004996262307088998</v>
+        <v>0.004366131316284415</v>
       </c>
       <c r="AR3">
-        <v>0.005049519774185402</v>
+        <v>0.004397538624067947</v>
       </c>
       <c r="AS3">
-        <v>0.005169441004402478</v>
+        <v>0.004495858816584773</v>
       </c>
       <c r="AT3">
-        <v>0.005169445698208686</v>
+        <v>0.004495858816584773</v>
       </c>
       <c r="AU3">
-        <v>0.005279019524407031</v>
+        <v>0.004583792936969115</v>
       </c>
       <c r="AV3">
-        <v>0.005726673225217352</v>
+        <v>0.005011070332043913</v>
       </c>
       <c r="AW3">
-        <v>0.00611261196591596</v>
+        <v>0.005376402139006624</v>
       </c>
       <c r="AX3">
-        <v>0.006125709505939669</v>
+        <v>0.005376402139006624</v>
       </c>
       <c r="AY3">
-        <v>0.006283933716226079</v>
+        <v>0.005513168449329336</v>
       </c>
       <c r="AZ3">
-        <v>0.006318298799288285</v>
+        <v>0.005525612772486135</v>
       </c>
       <c r="BA3">
-        <v>0.00632484802430014</v>
+        <v>0.005525612772486135</v>
       </c>
       <c r="BB3">
-        <v>0.006341740977330719</v>
+        <v>0.005525612772486135</v>
       </c>
       <c r="BC3">
-        <v>0.006341892265110993</v>
+        <v>0.005525612772486135</v>
       </c>
       <c r="BD3">
-        <v>0.006378238765176786</v>
+        <v>0.005540045917176</v>
       </c>
       <c r="BE3">
-        <v>0.006470987565344676</v>
+        <v>0.005611092136627227</v>
       </c>
       <c r="BF3">
-        <v>0.006480958067362724</v>
+        <v>0.005611092136627227</v>
       </c>
       <c r="BG3">
-        <v>0.006531811217454776</v>
+        <v>0.005640086142505145</v>
       </c>
       <c r="BH3">
-        <v>0.00667895044772112</v>
+        <v>0.005765726048382148</v>
       </c>
       <c r="BI3">
-        <v>0.006900159958121543</v>
+        <v>0.005965713034063254</v>
       </c>
       <c r="BJ3">
-        <v>0.007106013068494169</v>
+        <v>0.006150286233050105</v>
       </c>
       <c r="BK3">
-        <v>0.007133719702544322</v>
+        <v>0.006156047224657806</v>
       </c>
       <c r="BL3">
-        <v>0.007186475117639817</v>
+        <v>0.006186950604278655</v>
       </c>
       <c r="BM3">
-        <v>0.007189366308745051</v>
+        <v>0.006186950604278655</v>
       </c>
       <c r="BN3">
-        <v>0.007191590258649077</v>
+        <v>0.006186950604278655</v>
       </c>
       <c r="BO3">
-        <v>0.007212842353687547</v>
+        <v>0.006186950604278655</v>
       </c>
       <c r="BP3">
-        <v>0.007301999843848935</v>
+        <v>0.006254392093044764</v>
       </c>
       <c r="BQ3">
-        <v>0.007676442184526733</v>
+        <v>0.006608184538089848</v>
       </c>
       <c r="BR3">
-        <v>0.007681983783036764</v>
+        <v>0.006608184538089848</v>
       </c>
       <c r="BS3">
-        <v>0.007683446186939411</v>
+        <v>0.006608184538089848</v>
       </c>
       <c r="BT3">
-        <v>0.007730885231025283</v>
+        <v>0.006633751679492005</v>
       </c>
       <c r="BU3">
-        <v>0.007787178091127182</v>
+        <v>0.006668205723505073</v>
       </c>
       <c r="BV3">
-        <v>0.007883919151302298</v>
+        <v>0.006743259121987062</v>
       </c>
       <c r="BW3">
-        <v>0.007884319202783022</v>
+        <v>0.006743259121987062</v>
       </c>
       <c r="BX3">
-        <v>0.007904716178819944</v>
+        <v>0.006743259121987062</v>
       </c>
       <c r="BY3">
-        <v>0.007920235827848038</v>
+        <v>0.006743259121987062</v>
       </c>
       <c r="BZ3">
-        <v>0.007936193799876924</v>
+        <v>0.006743259121987062</v>
       </c>
       <c r="CA3">
-        <v>0.007940107744384009</v>
+        <v>0.006743259121987062</v>
       </c>
       <c r="CB3">
-        <v>0.008127629894723452</v>
+        <v>0.00690943285838236</v>
       </c>
       <c r="CC3">
-        <v>0.008167456067795544</v>
+        <v>0.006927358679571128</v>
       </c>
       <c r="CD3">
-        <v>0.008232801202913828</v>
+        <v>0.006970898826834159</v>
       </c>
       <c r="CE3">
-        <v>0.008232805896720036</v>
+        <v>0.006970898826834159</v>
       </c>
       <c r="CF3">
-        <v>0.00823325607028085</v>
+        <v>0.006970898826834159</v>
       </c>
       <c r="CG3">
-        <v>0.008262980409334656</v>
+        <v>0.006978685063582775</v>
       </c>
       <c r="CH3">
-        <v>0.008403357979588761</v>
+        <v>0.007097538041212332</v>
       </c>
       <c r="CI3">
-        <v>0.008403455354958938</v>
+        <v>0.007097538041212332</v>
       </c>
       <c r="CJ3">
-        <v>0.008413532180977179</v>
+        <v>0.007097538041212332</v>
       </c>
       <c r="CK3">
-        <v>0.00848758148611122</v>
+        <v>0.007149814885860852</v>
       </c>
       <c r="CL3">
-        <v>0.008546402546217696</v>
+        <v>0.007186806577728912</v>
       </c>
       <c r="CM3">
-        <v>0.008770289076622965</v>
+        <v>0.007389480587403679</v>
       </c>
       <c r="CN3">
-        <v>0.1181951992746987</v>
+        <v>0.117201261064798</v>
       </c>
       <c r="CO3">
-        <v>0.1280395012925184</v>
+        <v>0.1270603019289888</v>
       </c>
       <c r="CP3">
-        <v>0.1810923853885522</v>
+        <v>0.1802893947786198</v>
       </c>
       <c r="CQ3">
-        <v>0.1942402089123518</v>
+        <v>0.1934643023655375</v>
       </c>
       <c r="CR3">
-        <v>0.2161603219520306</v>
+        <v>0.2154442813997509</v>
       </c>
       <c r="CS3">
-        <v>0.2290652989753905</v>
+        <v>0.2283754349720267</v>
       </c>
       <c r="CT3">
-        <v>0.2295209558462153</v>
+        <v>0.2288107454448579</v>
       </c>
       <c r="CU3">
-        <v>0.2349461212560357</v>
+        <v>0.234234135445228</v>
       </c>
       <c r="CV3">
-        <v>0.2349677293690748</v>
+        <v>0.234234135445228</v>
       </c>
       <c r="CW3">
-        <v>0.2635312994207792</v>
+        <v>0.2628823980036041</v>
       </c>
       <c r="CX3">
-        <v>0.2755568384425473</v>
+        <v>0.2749308271259553</v>
       </c>
       <c r="CY3">
-        <v>0.3027803954918261</v>
+        <v>0.302234069070807</v>
       </c>
       <c r="CZ3">
-        <v>0.3209989835248045</v>
+        <v>0.3204986905476858</v>
       </c>
       <c r="DA3">
-        <v>0.3403071315597552</v>
+        <v>0.3398569436980423</v>
       </c>
       <c r="DB3">
-        <v>0.3580763135919202</v>
+        <v>0.3576704797497487</v>
       </c>
       <c r="DC3">
-        <v>0.3636593321020263</v>
+        <v>0.3632523127453799</v>
       </c>
       <c r="DD3">
-        <v>0.3645226873035891</v>
+        <v>0.3640968451122893</v>
       </c>
       <c r="DE3">
-        <v>0.3645253228714939</v>
+        <v>0.3640968451122893</v>
       </c>
       <c r="DF3">
-        <v>0.3661614180744555</v>
+        <v>0.3657170051998963</v>
       </c>
       <c r="DG3">
-        <v>0.3749543950903721</v>
+        <v>0.3745207922743747</v>
       </c>
       <c r="DH3">
-        <v>0.3754243908412229</v>
+        <v>0.3749704952114393</v>
       </c>
       <c r="DI3">
-        <v>0.3827762428545308</v>
+        <v>0.3823277718179853</v>
       </c>
       <c r="DJ3">
-        <v>0.3828909745997385</v>
+        <v>0.382420883132455</v>
       </c>
       <c r="DK3">
-        <v>0.3840401005018186</v>
+        <v>0.3835522541212594</v>
       </c>
       <c r="DL3">
-        <v>0.3840524042168409</v>
+        <v>0.3835522541212594</v>
       </c>
       <c r="DM3">
-        <v>0.3850919045187225</v>
+        <v>0.3845735898404284</v>
       </c>
       <c r="DN3">
-        <v>0.3851090820947536</v>
+        <v>0.3845735898404284</v>
       </c>
       <c r="DO3">
-        <v>0.3895579191028067</v>
+        <v>0.3890170029125378</v>
       </c>
       <c r="DP3">
-        <v>0.3954148955134087</v>
+        <v>0.3948738175857631</v>
       </c>
       <c r="DQ3">
-        <v>0.3961051210846582</v>
+        <v>0.3955445733391906</v>
       </c>
       <c r="DR3">
-        <v>0.3972280578866909</v>
+        <v>0.3966496573596225</v>
       </c>
       <c r="DS3">
-        <v>0.398283321588601</v>
+        <v>0.3976868153864402</v>
       </c>
       <c r="DT3">
-        <v>0.3983415542857064</v>
+        <v>0.3977232165166023</v>
       </c>
       <c r="DU3">
-        <v>0.399554993987903</v>
+        <v>0.3989191416453547</v>
       </c>
       <c r="DV3">
-        <v>0.4001183068889226</v>
+        <v>0.3994625104575603</v>
       </c>
       <c r="DW3">
-        <v>0.405280499898267</v>
+        <v>0.4046219453330264</v>
       </c>
       <c r="DX3">
-        <v>0.4197340499244301</v>
+        <v>0.4191074589052034</v>
       </c>
       <c r="DY3">
-        <v>0.4272761519380824</v>
+        <v>0.4266556964738618</v>
       </c>
       <c r="DZ3">
-        <v>0.4309825631447916</v>
+        <v>0.4303539093090985</v>
       </c>
       <c r="EA3">
-        <v>0.4424230981655007</v>
+        <v>0.4418151482780749</v>
       </c>
       <c r="EB3">
-        <v>0.460062660197431</v>
+        <v>0.4594985799412977</v>
       </c>
       <c r="EC3">
-        <v>0.4783619972305556</v>
+        <v>0.4778442521762823</v>
       </c>
       <c r="ED3">
-        <v>0.4790502038318014</v>
+        <v>0.4785129814148416</v>
       </c>
       <c r="EE3">
-        <v>0.48235853143779</v>
+        <v>0.481811623016138</v>
       </c>
       <c r="EF3">
-        <v>0.5156431414980401</v>
+        <v>0.5151985680479483</v>
       </c>
       <c r="EG3">
-        <v>0.5380467395385941</v>
+        <v>0.5376638388601742</v>
       </c>
       <c r="EH3">
-        <v>0.5452368335516092</v>
+        <v>0.5448587529788917</v>
       </c>
       <c r="EI3">
-        <v>0.5465014255538984</v>
+        <v>0.5461060215632145</v>
       </c>
       <c r="EJ3">
-        <v>0.5558807975708765</v>
+        <v>0.5554983949892193</v>
       </c>
       <c r="EK3">
-        <v>0.5706451575976023</v>
+        <v>0.570295880054874</v>
       </c>
       <c r="EL3">
-        <v>0.5708879584580417</v>
+        <v>0.5705175390771874</v>
       </c>
       <c r="EM3">
-        <v>0.6018977145141742</v>
+        <v>0.6016211290051601</v>
       </c>
       <c r="EN3">
-        <v>0.6376636345789159</v>
+        <v>0.6374986566645603</v>
       </c>
       <c r="EO3">
-        <v>0.6609701946211044</v>
+        <v>0.6608702638356344</v>
       </c>
       <c r="EP3">
-        <v>0.6625987185240523</v>
+        <v>0.6624828243293783</v>
       </c>
       <c r="EQ3">
-        <v>0.6654799044292676</v>
+        <v>0.6653527280069412</v>
       </c>
       <c r="ER3">
-        <v>0.6761390744485624</v>
+        <v>0.6760296820236921</v>
       </c>
       <c r="ES3">
-        <v>0.7082569445067006</v>
+        <v>0.7082455269612319</v>
       </c>
       <c r="ET3">
-        <v>0.774645494626874</v>
+        <v>0.7748601210448648</v>
       </c>
       <c r="EU3">
-        <v>0.8032277446786122</v>
+        <v>0.803527133410191</v>
       </c>
       <c r="EV3">
-        <v>0.8061006801838126</v>
+        <v>0.8063887558561018</v>
       </c>
       <c r="EW3">
-        <v>0.8064955793545274</v>
+        <v>0.8067630815780907</v>
       </c>
       <c r="EX3">
-        <v>0.8125019957653999</v>
+        <v>0.812769894706917</v>
       </c>
       <c r="EY3">
-        <v>0.815024517169966</v>
+        <v>0.8152797935592734</v>
       </c>
       <c r="EZ3">
-        <v>0.8156980078711852</v>
+        <v>0.8159337519046796</v>
       </c>
       <c r="FA3">
-        <v>0.8162044244221018</v>
+        <v>0.8164200117458646</v>
       </c>
       <c r="FB3">
-        <v>0.8164408760525298</v>
+        <v>0.8166352978111769</v>
       </c>
       <c r="FC3">
-        <v>0.8171769639538622</v>
+        <v>0.8173520872816162</v>
       </c>
       <c r="FD3">
-        <v>0.8184653695561944</v>
+        <v>0.8186232584570946</v>
       </c>
       <c r="FE3">
-        <v>0.825157896568309</v>
+        <v>0.8253187461735239</v>
       </c>
       <c r="FF3">
-        <v>0.8397907545947967</v>
+        <v>0.8399842378176822</v>
       </c>
       <c r="FG3">
-        <v>0.8618503426347279</v>
+        <v>0.8621042130684033</v>
       </c>
       <c r="FH3">
-        <v>0.8700914146496456</v>
+        <v>0.870354032680098</v>
       </c>
       <c r="FI3">
-        <v>0.8700951779222523</v>
+        <v>0.870354032680098</v>
       </c>
       <c r="FJ3">
-        <v>0.8713891105245946</v>
+        <v>0.8716307515099133</v>
       </c>
       <c r="FK3">
-        <v>0.8714060034776251</v>
+        <v>0.8716307515099133</v>
       </c>
       <c r="FL3">
-        <v>0.8859531225039576</v>
+        <v>0.886210183748392</v>
       </c>
       <c r="FM3">
-        <v>0.8956858275215753</v>
+        <v>0.8959572105758477</v>
       </c>
       <c r="FN3">
-        <v>0.8959629151420769</v>
+        <v>0.896213284487398</v>
       </c>
       <c r="FO3">
-        <v>0.8961490357124139</v>
+        <v>0.8963780514061046</v>
       </c>
       <c r="FP3">
-        <v>0.8965997809332298</v>
+        <v>0.8968084318741549</v>
       </c>
       <c r="FQ3">
-        <v>0.8982148838361533</v>
+        <v>0.8984075212137727</v>
       </c>
       <c r="FR3">
-        <v>0.8988140390972379</v>
+        <v>0.8989868663284749</v>
       </c>
       <c r="FS3">
-        <v>0.8988711640123414</v>
+        <v>0.8990221555368682</v>
       </c>
       <c r="FT3">
-        <v>0.8988721724571431</v>
+        <v>0.8990221555368682</v>
       </c>
       <c r="FU3">
-        <v>0.8988753626159489</v>
+        <v>0.8990221555368682</v>
       </c>
       <c r="FV3">
-        <v>0.8997150122574689</v>
+        <v>0.8998428937563663</v>
       </c>
       <c r="FW3">
-        <v>0.9013907479605022</v>
+        <v>0.9015028424800763</v>
       </c>
       <c r="FX3">
-        <v>0.9016664248810012</v>
+        <v>0.9017575004198566</v>
       </c>
       <c r="FY3">
-        <v>0.9024064755823409</v>
+        <v>0.902478267499235</v>
       </c>
       <c r="FZ3">
-        <v>0.910573245097124</v>
+        <v>0.910653506943322</v>
       </c>
       <c r="GA3">
-        <v>0.9181220276107884</v>
+        <v>0.9182084499769338</v>
       </c>
       <c r="GB3">
-        <v>0.9235717674206533</v>
+        <v>0.9236565062115607</v>
       </c>
       <c r="GC3">
-        <v>0.9236137245207292</v>
+        <v>0.9236765709229997</v>
       </c>
       <c r="GD3">
-        <v>0.9239319190613052</v>
+        <v>0.9239739053706482</v>
       </c>
       <c r="GE3">
-        <v>0.9241757956417467</v>
+        <v>0.9241966441329151</v>
       </c>
       <c r="GF3">
-        <v>0.9241932934427783</v>
+        <v>0.9241966441329151</v>
       </c>
       <c r="GG3">
-        <v>0.9255995862453239</v>
+        <v>0.9255861430515353</v>
       </c>
       <c r="GH3">
-        <v>0.9330513696588127</v>
+        <v>0.9330437245006002</v>
       </c>
       <c r="GI3">
-        <v>0.9417317276745255</v>
+        <v>0.941734471719141</v>
       </c>
       <c r="GJ3">
-        <v>0.9438299656783237</v>
+        <v>0.9438185016291989</v>
       </c>
       <c r="GK3">
-        <v>0.9455982440815245</v>
+        <v>0.945571338883939</v>
       </c>
       <c r="GL3">
-        <v>0.945638282471597</v>
+        <v>0.9455894777151803</v>
       </c>
       <c r="GM3">
-        <v>0.9470725926741933</v>
+        <v>0.9470070987345095</v>
       </c>
       <c r="GN3">
-        <v>0.9558271496900403</v>
+        <v>0.9557723222338796</v>
       </c>
       <c r="GO3">
-        <v>0.964263241705311</v>
+        <v>0.9642178906331231</v>
       </c>
       <c r="GP3">
-        <v>0.9743712707236081</v>
+        <v>0.9743416440421496</v>
       </c>
       <c r="GQ3">
-        <v>0.9828899737390282</v>
+        <v>0.9828701321577719</v>
       </c>
       <c r="GR3">
-        <v>0.9831392079694794</v>
+        <v>0.9830982485915167</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.00016096475138362</v>
+        <v>0.0001137800718734905</v>
       </c>
       <c r="C4">
-        <v>0.0001801166603584258</v>
+        <v>0.0001137800718734905</v>
       </c>
       <c r="D4">
-        <v>0.0001928118756788559</v>
+        <v>0.0001137800718734905</v>
       </c>
       <c r="E4">
-        <v>0.0002408642731066299</v>
+        <v>0.0001137800718734905</v>
       </c>
       <c r="F4">
-        <v>0.0004905120597430817</v>
+        <v>0.0003169246975049542</v>
       </c>
       <c r="G4">
-        <v>0.0008178190422224672</v>
+        <v>0.0005983253205988548</v>
       </c>
       <c r="H4">
-        <v>0.0008378857431483045</v>
+        <v>0.0005983253205988548</v>
       </c>
       <c r="I4">
-        <v>0.000840308524618614</v>
+        <v>0.0005983253205988548</v>
       </c>
       <c r="J4">
-        <v>0.001048044033498614</v>
+        <v>0.0007592355776387679</v>
       </c>
       <c r="K4">
-        <v>0.001610435773394004</v>
+        <v>0.00127752755635541</v>
       </c>
       <c r="L4">
-        <v>0.00196099791462855</v>
+        <v>0.001582362051314441</v>
       </c>
       <c r="M4">
-        <v>0.00223345387004409</v>
+        <v>0.001808490123770529</v>
       </c>
       <c r="N4">
-        <v>0.002380088182194812</v>
+        <v>0.001907829628701846</v>
       </c>
       <c r="O4">
-        <v>0.002434887341261435</v>
+        <v>0.00191462823839589</v>
       </c>
       <c r="P4">
-        <v>0.002453394326270763</v>
+        <v>0.00191462823839589</v>
       </c>
       <c r="Q4">
-        <v>0.002765930129540844</v>
+        <v>0.002181144167537275</v>
       </c>
       <c r="R4">
-        <v>0.002897284442509499</v>
+        <v>0.002265086248322759</v>
       </c>
       <c r="S4">
-        <v>0.002909861665836245</v>
+        <v>0.002265086248322759</v>
       </c>
       <c r="T4">
-        <v>0.002968200352713398</v>
+        <v>0.00227545158667466</v>
       </c>
       <c r="U4">
-        <v>0.002980113634075685</v>
+        <v>0.00227545158667466</v>
       </c>
       <c r="V4">
-        <v>0.003006449270665949</v>
+        <v>0.00227545158667466</v>
       </c>
       <c r="W4">
-        <v>0.003144414613280718</v>
+        <v>0.002366055502077345</v>
       </c>
       <c r="X4">
-        <v>0.0031643328952145</v>
+        <v>0.002366055502077345</v>
       </c>
       <c r="Y4">
-        <v>0.003166280350910254</v>
+        <v>0.002366055502077345</v>
       </c>
       <c r="Z4">
-        <v>0.003166668952819452</v>
+        <v>0.002366055502077345</v>
       </c>
       <c r="AA4">
-        <v>0.003167343901933323</v>
+        <v>0.002366055502077345</v>
       </c>
       <c r="AB4">
-        <v>0.003194234140493899</v>
+        <v>0.002366055502077345</v>
       </c>
       <c r="AC4">
-        <v>0.003225808251803749</v>
+        <v>0.002366055502077345</v>
       </c>
       <c r="AD4">
-        <v>0.00328916998841202</v>
+        <v>0.002381482491695981</v>
       </c>
       <c r="AE4">
-        <v>0.003289411409599097</v>
+        <v>0.002381482491695981</v>
       </c>
       <c r="AF4">
-        <v>0.003316903587127451</v>
+        <v>0.002381482491695981</v>
       </c>
       <c r="AG4">
-        <v>0.003328959226482118</v>
+        <v>0.002381482491695981</v>
       </c>
       <c r="AH4">
-        <v>0.00333023883741362</v>
+        <v>0.002381482491695981</v>
       </c>
       <c r="AI4">
-        <v>0.003335874685611936</v>
+        <v>0.002381482491695981</v>
       </c>
       <c r="AJ4">
-        <v>0.003355941386537773</v>
+        <v>0.002381482491695981</v>
       </c>
       <c r="AK4">
-        <v>0.00342249731797506</v>
+        <v>0.002400128223148354</v>
       </c>
       <c r="AL4">
-        <v>0.003862554024418997</v>
+        <v>0.002795145038332444</v>
       </c>
       <c r="AM4">
-        <v>0.004091138962182935</v>
+        <v>0.002977064949620318</v>
       </c>
       <c r="AN4">
-        <v>0.004281064702016285</v>
+        <v>0.003120028571671375</v>
       </c>
       <c r="AO4">
-        <v>0.004414797464857623</v>
+        <v>0.003206367380431968</v>
       </c>
       <c r="AP4">
-        <v>0.004414814930304688</v>
+        <v>0.003206367380431968</v>
       </c>
       <c r="AQ4">
-        <v>0.004415756185304303</v>
+        <v>0.003206367380431968</v>
       </c>
       <c r="AR4">
-        <v>0.004415897307676749</v>
+        <v>0.003206367380431968</v>
       </c>
       <c r="AS4">
-        <v>0.004439872971393341</v>
+        <v>0.003206367380431968</v>
       </c>
       <c r="AT4">
-        <v>0.004473953099569045</v>
+        <v>0.003206367380431968</v>
       </c>
       <c r="AU4">
-        <v>0.004474741098866863</v>
+        <v>0.003206367380431968</v>
       </c>
       <c r="AV4">
-        <v>0.004537512665506726</v>
+        <v>0.003221199664696668</v>
       </c>
       <c r="AW4">
-        <v>0.004562386888175218</v>
+        <v>0.003221199664696668</v>
       </c>
       <c r="AX4">
-        <v>0.004575857964454116</v>
+        <v>0.003221199664696668</v>
       </c>
       <c r="AY4">
-        <v>0.004812627031779961</v>
+        <v>0.003411366599601992</v>
       </c>
       <c r="AZ4">
-        <v>0.005337289263694998</v>
+        <v>0.003891639123587978</v>
       </c>
       <c r="BA4">
-        <v>0.005359714022494609</v>
+        <v>0.003891639123587978</v>
       </c>
       <c r="BB4">
-        <v>0.005474942156326493</v>
+        <v>0.003959331097481313</v>
       </c>
       <c r="BC4">
-        <v>0.005584913454439772</v>
+        <v>0.004021725837503111</v>
       </c>
       <c r="BD4">
-        <v>0.005587336235910081</v>
+        <v>0.004021725837503111</v>
       </c>
       <c r="BE4">
-        <v>0.005596050053443634</v>
+        <v>0.004021725837503111</v>
       </c>
       <c r="BF4">
-        <v>0.005600712300194066</v>
+        <v>0.004021725837503111</v>
       </c>
       <c r="BG4">
-        <v>0.005604103065212559</v>
+        <v>0.004021725837503111</v>
       </c>
       <c r="BH4">
-        <v>0.005625984508041255</v>
+        <v>0.004021725837503111</v>
       </c>
       <c r="BI4">
-        <v>0.005641530062209107</v>
+        <v>0.004021725837503111</v>
       </c>
       <c r="BJ4">
-        <v>0.005666239012886447</v>
+        <v>0.004021725837503111</v>
       </c>
       <c r="BK4">
-        <v>0.00567781274526691</v>
+        <v>0.004021725837503111</v>
       </c>
       <c r="BL4">
-        <v>0.005759938900870729</v>
+        <v>0.004056061448430029</v>
       </c>
       <c r="BM4">
-        <v>0.006001820087922924</v>
+        <v>0.004251379789089567</v>
       </c>
       <c r="BN4">
-        <v>0.006008436134568769</v>
+        <v>0.004251379789089567</v>
       </c>
       <c r="BO4">
-        <v>0.006013063146321087</v>
+        <v>0.004251379789089567</v>
       </c>
       <c r="BP4">
-        <v>0.006086243112403792</v>
+        <v>0.004276700460100306</v>
       </c>
       <c r="BQ4">
-        <v>0.006266397632760191</v>
+        <v>0.004409817772022945</v>
       </c>
       <c r="BR4">
-        <v>0.00642590116422203</v>
+        <v>0.004522125394674552</v>
       </c>
       <c r="BS4">
-        <v>0.006441285006398539</v>
+        <v>0.004522125394674552</v>
       </c>
       <c r="BT4">
-        <v>0.006446109097140306</v>
+        <v>0.004522125394674552</v>
       </c>
       <c r="BU4">
-        <v>0.006461492939316815</v>
+        <v>0.004522125394674552</v>
       </c>
       <c r="BV4">
-        <v>0.006507843506835687</v>
+        <v>0.004522125394674552</v>
       </c>
       <c r="BW4">
-        <v>0.006604234361675922</v>
+        <v>0.004570835327343162</v>
       </c>
       <c r="BX4">
-        <v>0.006676779977792584</v>
+        <v>0.004595516773484339</v>
       </c>
       <c r="BY4">
-        <v>0.00668611431929292</v>
+        <v>0.004595516773484339</v>
       </c>
       <c r="BZ4">
-        <v>0.006686228904976787</v>
+        <v>0.004595516773484339</v>
       </c>
       <c r="CA4">
-        <v>0.006694942722510339</v>
+        <v>0.004595516773484339</v>
       </c>
       <c r="CB4">
-        <v>0.006697669858364357</v>
+        <v>0.004595516773484339</v>
       </c>
       <c r="CC4">
-        <v>0.006811482412272016</v>
+        <v>0.004661782288891264</v>
       </c>
       <c r="CD4">
-        <v>0.006963461984136609</v>
+        <v>0.004766508131217199</v>
       </c>
       <c r="CE4">
-        <v>0.006965550171324829</v>
+        <v>0.004766508131217199</v>
       </c>
       <c r="CF4">
-        <v>0.006983145786382943</v>
+        <v>0.004766508131217199</v>
       </c>
       <c r="CG4">
-        <v>0.007066547481918483</v>
+        <v>0.004802129084447452</v>
       </c>
       <c r="CH4">
-        <v>0.007151312047381069</v>
+        <v>0.004839123381096922</v>
       </c>
       <c r="CI4">
-        <v>0.007154702812399562</v>
+        <v>0.004839123381096922</v>
       </c>
       <c r="CJ4">
-        <v>0.007155286256008331</v>
+        <v>0.004839123381096922</v>
       </c>
       <c r="CK4">
-        <v>0.007269453205897019</v>
+        <v>0.004905746015975547</v>
       </c>
       <c r="CL4">
-        <v>0.007337227212269103</v>
+        <v>0.004925619183122713</v>
       </c>
       <c r="CM4">
-        <v>0.007447630166359276</v>
+        <v>0.004988448896345893</v>
       </c>
       <c r="CN4">
-        <v>0.1101547796684858</v>
+        <v>0.1084364688677293</v>
       </c>
       <c r="CO4">
-        <v>0.110198471129147</v>
+        <v>0.1084364688677293</v>
       </c>
       <c r="CP4">
-        <v>0.1654470681717113</v>
+        <v>0.1640612230875864</v>
       </c>
       <c r="CQ4">
-        <v>0.1837885921898967</v>
+        <v>0.1824952778469036</v>
       </c>
       <c r="CR4">
-        <v>0.1911079237980957</v>
+        <v>0.1898224359675933</v>
       </c>
       <c r="CS4">
-        <v>0.198922808379768</v>
+        <v>0.1976489553270095</v>
       </c>
       <c r="CT4">
-        <v>0.200688224985266</v>
+        <v>0.1993795172733453</v>
       </c>
       <c r="CU4">
-        <v>0.2137000782887466</v>
+        <v>0.2124429434368022</v>
       </c>
       <c r="CV4">
-        <v>0.2265644556001215</v>
+        <v>0.2253577602728161</v>
       </c>
       <c r="CW4">
-        <v>0.2549000770833268</v>
+        <v>0.2538627159392678</v>
       </c>
       <c r="CX4">
-        <v>0.2723121111512674</v>
+        <v>0.2713601377293892</v>
       </c>
       <c r="CY4">
-        <v>0.2978435637845788</v>
+        <v>0.2970393748441659</v>
       </c>
       <c r="CZ4">
-        <v>0.325557157301081</v>
+        <v>0.3249175223334851</v>
       </c>
       <c r="DA4">
-        <v>0.3298816034695951</v>
+        <v>0.3292267796785567</v>
       </c>
       <c r="DB4">
-        <v>0.3720396242128927</v>
+        <v>0.3716603580880291</v>
       </c>
       <c r="DC4">
-        <v>0.3721733569757341</v>
+        <v>0.3717466968967896</v>
       </c>
       <c r="DD4">
-        <v>0.3738619203853459</v>
+        <v>0.373399815039633</v>
       </c>
       <c r="DE4">
-        <v>0.3743119058012584</v>
+        <v>0.3738048368652288</v>
       </c>
       <c r="DF4">
-        <v>0.374474553222552</v>
+        <v>0.373920312538129</v>
       </c>
       <c r="DG4">
-        <v>0.3786296460001315</v>
+        <v>0.3780589150317386</v>
       </c>
       <c r="DH4">
-        <v>0.3803981865054622</v>
+        <v>0.3797926248847032</v>
       </c>
       <c r="DI4">
-        <v>0.384162667803951</v>
+        <v>0.3835376140967853</v>
       </c>
       <c r="DJ4">
-        <v>0.384370403312831</v>
+        <v>0.3836985243538252</v>
       </c>
       <c r="DK4">
-        <v>0.3843705772279016</v>
+        <v>0.3836985243538252</v>
       </c>
       <c r="DL4">
-        <v>0.3851724931849754</v>
+        <v>0.3844581812646436</v>
       </c>
       <c r="DM4">
-        <v>0.3853217367169864</v>
+        <v>0.3845601500409774</v>
       </c>
       <c r="DN4">
-        <v>0.3858267275899545</v>
+        <v>0.3850206000339787</v>
       </c>
       <c r="DO4">
-        <v>0.3861335962335279</v>
+        <v>0.3852814052519799</v>
       </c>
       <c r="DP4">
-        <v>0.387743357347358</v>
+        <v>0.3868551155128359</v>
       </c>
       <c r="DQ4">
-        <v>0.3887958800910168</v>
+        <v>0.3878673050933813</v>
       </c>
       <c r="DR4">
-        <v>0.3888286711312616</v>
+        <v>0.3878673050933813</v>
       </c>
       <c r="DS4">
-        <v>0.390098166363306</v>
+        <v>0.3890981345699007</v>
       </c>
       <c r="DT4">
-        <v>0.3920387757594259</v>
+        <v>0.3910052356424731</v>
       </c>
       <c r="DU4">
-        <v>0.392551219971995</v>
+        <v>0.3914731962530977</v>
       </c>
       <c r="DV4">
-        <v>0.395930414791108</v>
+        <v>0.3948299381053523</v>
       </c>
       <c r="DW4">
-        <v>0.3960809745830486</v>
+        <v>0.3949332332569156</v>
       </c>
       <c r="DX4">
-        <v>0.403498843485973</v>
+        <v>0.4023596859196397</v>
       </c>
       <c r="DY4">
-        <v>0.4170214107621153</v>
+        <v>0.4159377508314746</v>
       </c>
       <c r="DZ4">
-        <v>0.417421699610688</v>
+        <v>0.4162926941775624</v>
       </c>
       <c r="EA4">
-        <v>0.429465146966007</v>
+        <v>0.4283802723091235</v>
       </c>
       <c r="EB4">
-        <v>0.4469382290306797</v>
+        <v>0.4459392112425207</v>
       </c>
       <c r="EC4">
-        <v>0.4731015476301675</v>
+        <v>0.4722551701377509</v>
       </c>
       <c r="ED4">
-        <v>0.4748142811384855</v>
+        <v>0.4739326441236144</v>
       </c>
       <c r="EE4">
-        <v>0.476628259141384</v>
+        <v>0.4757121406558739</v>
       </c>
       <c r="EF4">
-        <v>0.5041565906678032</v>
+        <v>0.5034036024389036</v>
       </c>
       <c r="EG4">
-        <v>0.5275953724131344</v>
+        <v>0.5269740867405465</v>
       </c>
       <c r="EH4">
-        <v>0.5365654399329701</v>
+        <v>0.53596466648066</v>
       </c>
       <c r="EI4">
-        <v>0.5387686393150337</v>
+        <v>0.53813637551177</v>
       </c>
       <c r="EJ4">
-        <v>0.5411299911886315</v>
+        <v>0.540467452417371</v>
       </c>
       <c r="EK4">
-        <v>0.5594580962075352</v>
+        <v>0.5588879850540041</v>
       </c>
       <c r="EL4">
-        <v>0.56554174288188</v>
+        <v>0.5649699621501099</v>
       </c>
       <c r="EM4">
-        <v>0.5898995555780158</v>
+        <v>0.5894665400453502</v>
       </c>
       <c r="EN4">
-        <v>0.6349715311653306</v>
+        <v>0.6348364666928376</v>
       </c>
       <c r="EO4">
-        <v>0.6634532866407133</v>
+        <v>0.6634886793736955</v>
       </c>
       <c r="EP4">
-        <v>0.6684562243729081</v>
+        <v>0.6684816424088577</v>
       </c>
       <c r="EQ4">
-        <v>0.6696515147089247</v>
+        <v>0.6696376967336101</v>
       </c>
       <c r="ER4">
-        <v>0.6788307972175613</v>
+        <v>0.6788390992546575</v>
       </c>
       <c r="ES4">
-        <v>0.6979178131958409</v>
+        <v>0.6980243749905011</v>
       </c>
       <c r="ET4">
-        <v>0.7551519701321189</v>
+        <v>0.7556499478940624</v>
       </c>
       <c r="EU4">
-        <v>0.79869962380103</v>
+        <v>0.7994838383917576</v>
       </c>
       <c r="EV4">
-        <v>0.8005599577014471</v>
+        <v>0.8013100470610566</v>
       </c>
       <c r="EW4">
-        <v>0.8007411110617499</v>
+        <v>0.8014441708888911</v>
       </c>
       <c r="EX4">
-        <v>0.8055772578028729</v>
+        <v>0.8062690611641902</v>
       </c>
       <c r="EY4">
-        <v>0.8096281665860293</v>
+        <v>0.8103026790218567</v>
       </c>
       <c r="EZ4">
-        <v>0.809673287543614</v>
+        <v>0.8103026790218567</v>
       </c>
       <c r="FA4">
-        <v>0.8127858025770023</v>
+        <v>0.8133906916861712</v>
       </c>
       <c r="FB4">
-        <v>0.8128893754114581</v>
+        <v>0.8134466387911086</v>
       </c>
       <c r="FC4">
-        <v>0.8134580467810174</v>
+        <v>0.8139712586576909</v>
       </c>
       <c r="FD4">
-        <v>0.8137880482333526</v>
+        <v>0.8142553744573188</v>
       </c>
       <c r="FE4">
-        <v>0.8214316273241948</v>
+        <v>0.8219092718637235</v>
       </c>
       <c r="FF4">
-        <v>0.8333296406872989</v>
+        <v>0.8338502983602568</v>
       </c>
       <c r="FG4">
-        <v>0.8525103356605638</v>
+        <v>0.8531299730029432</v>
       </c>
       <c r="FH4">
-        <v>0.8676514518500658</v>
+        <v>0.8683390251826978</v>
       </c>
       <c r="FI4">
-        <v>0.8677033562692873</v>
+        <v>0.8683429068068178</v>
       </c>
       <c r="FJ4">
-        <v>0.8678236920728458</v>
+        <v>0.8684157457022679</v>
       </c>
       <c r="FK4">
-        <v>0.8701518654482197</v>
+        <v>0.8707133891368597</v>
       </c>
       <c r="FL4">
-        <v>0.8862704435853985</v>
+        <v>0.8869074149422971</v>
       </c>
       <c r="FM4">
-        <v>0.9058188065389823</v>
+        <v>0.9065575830496988</v>
       </c>
       <c r="FN4">
-        <v>0.9077307789366351</v>
+        <v>0.9084358270519005</v>
       </c>
       <c r="FO4">
-        <v>0.9077660757987457</v>
+        <v>0.9084358270519005</v>
       </c>
       <c r="FP4">
-        <v>0.9077950606001941</v>
+        <v>0.9084358270519005</v>
       </c>
       <c r="FQ4">
-        <v>0.9103022524659851</v>
+        <v>0.9109138647125689</v>
       </c>
       <c r="FR4">
-        <v>0.9106776641258895</v>
+        <v>0.9112437396917726</v>
       </c>
       <c r="FS4">
-        <v>0.911551262929126</v>
+        <v>0.9120756303228418</v>
       </c>
       <c r="FT4">
-        <v>0.9116158132856707</v>
+        <v>0.9120922550667987</v>
       </c>
       <c r="FU4">
-        <v>0.9116537570456396</v>
+        <v>0.9120922550667987</v>
       </c>
       <c r="FV4">
-        <v>0.9120201047560291</v>
+        <v>0.9124129964411212</v>
       </c>
       <c r="FW4">
-        <v>0.9147073696121809</v>
+        <v>0.9150724909315155</v>
       </c>
       <c r="FX4">
-        <v>0.9147110709754828</v>
+        <v>0.9150724909315155</v>
       </c>
       <c r="FY4">
-        <v>0.9149456875529238</v>
+        <v>0.9152604888349091</v>
       </c>
       <c r="FZ4">
-        <v>0.9203306082646712</v>
+        <v>0.9206383703430751</v>
       </c>
       <c r="GA4">
-        <v>0.9278297722632438</v>
+        <v>0.9281467428445216</v>
       </c>
       <c r="GB4">
-        <v>0.9378891517247692</v>
+        <v>0.9382350057581393</v>
       </c>
       <c r="GC4">
-        <v>0.9383193904817386</v>
+        <v>0.9386201291740831</v>
       </c>
       <c r="GD4">
-        <v>0.9387039768311519</v>
+        <v>0.938959249349186</v>
       </c>
       <c r="GE4">
-        <v>0.9388165612051254</v>
+        <v>0.9390242772462429</v>
       </c>
       <c r="GF4">
-        <v>0.9392835189801293</v>
+        <v>0.9394464018614772</v>
       </c>
       <c r="GG4">
-        <v>0.9394476419013439</v>
+        <v>0.9395633643733385</v>
       </c>
       <c r="GH4">
-        <v>0.9422177197530627</v>
+        <v>0.942306308267253</v>
       </c>
       <c r="GI4">
-        <v>0.9463123560338784</v>
+        <v>0.9463839896631615</v>
       </c>
       <c r="GJ4">
-        <v>0.9508328250918995</v>
+        <v>0.9508907763101699</v>
       </c>
       <c r="GK4">
-        <v>0.9537374836364142</v>
+        <v>0.953769335133387</v>
       </c>
       <c r="GL4">
-        <v>0.9546413593280301</v>
+        <v>0.9546317353270967</v>
       </c>
       <c r="GM4">
-        <v>0.9554866368827827</v>
+        <v>0.955435087064279</v>
       </c>
       <c r="GN4">
-        <v>0.9606052823087836</v>
+        <v>0.960544646993017</v>
       </c>
       <c r="GO4">
-        <v>0.9694017868379102</v>
+        <v>0.9693603299316238</v>
       </c>
       <c r="GP4">
-        <v>0.9796500222893262</v>
+        <v>0.9796389001707969</v>
       </c>
       <c r="GQ4">
-        <v>0.9897782407471666</v>
+        <v>0.9897965311001722</v>
       </c>
       <c r="GR4">
-        <v>0.9921734179189536</v>
+        <v>0.9921616932473283</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.748499345774021E-05</v>
+        <v>5.055894778948946E-05</v>
       </c>
       <c r="C5">
-        <v>8.099914214762566E-05</v>
+        <v>5.055894778948946E-05</v>
       </c>
       <c r="D5">
-        <v>0.0002847530223949258</v>
+        <v>0.000237822099889161</v>
       </c>
       <c r="E5">
-        <v>0.0008836030643400554</v>
+        <v>0.0008214435674003211</v>
       </c>
       <c r="F5">
-        <v>0.00119410717423857</v>
+        <v>0.001115797967900185</v>
       </c>
       <c r="G5">
-        <v>0.001204937238188661</v>
+        <v>0.001115797967900185</v>
       </c>
       <c r="H5">
-        <v>0.001216574192060529</v>
+        <v>0.001115797967900185</v>
       </c>
       <c r="I5">
-        <v>0.00123056154620454</v>
+        <v>0.001115797967900185</v>
       </c>
       <c r="J5">
-        <v>0.001268061515569146</v>
+        <v>0.001136276102993202</v>
       </c>
       <c r="K5">
-        <v>0.001337800178808407</v>
+        <v>0.00118909592002085</v>
       </c>
       <c r="L5">
-        <v>0.001367235689954813</v>
+        <v>0.001201483834595561</v>
       </c>
       <c r="M5">
-        <v>0.001375678508136333</v>
+        <v>0.001201483834595561</v>
       </c>
       <c r="N5">
-        <v>0.001392765552479848</v>
+        <v>0.001201483834595561</v>
       </c>
       <c r="O5">
-        <v>0.001405349175259942</v>
+        <v>0.001201483834595561</v>
       </c>
       <c r="P5">
-        <v>0.001435799178307999</v>
+        <v>0.001214889481915153</v>
       </c>
       <c r="Q5">
-        <v>0.001502102581880288</v>
+        <v>0.001264263065173404</v>
       </c>
       <c r="R5">
-        <v>0.00169759011292896</v>
+        <v>0.001443233460823882</v>
       </c>
       <c r="S5">
-        <v>0.001719113151842432</v>
+        <v>0.0014476836263921</v>
       </c>
       <c r="T5">
-        <v>0.001779534055984993</v>
+        <v>0.001491155918292935</v>
       </c>
       <c r="U5">
-        <v>0.00182081084198346</v>
+        <v>0.001515422935242415</v>
       </c>
       <c r="V5">
-        <v>0.001873801706846318</v>
+        <v>0.001551441452245288</v>
       </c>
       <c r="W5">
-        <v>0.001908979597436035</v>
+        <v>0.001569590090570955</v>
       </c>
       <c r="X5">
-        <v>0.001966991874812098</v>
+        <v>0.001610646061231103</v>
       </c>
       <c r="Y5">
-        <v>0.002137196328311811</v>
+        <v>0.001764252611323932</v>
       </c>
       <c r="Z5">
-        <v>0.002282326344242339</v>
+        <v>0.001892704622349349</v>
       </c>
       <c r="AA5">
-        <v>0.002283009427846118</v>
+        <v>0.001892704622349349</v>
       </c>
       <c r="AB5">
-        <v>0.002285559822198873</v>
+        <v>0.001892704622349349</v>
       </c>
       <c r="AC5">
-        <v>0.002314825752361719</v>
+        <v>0.001904922414205881</v>
       </c>
       <c r="AD5">
-        <v>0.002318460121209389</v>
+        <v>0.001904922414205881</v>
       </c>
       <c r="AE5">
-        <v>0.002325820632495832</v>
+        <v>0.001904922414205881</v>
       </c>
       <c r="AF5">
-        <v>0.002384568803800554</v>
+        <v>0.001946716629643279</v>
       </c>
       <c r="AG5">
-        <v>0.002392481498033467</v>
+        <v>0.001946716629643279</v>
       </c>
       <c r="AH5">
-        <v>0.002471562156367078</v>
+        <v>0.002008908285218453</v>
       </c>
       <c r="AI5">
-        <v>0.002627022241296168</v>
+        <v>0.002147723365145273</v>
       </c>
       <c r="AJ5">
-        <v>0.002627158402572968</v>
+        <v>0.002147723365145273</v>
       </c>
       <c r="AK5">
-        <v>0.002694643396030708</v>
+        <v>0.002198282312934762</v>
       </c>
       <c r="AL5">
-        <v>0.002713287199223305</v>
+        <v>0.00219984404492495</v>
       </c>
       <c r="AM5">
-        <v>0.002837745627157817</v>
+        <v>0.002307558431571097</v>
       </c>
       <c r="AN5">
-        <v>0.002841533053790649</v>
+        <v>0.002307558431571097</v>
       </c>
       <c r="AO5">
-        <v>0.002842277143278514</v>
+        <v>0.002307558431571097</v>
       </c>
       <c r="AP5">
-        <v>0.0028966262310097</v>
+        <v>0.002344939510350654</v>
       </c>
       <c r="AQ5">
-        <v>0.002956245000230023</v>
+        <v>0.002387607104870616</v>
       </c>
       <c r="AR5">
-        <v>0.003009763003041778</v>
+        <v>0.002424154443789948</v>
       </c>
       <c r="AS5">
-        <v>0.003072641516946088</v>
+        <v>0.002470092196405258</v>
       </c>
       <c r="AT5">
-        <v>0.003181680446375427</v>
+        <v>0.002562337826215759</v>
       </c>
       <c r="AU5">
-        <v>0.003238361656880529</v>
+        <v>0.002602058477847731</v>
       </c>
       <c r="AV5">
-        <v>0.003246186546121953</v>
+        <v>0.002602058477847731</v>
       </c>
       <c r="AW5">
-        <v>0.003261937214595021</v>
+        <v>0.002602058477847731</v>
       </c>
       <c r="AX5">
-        <v>0.003376397383498804</v>
+        <v>0.002699742665543227</v>
       </c>
       <c r="AY5">
-        <v>0.003600573431766299</v>
+        <v>0.002907493225262225</v>
       </c>
       <c r="AZ5">
-        <v>0.04708725921599653</v>
+        <v>0.04651595769152057</v>
       </c>
       <c r="BA5">
-        <v>0.04825823520247752</v>
+        <v>0.04767353278744708</v>
       </c>
       <c r="BB5">
-        <v>0.07751574636613971</v>
+        <v>0.07700736684963275</v>
       </c>
       <c r="BC5">
-        <v>0.09655995551991943</v>
+        <v>0.09609527201686295</v>
       </c>
       <c r="BD5">
-        <v>0.1102838261894736</v>
+        <v>0.1098458426223888</v>
       </c>
       <c r="BE5">
-        <v>0.1118724437354668</v>
+        <v>0.1114223934539001</v>
       </c>
       <c r="BF5">
-        <v>0.114716457159757</v>
+        <v>0.1142583505862929</v>
       </c>
       <c r="BG5">
-        <v>0.1158176455530035</v>
+        <v>0.1153459151491578</v>
       </c>
       <c r="BH5">
-        <v>0.1158688981320348</v>
+        <v>0.1153801898272914</v>
       </c>
       <c r="BI5">
-        <v>0.1222196265163703</v>
+        <v>0.1217340642895286</v>
       </c>
       <c r="BJ5">
-        <v>0.1389549438939831</v>
+        <v>0.1385057018146325</v>
       </c>
       <c r="BK5">
-        <v>0.1673811391382363</v>
+        <v>0.1670055642786742</v>
       </c>
       <c r="BL5">
-        <v>0.1807677673404841</v>
+        <v>0.1804178150795926</v>
       </c>
       <c r="BM5">
-        <v>0.1810404637740478</v>
+        <v>0.1806742410253151</v>
       </c>
       <c r="BN5">
-        <v>0.2088180230811823</v>
+        <v>0.2085233954535031</v>
       </c>
       <c r="BO5">
-        <v>0.211105482659427</v>
+        <v>0.2108010208017893</v>
       </c>
       <c r="BP5">
-        <v>0.2143803405419494</v>
+        <v>0.2140691987457827</v>
       </c>
       <c r="BQ5">
-        <v>0.2150272565792349</v>
+        <v>0.2147010397577708</v>
       </c>
       <c r="BR5">
-        <v>0.2152920586235639</v>
+        <v>0.214949546095252</v>
       </c>
       <c r="BS5">
-        <v>0.2177975253806741</v>
+        <v>0.2174458750568344</v>
       </c>
       <c r="BT5">
-        <v>0.2186573751473169</v>
+        <v>0.2182913300252318</v>
       </c>
       <c r="BU5">
-        <v>0.221133640907258</v>
+        <v>0.2207583647056535</v>
       </c>
       <c r="BV5">
-        <v>0.2211632989213828</v>
+        <v>0.2207709758340031</v>
       </c>
       <c r="BW5">
-        <v>0.2214020157582407</v>
+        <v>0.2209933136335618</v>
       </c>
       <c r="BX5">
-        <v>0.2223568458656757</v>
+        <v>0.2219340523620236</v>
       </c>
       <c r="BY5">
-        <v>0.2223933207941397</v>
+        <v>0.2219535021816735</v>
       </c>
       <c r="BZ5">
-        <v>0.2227637452582293</v>
+        <v>0.2223079683548213</v>
       </c>
       <c r="CA5">
-        <v>0.2243706494024497</v>
+        <v>0.2239028642019784</v>
       </c>
       <c r="CB5">
-        <v>0.2279316277572345</v>
+        <v>0.2274580766438603</v>
       </c>
       <c r="CC5">
-        <v>0.2313250761282603</v>
+        <v>0.230845223919383</v>
       </c>
       <c r="CD5">
-        <v>0.2313558324932787</v>
+        <v>0.230858936907361</v>
       </c>
       <c r="CE5">
-        <v>0.2318408824162561</v>
+        <v>0.2313283947159445</v>
       </c>
       <c r="CF5">
-        <v>0.233283954276359</v>
+        <v>0.2327589349088635</v>
       </c>
       <c r="CG5">
-        <v>0.2341246368948599</v>
+        <v>0.2335851614987413</v>
       </c>
       <c r="CH5">
-        <v>0.2349662272132729</v>
+        <v>0.2344122986882221</v>
       </c>
       <c r="CI5">
-        <v>0.2352001322605972</v>
+        <v>0.2346298093267539</v>
       </c>
       <c r="CJ5">
-        <v>0.2405007087467385</v>
+        <v>0.2399301771299901</v>
       </c>
       <c r="CK5">
-        <v>0.2522575446069848</v>
+        <v>0.2517074291387909</v>
       </c>
       <c r="CL5">
-        <v>0.2527061838934919</v>
+        <v>0.2521403599953727</v>
       </c>
       <c r="CM5">
-        <v>0.2630692168888589</v>
+        <v>0.2625193565689263</v>
       </c>
       <c r="CN5">
-        <v>0.2765767485793858</v>
+        <v>0.276052897090139</v>
       </c>
       <c r="CO5">
-        <v>0.2989300494123692</v>
+        <v>0.2984604649892852</v>
       </c>
       <c r="CP5">
-        <v>0.3019315586213911</v>
+        <v>0.301454421034278</v>
       </c>
       <c r="CQ5">
-        <v>0.3019819016585107</v>
+        <v>0.3014877832649243</v>
       </c>
       <c r="CR5">
-        <v>0.3156823673303338</v>
+        <v>0.3152148741043269</v>
       </c>
       <c r="CS5">
-        <v>0.3367923842838461</v>
+        <v>0.3363751863937809</v>
       </c>
       <c r="CT5">
-        <v>0.3442423182616203</v>
+        <v>0.3438317779146553</v>
       </c>
       <c r="CU5">
-        <v>0.3470221095921364</v>
+        <v>0.3466033077927029</v>
       </c>
       <c r="CV5">
-        <v>0.348481968550612</v>
+        <v>0.3480506887111887</v>
       </c>
       <c r="CW5">
-        <v>0.3620455262357075</v>
+        <v>0.3616404342047075</v>
       </c>
       <c r="CX5">
-        <v>0.3689715175642748</v>
+        <v>0.3685714093163525</v>
       </c>
       <c r="CY5">
-        <v>0.3760216995808025</v>
+        <v>0.3756269718490909</v>
       </c>
       <c r="CZ5">
-        <v>0.4136403109339069</v>
+        <v>0.413348616037887</v>
       </c>
       <c r="DA5">
-        <v>0.4403161983478417</v>
+        <v>0.4400925792289637</v>
       </c>
       <c r="DB5">
-        <v>0.4457988738163297</v>
+        <v>0.4455756277385142</v>
       </c>
       <c r="DC5">
-        <v>0.446092225787891</v>
+        <v>0.445852775207345</v>
       </c>
       <c r="DD5">
-        <v>0.4528212556355525</v>
+        <v>0.4525861596351492</v>
       </c>
       <c r="DE5">
-        <v>0.4726916527092384</v>
+        <v>0.4725028920193792</v>
       </c>
       <c r="DF5">
-        <v>0.5195726481644108</v>
+        <v>0.5195165094422702</v>
       </c>
       <c r="DG5">
-        <v>0.5551385847165096</v>
+        <v>0.5551789214615662</v>
       </c>
       <c r="DH5">
-        <v>0.5606754137797476</v>
+        <v>0.560716296562133</v>
       </c>
       <c r="DI5">
-        <v>0.5607583298017094</v>
+        <v>0.5607823358335902</v>
       </c>
       <c r="DJ5">
-        <v>0.564616512927682</v>
+        <v>0.5646357024816128</v>
       </c>
       <c r="DK5">
-        <v>0.5669790882986447</v>
+        <v>0.566988683583634</v>
       </c>
       <c r="DL5">
-        <v>0.566983458911821</v>
+        <v>0.566988683583634</v>
       </c>
       <c r="DM5">
-        <v>0.5687293392425685</v>
+        <v>0.5687229995834382</v>
       </c>
       <c r="DN5">
-        <v>0.5696487899834334</v>
+        <v>0.5696282459242397</v>
       </c>
       <c r="DO5">
-        <v>0.5711503418378671</v>
+        <v>0.5711174529286472</v>
       </c>
       <c r="DP5">
-        <v>0.5711584590300801</v>
+        <v>0.5711174529286472</v>
       </c>
       <c r="DQ5">
-        <v>0.5734918658038705</v>
+        <v>0.5734411722530078</v>
       </c>
       <c r="DR5">
-        <v>0.5822792719519848</v>
+        <v>0.582239508563474</v>
       </c>
       <c r="DS5">
-        <v>0.6013923230990907</v>
+        <v>0.601396475643093</v>
       </c>
       <c r="DT5">
-        <v>0.6081682464422061</v>
+        <v>0.6081769033698804</v>
       </c>
       <c r="DU5">
-        <v>0.6093342839291659</v>
+        <v>0.6093295241900111</v>
       </c>
       <c r="DV5">
-        <v>0.6093931613534581</v>
+        <v>0.6093714480713408</v>
       </c>
       <c r="DW5">
-        <v>0.6099795264966136</v>
+        <v>0.6099425447564519</v>
       </c>
       <c r="DX5">
-        <v>0.6160969955035621</v>
+        <v>0.6160624146829889</v>
       </c>
       <c r="DY5">
-        <v>0.6346985477002547</v>
+        <v>0.6347062488041674</v>
       </c>
       <c r="DZ5">
-        <v>0.6394253115420236</v>
+        <v>0.6394309708909078</v>
       </c>
       <c r="EA5">
-        <v>0.6394332242362566</v>
+        <v>0.6394309708909078</v>
       </c>
       <c r="EB5">
-        <v>0.6395705433129444</v>
+        <v>0.6395515870102689</v>
       </c>
       <c r="EC5">
-        <v>0.639841136436712</v>
+        <v>0.6398059029270708</v>
       </c>
       <c r="ED5">
-        <v>0.6398489613259535</v>
+        <v>0.6398059029270708</v>
       </c>
       <c r="EE5">
-        <v>0.6401693006948985</v>
+        <v>0.6401101240058259</v>
       </c>
       <c r="EF5">
-        <v>0.6402030649716253</v>
+        <v>0.6401268545144311</v>
       </c>
       <c r="EG5">
-        <v>0.6405798654750967</v>
+        <v>0.6404877170955255</v>
       </c>
       <c r="EH5">
-        <v>0.6405921941609015</v>
+        <v>0.6404877170955255</v>
       </c>
       <c r="EI5">
-        <v>0.6428349616434789</v>
+        <v>0.6427205075770928</v>
       </c>
       <c r="EJ5">
-        <v>0.642841314057863</v>
+        <v>0.6427205075770928</v>
       </c>
       <c r="EK5">
-        <v>0.6434929544646905</v>
+        <v>0.6433570880508489</v>
       </c>
       <c r="EL5">
-        <v>0.6464050417823813</v>
+        <v>0.6462613365419727</v>
       </c>
       <c r="EM5">
-        <v>0.6544785159997071</v>
+        <v>0.6543434602317193</v>
       </c>
       <c r="EN5">
-        <v>0.6632501291493526</v>
+        <v>0.6631259530922224</v>
       </c>
       <c r="EO5">
-        <v>0.6636511436904766</v>
+        <v>0.6635111070638788</v>
       </c>
       <c r="EP5">
-        <v>0.6641459465925085</v>
+        <v>0.6639903490078781</v>
       </c>
       <c r="EQ5">
-        <v>0.6647076795380519</v>
+        <v>0.6645367348066358</v>
       </c>
       <c r="ER5">
-        <v>0.6647475758041842</v>
+        <v>0.6645596168935819</v>
       </c>
       <c r="ES5">
-        <v>0.6650434073955052</v>
+        <v>0.6648392519034371</v>
       </c>
       <c r="ET5">
-        <v>0.666893416016158</v>
+        <v>0.6666780288359829</v>
       </c>
       <c r="EU5">
-        <v>0.6711318946052633</v>
+        <v>0.6709129058193076</v>
       </c>
       <c r="EV5">
-        <v>0.6745604996728809</v>
+        <v>0.6743353221011823</v>
       </c>
       <c r="EW5">
-        <v>0.6767029288651855</v>
+        <v>0.6764674537569768</v>
       </c>
       <c r="EX5">
-        <v>0.6775648980816228</v>
+        <v>0.6773150349458531</v>
       </c>
       <c r="EY5">
-        <v>0.6776399627443457</v>
+        <v>0.6773731977765263</v>
       </c>
       <c r="EZ5">
-        <v>0.6821685430053274</v>
+        <v>0.6818991031754875</v>
       </c>
       <c r="FA5">
-        <v>0.6925781999961744</v>
+        <v>0.6923248726871198</v>
       </c>
       <c r="FB5">
-        <v>0.7020237020804905</v>
+        <v>0.7017834072529452</v>
       </c>
       <c r="FC5">
-        <v>0.7125986060553179</v>
+        <v>0.7123749516380053</v>
       </c>
       <c r="FD5">
-        <v>0.7146988933517078</v>
+        <v>0.7144648067735695</v>
       </c>
       <c r="FE5">
-        <v>0.716354126591243</v>
+        <v>0.7161081861056636</v>
       </c>
       <c r="FF5">
-        <v>0.7407225982288678</v>
+        <v>0.7405373623696235</v>
       </c>
       <c r="FG5">
-        <v>0.7810309323212199</v>
+        <v>0.7809573217464765</v>
       </c>
       <c r="FH5">
-        <v>0.8045536420408362</v>
+        <v>0.8045380342652546</v>
       </c>
       <c r="FI5">
-        <v>0.8124763822727747</v>
+        <v>0.8124689424426393</v>
       </c>
       <c r="FJ5">
-        <v>0.8188098529587833</v>
+        <v>0.8188055040760013</v>
       </c>
       <c r="FK5">
-        <v>0.8205867568865233</v>
+        <v>0.8205709427791724</v>
       </c>
       <c r="FL5">
-        <v>0.8210959636871588</v>
+        <v>0.821064634635723</v>
       </c>
       <c r="FM5">
-        <v>0.8211117143556318</v>
+        <v>0.821064634635723</v>
       </c>
       <c r="FN5">
-        <v>0.8220057886689567</v>
+        <v>0.8219444234827649</v>
       </c>
       <c r="FO5">
-        <v>0.8221259862773043</v>
+        <v>0.8220478634384307</v>
       </c>
       <c r="FP5">
-        <v>0.8236049513339276</v>
+        <v>0.8235144114904147</v>
       </c>
       <c r="FQ5">
-        <v>0.8242083469754321</v>
+        <v>0.8241025930786219</v>
       </c>
       <c r="FR5">
-        <v>0.8243154585050483</v>
+        <v>0.8241929051514477</v>
       </c>
       <c r="FS5">
-        <v>0.8271633255289649</v>
+        <v>0.8270327281939764</v>
       </c>
       <c r="FT5">
-        <v>0.8380500044735676</v>
+        <v>0.8379370435289658</v>
       </c>
       <c r="FU5">
-        <v>0.8515771321621948</v>
+        <v>0.8514902426486384</v>
       </c>
       <c r="FV5">
-        <v>0.8605855282888856</v>
+        <v>0.8605102749008088</v>
       </c>
       <c r="FW5">
-        <v>0.8722988061533545</v>
+        <v>0.8722438297657172</v>
       </c>
       <c r="FX5">
-        <v>0.8832106230955202</v>
+        <v>0.8831733634028133</v>
       </c>
       <c r="FY5">
-        <v>0.8866448700625909</v>
+        <v>0.8866014396074605</v>
       </c>
       <c r="FZ5">
-        <v>0.8866467421739094</v>
+        <v>0.8866014396074605</v>
       </c>
       <c r="GA5">
-        <v>0.8866549764081111</v>
+        <v>0.8866014396074605</v>
       </c>
       <c r="GB5">
-        <v>0.8867051999302422</v>
+        <v>0.886634681941322</v>
       </c>
       <c r="GC5">
-        <v>0.8867377167370899</v>
+        <v>0.8866501609949455</v>
       </c>
       <c r="GD5">
-        <v>0.8876131698522201</v>
+        <v>0.8875112691574784</v>
       </c>
       <c r="GE5">
-        <v>0.8934514092862382</v>
+        <v>0.8933510174987686</v>
       </c>
       <c r="GF5">
-        <v>0.9002755812246762</v>
+        <v>0.9001798479533396</v>
       </c>
       <c r="GG5">
-        <v>0.900390815503505</v>
+        <v>0.9002783087238915</v>
       </c>
       <c r="GH5">
-        <v>0.907603665104263</v>
+        <v>0.9074970584902909</v>
       </c>
       <c r="GI5">
-        <v>0.9266103422616813</v>
+        <v>0.92654731176339</v>
       </c>
       <c r="GJ5">
-        <v>0.9467795183064023</v>
+        <v>0.9467637775824653</v>
       </c>
       <c r="GK5">
-        <v>0.9688840341635039</v>
+        <v>0.9689217657501445</v>
       </c>
       <c r="GL5">
-        <v>0.9822261258700692</v>
+        <v>0.9822893377814005</v>
       </c>
       <c r="GM5">
-        <v>0.9896822955472389</v>
+        <v>0.9897521849219123</v>
       </c>
       <c r="GN5">
-        <v>0.9969874606390475</v>
+        <v>0.9970635450856438</v>
       </c>
       <c r="GO5">
-        <v>0.9981248984287798</v>
+        <v>0.9981874748454371</v>
       </c>
       <c r="GP5">
-        <v>0.9981637371880147</v>
+        <v>0.9982092960472291</v>
       </c>
       <c r="GQ5">
-        <v>0.9982705249876622</v>
+        <v>0.9982992833559153</v>
       </c>
       <c r="GR5">
-        <v>0.9987125587248097</v>
+        <v>0.998725587561392</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0002238346529673218</v>
+        <v>0.000199493239794311</v>
       </c>
       <c r="C6">
-        <v>0.0002243936323447321</v>
+        <v>0.000199493239794311</v>
       </c>
       <c r="D6">
-        <v>0.0002449572166173386</v>
+        <v>0.000199493239794311</v>
       </c>
       <c r="E6">
-        <v>0.0002462132755339898</v>
+        <v>0.000199493239794311</v>
       </c>
       <c r="F6">
-        <v>0.0003248339365762449</v>
+        <v>0.0002531264747239112</v>
       </c>
       <c r="G6">
-        <v>0.0003927442624765157</v>
+        <v>0.0002960017274838686</v>
       </c>
       <c r="H6">
-        <v>0.0004622763993982864</v>
+        <v>0.0003405060062099167</v>
       </c>
       <c r="I6">
-        <v>0.0005231253702049465</v>
+        <v>0.0003762884900524202</v>
       </c>
       <c r="J6">
-        <v>0.0005378618084003039</v>
+        <v>0.0003762884900524202</v>
       </c>
       <c r="K6">
-        <v>0.0006290944746097533</v>
+        <v>0.000442589837129161</v>
       </c>
       <c r="L6">
-        <v>0.0006455295048276285</v>
+        <v>0.000442589837129161</v>
       </c>
       <c r="M6">
-        <v>0.0006455336353013833</v>
+        <v>0.000442589837129161</v>
       </c>
       <c r="N6">
-        <v>0.0007070160761164411</v>
+        <v>0.0004790086090957058</v>
       </c>
       <c r="O6">
-        <v>0.0007492780326766976</v>
+        <v>0.0004961213907114442</v>
       </c>
       <c r="P6">
-        <v>0.0007745030000110989</v>
+        <v>0.0004961213907114442</v>
       </c>
       <c r="Q6">
-        <v>0.0008032843093926458</v>
+        <v>0.0004996935538440774</v>
       </c>
       <c r="R6">
-        <v>0.0008358563998244461</v>
+        <v>0.0005070733620603632</v>
       </c>
       <c r="S6">
-        <v>0.0008358603561234985</v>
+        <v>0.0005070733620603632</v>
       </c>
       <c r="T6">
-        <v>0.0008461821162603317</v>
+        <v>0.0005070733620603632</v>
       </c>
       <c r="U6">
-        <v>0.0008959852319205595</v>
+        <v>0.0005317608511021943</v>
       </c>
       <c r="V6">
-        <v>0.0009318758573963529</v>
+        <v>0.0005424739575168404</v>
       </c>
       <c r="W6">
-        <v>0.0009472959776007737</v>
+        <v>0.0005424739575168404</v>
       </c>
       <c r="X6">
-        <v>0.0009487808705204585</v>
+        <v>0.0005424739575168404</v>
       </c>
       <c r="Y6">
-        <v>0.001009803951329427</v>
+        <v>0.0005784313259241644</v>
       </c>
       <c r="Z6">
-        <v>0.00103839037070839</v>
+        <v>0.0005818077320477927</v>
       </c>
       <c r="AA6">
-        <v>0.001065327638065491</v>
+        <v>0.0005835276495731622</v>
       </c>
       <c r="AB6">
-        <v>0.001065552076348466</v>
+        <v>0.0005835276495731622</v>
       </c>
       <c r="AC6">
-        <v>0.001066743217064257</v>
+        <v>0.0005835276495731622</v>
       </c>
       <c r="AD6">
-        <v>0.001067617216925843</v>
+        <v>0.0005835276495731622</v>
       </c>
       <c r="AE6">
-        <v>0.001080048330090639</v>
+        <v>0.0005835276495731622</v>
       </c>
       <c r="AF6">
-        <v>0.001090823755233487</v>
+        <v>0.0005835276495731622</v>
       </c>
       <c r="AG6">
-        <v>0.001118066505594637</v>
+        <v>0.0005855544091036726</v>
       </c>
       <c r="AH6">
-        <v>0.001124606523681337</v>
+        <v>0.0005855544091036726</v>
       </c>
       <c r="AI6">
-        <v>0.001190437094554037</v>
+        <v>0.0006263406546376911</v>
       </c>
       <c r="AJ6">
-        <v>0.001195606641622568</v>
+        <v>0.0006263406546376911</v>
       </c>
       <c r="AK6">
-        <v>0.001201948060706635</v>
+        <v>0.0006263406546376911</v>
       </c>
       <c r="AL6">
-        <v>0.001224231838002045</v>
+        <v>0.0006263406546376911</v>
       </c>
       <c r="AM6">
-        <v>0.001231133968793545</v>
+        <v>0.0006263406546376911</v>
       </c>
       <c r="AN6">
-        <v>0.001250462205049775</v>
+        <v>0.0006263406546376911</v>
       </c>
       <c r="AO6">
-        <v>0.00126489976024117</v>
+        <v>0.0006263406546376911</v>
       </c>
       <c r="AP6">
-        <v>0.001264900979810086</v>
+        <v>0.0006263406546376911</v>
       </c>
       <c r="AQ6">
-        <v>0.001291838247167187</v>
+        <v>0.0006280605721630607</v>
       </c>
       <c r="AR6">
-        <v>0.001298740377958687</v>
+        <v>0.0006280605721630607</v>
       </c>
       <c r="AS6">
-        <v>0.001308080952082513</v>
+        <v>0.0006280605721630607</v>
       </c>
       <c r="AT6">
-        <v>0.001379089093023851</v>
+        <v>0.0006740474212022056</v>
       </c>
       <c r="AU6">
-        <v>0.001467356334193988</v>
+        <v>0.0007373701509644167</v>
       </c>
       <c r="AV6">
-        <v>0.001727062387636848</v>
+        <v>0.0009728943721986289</v>
       </c>
       <c r="AW6">
-        <v>0.0019538336306431</v>
+        <v>0.00117533726602893</v>
       </c>
       <c r="AX6">
-        <v>0.002155975523322846</v>
+        <v>0.001353041241034572</v>
       </c>
       <c r="AY6">
-        <v>0.002206351883990673</v>
+        <v>0.001378304525276912</v>
       </c>
       <c r="AZ6">
-        <v>0.1036314532285587</v>
+        <v>0.103229278151127</v>
       </c>
       <c r="BA6">
-        <v>0.1176424724142994</v>
+        <v>0.1172772909196641</v>
       </c>
       <c r="BB6">
-        <v>0.15985570297391</v>
+        <v>0.1596529781337254</v>
       </c>
       <c r="BC6">
-        <v>0.1700418791089456</v>
+        <v>0.1698591322866653</v>
       </c>
       <c r="BD6">
-        <v>0.1740085677615311</v>
+        <v>0.1738181303465868</v>
       </c>
       <c r="BE6">
-        <v>0.1768711124994791</v>
+        <v>0.1766680724909912</v>
       </c>
       <c r="BF6">
-        <v>0.1772430693544101</v>
+        <v>0.1770163468834318</v>
       </c>
       <c r="BG6">
-        <v>0.177380273866229</v>
+        <v>0.1771288245908947</v>
       </c>
       <c r="BH6">
-        <v>0.1781682295766747</v>
+        <v>0.1778949484913938</v>
       </c>
       <c r="BI6">
-        <v>0.1943786607915725</v>
+        <v>0.1941521578051089</v>
       </c>
       <c r="BJ6">
-        <v>0.2033553989105749</v>
+        <v>0.203143493519663</v>
       </c>
       <c r="BK6">
-        <v>0.2218532291557962</v>
+        <v>0.2216982778071635</v>
       </c>
       <c r="BL6">
-        <v>0.228709342246686</v>
+        <v>0.2285595544770193</v>
       </c>
       <c r="BM6">
-        <v>0.236538707350478</v>
+        <v>0.2363984128623462</v>
       </c>
       <c r="BN6">
-        <v>0.2615631836822214</v>
+        <v>0.2615088783022635</v>
       </c>
       <c r="BO6">
-        <v>0.2618144901855529</v>
+        <v>0.2617359656063394</v>
       </c>
       <c r="BP6">
-        <v>0.2619145487468794</v>
+        <v>0.2618111321122596</v>
       </c>
       <c r="BQ6">
-        <v>0.2621974975906303</v>
+        <v>0.2620700025239158</v>
       </c>
       <c r="BR6">
-        <v>0.2623764622730028</v>
+        <v>0.2622244261802458</v>
       </c>
       <c r="BS6">
-        <v>0.2658956961196565</v>
+        <v>0.2657339788437235</v>
       </c>
       <c r="BT6">
-        <v>0.2679518149469139</v>
+        <v>0.2677739075335219</v>
       </c>
       <c r="BU6">
-        <v>0.2688099133982895</v>
+        <v>0.2686104862186986</v>
       </c>
       <c r="BV6">
-        <v>0.2695978691087353</v>
+        <v>0.2693766101191977</v>
       </c>
       <c r="BW6">
-        <v>0.2696464564593794</v>
+        <v>0.2694000764346542</v>
       </c>
       <c r="BX6">
-        <v>0.2701484546960343</v>
+        <v>0.2698789707234245</v>
       </c>
       <c r="BY6">
-        <v>0.2741856892495549</v>
+        <v>0.2739088285215653</v>
       </c>
       <c r="BZ6">
-        <v>0.2759627727731133</v>
+        <v>0.2756684805643586</v>
       </c>
       <c r="CA6">
-        <v>0.2763153162377868</v>
+        <v>0.2759972552022656</v>
       </c>
       <c r="CB6">
-        <v>0.2774354849526366</v>
+        <v>0.2770970700219119</v>
       </c>
       <c r="CC6">
-        <v>0.2777340651365949</v>
+        <v>0.2773716413128597</v>
       </c>
       <c r="CD6">
-        <v>0.2777414301736925</v>
+        <v>0.2773716413128597</v>
       </c>
       <c r="CE6">
-        <v>0.2789046584891132</v>
+        <v>0.2785147072921599</v>
       </c>
       <c r="CF6">
-        <v>0.2820844743312672</v>
+        <v>0.2816833319835381</v>
       </c>
       <c r="CG6">
-        <v>0.2820862853197912</v>
+        <v>0.2816833319835381</v>
       </c>
       <c r="CH6">
-        <v>0.2845522393524818</v>
+        <v>0.2841349191111063</v>
       </c>
       <c r="CI6">
-        <v>0.2854906488949221</v>
+        <v>0.2850521661669965</v>
       </c>
       <c r="CJ6">
-        <v>0.297639318055974</v>
+        <v>0.2972295438812954</v>
       </c>
       <c r="CK6">
-        <v>0.3101004922211688</v>
+        <v>0.3097208168395736</v>
       </c>
       <c r="CL6">
-        <v>0.3123065118504135</v>
+        <v>0.3119113131944931</v>
       </c>
       <c r="CM6">
-        <v>0.3302363100881044</v>
+        <v>0.3298955384726082</v>
       </c>
       <c r="CN6">
-        <v>0.3559588434291018</v>
+        <v>0.3557071663653708</v>
       </c>
       <c r="CO6">
-        <v>0.3678989405873888</v>
+        <v>0.3676750442034206</v>
       </c>
       <c r="CP6">
-        <v>0.3679958924386741</v>
+        <v>0.3677470901784903</v>
       </c>
       <c r="CQ6">
-        <v>0.3723500629963963</v>
+        <v>0.3720952939328424</v>
       </c>
       <c r="CR6">
-        <v>0.3903326612347872</v>
+        <v>0.3901325541028219</v>
       </c>
       <c r="CS6">
-        <v>0.3986991713457</v>
+        <v>0.3985109470902422</v>
       </c>
       <c r="CT6">
-        <v>0.4026660318982877</v>
+        <v>0.4024701178148969</v>
       </c>
       <c r="CU6">
-        <v>0.4029093393315132</v>
+        <v>0.4026891704634336</v>
       </c>
       <c r="CV6">
-        <v>0.4075907077935729</v>
+        <v>0.4073660277262096</v>
       </c>
       <c r="CW6">
-        <v>0.4244015800164306</v>
+        <v>0.424226349227538</v>
       </c>
       <c r="CX6">
-        <v>0.4250758140853688</v>
+        <v>0.4248782455734908</v>
       </c>
       <c r="CY6">
-        <v>0.4592847545388684</v>
+        <v>0.4592140340261548</v>
       </c>
       <c r="CZ6">
-        <v>0.4921218289741816</v>
+        <v>0.4921718534454376</v>
       </c>
       <c r="DA6">
-        <v>0.5058474841561392</v>
+        <v>0.5059332327124215</v>
       </c>
       <c r="DB6">
-        <v>0.5062366142212978</v>
+        <v>0.5062987567134856</v>
       </c>
       <c r="DC6">
-        <v>0.5087181374541948</v>
+        <v>0.5087659823039026</v>
       </c>
       <c r="DD6">
-        <v>0.5182344810803506</v>
+        <v>0.5182993240666001</v>
       </c>
       <c r="DE6">
-        <v>0.5358902653144091</v>
+        <v>0.5360083163360154</v>
       </c>
       <c r="DF6">
-        <v>0.578220145875566</v>
+        <v>0.5785011724920462</v>
       </c>
       <c r="DG6">
-        <v>0.5967575371213117</v>
+        <v>0.5970956937749454</v>
       </c>
       <c r="DH6">
-        <v>0.5974983638311328</v>
+        <v>0.597814479012212</v>
       </c>
       <c r="DI6">
-        <v>0.5976379019429826</v>
+        <v>0.5979293007011834</v>
       </c>
       <c r="DJ6">
-        <v>0.5995916572688831</v>
+        <v>0.5998664105055014</v>
       </c>
       <c r="DK6">
-        <v>0.6013672067924211</v>
+        <v>0.6016245217239742</v>
       </c>
       <c r="DL6">
-        <v>0.6028932270126511</v>
+        <v>0.6031319935590661</v>
       </c>
       <c r="DM6">
-        <v>0.6049210557395336</v>
+        <v>0.6051435062944263</v>
       </c>
       <c r="DN6">
-        <v>0.6056019100485595</v>
+        <v>0.605802052331904</v>
       </c>
       <c r="DO6">
-        <v>0.6063395451283381</v>
+        <v>0.6065176317405356</v>
       </c>
       <c r="DP6">
-        <v>0.6070997414984158</v>
+        <v>0.6072558728077937</v>
       </c>
       <c r="DQ6">
-        <v>0.6151771026054954</v>
+        <v>0.6153438304552951</v>
       </c>
       <c r="DR6">
-        <v>0.6253024357397245</v>
+        <v>0.6254888709353995</v>
       </c>
       <c r="DS6">
-        <v>0.6353825408733541</v>
+        <v>0.6355884822092682</v>
       </c>
       <c r="DT6">
-        <v>0.6404715044408172</v>
+        <v>0.6406747478442597</v>
       </c>
       <c r="DU6">
-        <v>0.6404795203939235</v>
+        <v>0.6406747478442597</v>
       </c>
       <c r="DV6">
-        <v>0.6429155837262178</v>
+        <v>0.6430963112967852</v>
       </c>
       <c r="DW6">
-        <v>0.642919826609974</v>
+        <v>0.6430963112967852</v>
       </c>
       <c r="DX6">
-        <v>0.6586920148190621</v>
+        <v>0.6589133279946792</v>
       </c>
       <c r="DY6">
-        <v>0.6711288709839346</v>
+        <v>0.6713801747692384</v>
       </c>
       <c r="DZ6">
-        <v>0.6712546369656018</v>
+        <v>0.6714811630600035</v>
       </c>
       <c r="EA6">
-        <v>0.6718162288730467</v>
+        <v>0.6720199161337028</v>
       </c>
       <c r="EB6">
-        <v>0.6718507428835042</v>
+        <v>0.6720292465009572</v>
       </c>
       <c r="EC6">
-        <v>0.6723571957602181</v>
+        <v>0.672512615247127</v>
       </c>
       <c r="ED6">
-        <v>0.6739676579815677</v>
+        <v>0.6741049047401511</v>
       </c>
       <c r="EE6">
-        <v>0.6740726407729594</v>
+        <v>0.6741850173825402</v>
       </c>
       <c r="EF6">
-        <v>0.6743480711066107</v>
+        <v>0.6744363358365291</v>
       </c>
       <c r="EG6">
-        <v>0.6743506269350446</v>
+        <v>0.6744363358365291</v>
       </c>
       <c r="EH6">
-        <v>0.6758812361553355</v>
+        <v>0.6759484170867491</v>
       </c>
       <c r="EI6">
-        <v>0.6768675031684102</v>
+        <v>0.6769137345166233</v>
       </c>
       <c r="EJ6">
-        <v>0.6771471706421176</v>
+        <v>0.6771693089604174</v>
       </c>
       <c r="EK6">
-        <v>0.6779779805831314</v>
+        <v>0.677978477736939</v>
       </c>
       <c r="EL6">
-        <v>0.680680721318961</v>
+        <v>0.6806679049597618</v>
       </c>
       <c r="EM6">
-        <v>0.6828004348470614</v>
+        <v>0.6827717112639097</v>
       </c>
       <c r="EN6">
-        <v>0.6854314432819401</v>
+        <v>0.6853890870705641</v>
       </c>
       <c r="EO6">
-        <v>0.6855798681839077</v>
+        <v>0.6855128350842832</v>
       </c>
       <c r="EP6">
-        <v>0.6857792380665507</v>
+        <v>0.6856877547174215</v>
       </c>
       <c r="EQ6">
-        <v>0.6859458603387596</v>
+        <v>0.6858297810559543</v>
       </c>
       <c r="ER6">
-        <v>0.6859942923474016</v>
+        <v>0.6858530913383393</v>
       </c>
       <c r="ES6">
-        <v>0.6867506421174283</v>
+        <v>0.6865874686931912</v>
       </c>
       <c r="ET6">
-        <v>0.6891981716498746</v>
+        <v>0.6890205493555103</v>
       </c>
       <c r="EU6">
-        <v>0.6948855577252709</v>
+        <v>0.694707899698395</v>
       </c>
       <c r="EV6">
-        <v>0.6974844122597234</v>
+        <v>0.6972929785616873</v>
       </c>
       <c r="EW6">
-        <v>0.6989454133790914</v>
+        <v>0.6987351420456878</v>
       </c>
       <c r="EX6">
-        <v>0.698958052290259</v>
+        <v>0.6987351420456878</v>
       </c>
       <c r="EY6">
-        <v>0.6996256983991098</v>
+        <v>0.6993804211237199</v>
       </c>
       <c r="EZ6">
-        <v>0.7068908787954226</v>
+        <v>0.7066525849151815</v>
       </c>
       <c r="FA6">
-        <v>0.7163348359206189</v>
+        <v>0.7161132181513647</v>
       </c>
       <c r="FB6">
-        <v>0.7243207770264866</v>
+        <v>0.7241093490978388</v>
       </c>
       <c r="FC6">
-        <v>0.730445618107682</v>
+        <v>0.7302361005509614</v>
       </c>
       <c r="FD6">
-        <v>0.730914431173897</v>
+        <v>0.7306816620385489</v>
       </c>
       <c r="FE6">
-        <v>0.7412674243111441</v>
+        <v>0.7410553753118705</v>
       </c>
       <c r="FF6">
-        <v>0.7780449747986952</v>
+        <v>0.7779712007643824</v>
       </c>
       <c r="FG6">
-        <v>0.8145491432826221</v>
+        <v>0.8146124280197791</v>
       </c>
       <c r="FH6">
-        <v>0.8316226645089616</v>
+        <v>0.8317365669702232</v>
       </c>
       <c r="FI6">
-        <v>0.8351200429553255</v>
+        <v>0.8352241670053742</v>
       </c>
       <c r="FJ6">
-        <v>0.837359396485012</v>
+        <v>0.8374481455531331</v>
       </c>
       <c r="FK6">
-        <v>0.8385548738008601</v>
+        <v>0.8386236039988677</v>
       </c>
       <c r="FL6">
-        <v>0.8388080446542163</v>
+        <v>0.8388525639468952</v>
       </c>
       <c r="FM6">
-        <v>0.838809455631735</v>
+        <v>0.8388525639468952</v>
       </c>
       <c r="FN6">
-        <v>0.8393001215982396</v>
+        <v>0.8393200755516876</v>
       </c>
       <c r="FO6">
-        <v>0.8393645312890935</v>
+        <v>0.8393594345961393</v>
       </c>
       <c r="FP6">
-        <v>0.841135137912566</v>
+        <v>0.8411125809250857</v>
       </c>
       <c r="FQ6">
-        <v>0.8412898587346171</v>
+        <v>0.8412426528675241</v>
       </c>
       <c r="FR6">
-        <v>0.841325749360093</v>
+        <v>0.8412533659739387</v>
       </c>
       <c r="FS6">
-        <v>0.846413122727535</v>
+        <v>0.8463380343345923</v>
       </c>
       <c r="FT6">
-        <v>0.8611512329229145</v>
+        <v>0.8611163727198079</v>
       </c>
       <c r="FU6">
-        <v>0.8714641720596307</v>
+        <v>0.871449853804517</v>
       </c>
       <c r="FV6">
-        <v>0.8783200571505175</v>
+        <v>0.8783109014600671</v>
       </c>
       <c r="FW6">
-        <v>0.8886767532878137</v>
+        <v>0.8886883342069601</v>
       </c>
       <c r="FX6">
-        <v>0.8954744453779291</v>
+        <v>0.8954909299787551</v>
       </c>
       <c r="FY6">
-        <v>0.8963210401891522</v>
+        <v>0.8963159538475787</v>
       </c>
       <c r="FZ6">
-        <v>0.8963292871042615</v>
+        <v>0.8963159538475787</v>
       </c>
       <c r="GA6">
-        <v>0.8963358341297483</v>
+        <v>0.8963159538475787</v>
       </c>
       <c r="GB6">
-        <v>0.8963463453168876</v>
+        <v>0.8963159538475787</v>
       </c>
       <c r="GC6">
-        <v>0.8964978849488966</v>
+        <v>0.8964428304478268</v>
       </c>
       <c r="GD6">
-        <v>0.8993010762860578</v>
+        <v>0.8992331551461935</v>
       </c>
       <c r="GE6">
-        <v>0.9079070294001449</v>
+        <v>0.9078520563459755</v>
       </c>
       <c r="GF6">
-        <v>0.9117248152507563</v>
+        <v>0.9116614891805881</v>
       </c>
       <c r="GG6">
-        <v>0.9132318949707353</v>
+        <v>0.9131499362548967</v>
       </c>
       <c r="GH6">
-        <v>0.9241395571153356</v>
+        <v>0.924080786089498</v>
       </c>
       <c r="GI6">
-        <v>0.9404772743319207</v>
+        <v>0.9404658476616573</v>
       </c>
       <c r="GJ6">
-        <v>0.9621357416190418</v>
+        <v>0.962195329705177</v>
       </c>
       <c r="GK6">
-        <v>0.9818970718810129</v>
+        <v>0.9820192349371992</v>
       </c>
       <c r="GL6">
-        <v>0.9907151049979115</v>
+        <v>0.9908511596193036</v>
       </c>
       <c r="GM6">
-        <v>0.995535554061815</v>
+        <v>0.9956677162112736</v>
       </c>
       <c r="GN6">
-        <v>0.9980084492945976</v>
+        <v>0.9981262754182245</v>
       </c>
       <c r="GO6">
-        <v>0.9980490740081362</v>
+        <v>0.9981417436732217</v>
       </c>
       <c r="GP6">
-        <v>0.9980792359545361</v>
+        <v>0.9981467026154074</v>
       </c>
       <c r="GQ6">
-        <v>0.9981525943555085</v>
+        <v>0.9981950501800706</v>
       </c>
       <c r="GR6">
-        <v>0.9984385127792988</v>
+        <v>0.9984569033825257</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>107</v>
       </c>
       <c r="E2">
-        <v>0.0006942174496270176</v>
+        <v>0.007556303421096283</v>
       </c>
       <c r="F2">
-        <v>0.5052514136467774</v>
+        <v>0.5052492043520226</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>135</v>
       </c>
       <c r="E3">
-        <v>0.008413532180977179</v>
+        <v>0.007186806577728912</v>
       </c>
       <c r="F3">
-        <v>0.5156431414980401</v>
+        <v>0.5151985680479483</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>135</v>
       </c>
       <c r="E4">
-        <v>0.007155286256008331</v>
+        <v>0.004925619183122713</v>
       </c>
       <c r="F4">
-        <v>0.5041565906678032</v>
+        <v>0.5034036024389036</v>
       </c>
       <c r="G4">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>109</v>
       </c>
       <c r="E5">
-        <v>0.003600573431766299</v>
+        <v>0.04767353278744708</v>
       </c>
       <c r="F5">
-        <v>0.5195726481644108</v>
+        <v>0.5195165094422702</v>
       </c>
       <c r="G5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>104</v>
       </c>
       <c r="E6">
-        <v>0.001727062387636848</v>
+        <v>0.001353041241034572</v>
       </c>
       <c r="F6">
-        <v>0.5058474841561392</v>
+        <v>0.5059332327124215</v>
       </c>
       <c r="G6">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>143</v>
       </c>
       <c r="E2">
-        <v>0.0006942174496270176</v>
+        <v>0.007556303421096283</v>
       </c>
       <c r="F2">
-        <v>0.7058232843156635</v>
+        <v>0.7058267493886606</v>
       </c>
       <c r="G2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>148</v>
       </c>
       <c r="E3">
-        <v>0.008413532180977179</v>
+        <v>0.007186806577728912</v>
       </c>
       <c r="F3">
-        <v>0.7082569445067006</v>
+        <v>0.7082455269612319</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>149</v>
       </c>
       <c r="E4">
-        <v>0.007155286256008331</v>
+        <v>0.004925619183122713</v>
       </c>
       <c r="F4">
-        <v>0.7551519701321189</v>
+        <v>0.7556499478940624</v>
       </c>
       <c r="G4">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>157</v>
       </c>
       <c r="E5">
-        <v>0.003600573431766299</v>
+        <v>0.04767353278744708</v>
       </c>
       <c r="F5">
-        <v>0.7020237020804905</v>
+        <v>0.7017834072529452</v>
       </c>
       <c r="G5">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>155</v>
       </c>
       <c r="E6">
-        <v>0.001727062387636848</v>
+        <v>0.001353041241034572</v>
       </c>
       <c r="F6">
-        <v>0.7068908787954226</v>
+        <v>0.7066525849151815</v>
       </c>
       <c r="G6">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>162</v>
       </c>
       <c r="E2">
-        <v>0.0006942174496270176</v>
+        <v>0.007556303421096283</v>
       </c>
       <c r="F2">
-        <v>0.8056383499335763</v>
+        <v>0.8056398784285584</v>
       </c>
       <c r="G2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>150</v>
       </c>
       <c r="E3">
-        <v>0.008413532180977179</v>
+        <v>0.007186806577728912</v>
       </c>
       <c r="F3">
-        <v>0.8032277446786122</v>
+        <v>0.803527133410191</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>151</v>
       </c>
       <c r="E4">
-        <v>0.007155286256008331</v>
+        <v>0.004925619183122713</v>
       </c>
       <c r="F4">
-        <v>0.8005599577014471</v>
+        <v>0.8013100470610566</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>163</v>
       </c>
       <c r="E5">
-        <v>0.003600573431766299</v>
+        <v>0.04767353278744708</v>
       </c>
       <c r="F5">
-        <v>0.8045536420408362</v>
+        <v>0.8045380342652546</v>
       </c>
       <c r="G5">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>162</v>
       </c>
       <c r="E6">
-        <v>0.001727062387636848</v>
+        <v>0.001353041241034572</v>
       </c>
       <c r="F6">
-        <v>0.8145491432826221</v>
+        <v>0.8146124280197791</v>
       </c>
       <c r="G6">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>180</v>
       </c>
       <c r="E2">
-        <v>0.0006942174496270176</v>
+        <v>0.007556303421096283</v>
       </c>
       <c r="F2">
-        <v>0.9008647299072965</v>
+        <v>0.90086721442596</v>
       </c>
       <c r="G2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>178</v>
       </c>
       <c r="E3">
-        <v>0.008413532180977179</v>
+        <v>0.007186806577728912</v>
       </c>
       <c r="F3">
-        <v>0.9013907479605022</v>
+        <v>0.9015028424800763</v>
       </c>
       <c r="G3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>168</v>
       </c>
       <c r="E4">
-        <v>0.007155286256008331</v>
+        <v>0.004925619183122713</v>
       </c>
       <c r="F4">
-        <v>0.9058188065389823</v>
+        <v>0.9065575830496988</v>
       </c>
       <c r="G4">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>187</v>
       </c>
       <c r="E5">
-        <v>0.003600573431766299</v>
+        <v>0.04767353278744708</v>
       </c>
       <c r="F5">
-        <v>0.9002755812246762</v>
+        <v>0.9001798479533396</v>
       </c>
       <c r="G5">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>186</v>
       </c>
       <c r="E6">
-        <v>0.001727062387636848</v>
+        <v>0.001353041241034572</v>
       </c>
       <c r="F6">
-        <v>0.9079070294001449</v>
+        <v>0.9078520563459755</v>
       </c>
       <c r="G6">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H6">
         <v>52</v>

--- a/on_trucks/Processed_Stand_Alone/52_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/52_455-55R22.xlsx
@@ -2006,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.804306143603103E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4.429139831572389E-07</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.861393149648452E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2024,28 +2024,28 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3.311673184463761E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>4.488411746248531E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.892879273532388E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6.10337373911543E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.336138222082718E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.608045517504432E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>9.935862978158417E-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>9.125479119098919E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>1.274766026636971E-06</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>4.927606630863286E-06</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -2069,55 +2069,55 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>5.80612352823386E-07</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.274766026636971E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>3.802081276454691E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>5.221203188577257E-06</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.143762118405575E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.788026802955969E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.97463420705182E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>8.429723654724542E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>5.789023292219683E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.788026802955969E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>5.444606079295606E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>5.243418090715248E-06</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.156307116161042E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>5.769610412792948E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.175185229414536E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2135,463 +2135,463 @@
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>1.033177747541621E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>7.028526750450755E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>9.662986786383732E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.006989719395557206</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0550638827953446</v>
+        <v>0.3138374656222062</v>
       </c>
       <c r="BB2">
-        <v>0.04786209661987346</v>
+        <v>0.2235988322835692</v>
       </c>
       <c r="BC2">
-        <v>0.02017697384338399</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.01259723562446604</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.01065597720225997</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.003460762482940993</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.01450157895252947</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.01217362792683136</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.01228926309954045</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.01320728458641447</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.01074111723193642</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.02827828868420119</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>8.670195880032356E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.02426979849937405</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.002662045913100046</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.001421006169724701</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>6.706467959170271E-06</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>4.510842598109776E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.001031113647650403</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.00514761792130175</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0003364517814945698</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.002040147435591053</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>7.438953729569132E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0007791487541931213</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>9.577993778641206E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.001111317454922461</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0007860789590746022</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.002582263598058917</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.002304846357863685</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>5.789023292219683E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0005648098477579886</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0007649000352058243</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.001146498746977467</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.001736903989452088</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>6.477050698541346E-07</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.004614603068996053</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.008251014282321603</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.002112279646626934</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.008501449915505126</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.01062283372307074</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.02144255230005275</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.005622829697313085</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>5.024632321160551E-05</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.009592593432140029</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.02362458515709592</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.009416675964233141</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.003260527154863589</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.0004688829692939911</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.009872289352200055</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.0110421514463607</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.00516057420421133</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.0363247484926754</v>
+        <v>0.07903545564564431</v>
       </c>
       <c r="DA2">
-        <v>0.02043867228534984</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.01065929800465394</v>
+        <v>0</v>
       </c>
       <c r="DC2">
         <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.006553831083470504</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.0142694560159889</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.03423001816462264</v>
+        <v>0.05278841117488701</v>
       </c>
       <c r="DG2">
-        <v>0.05184550141238117</v>
+        <v>0.2735110340280145</v>
       </c>
       <c r="DH2">
-        <v>0.006585890811268241</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>1.499527179071572E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.001794389645671307</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.004897608283471281</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.0001959645282268341</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.003351090744827769</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>1.439038040464148E-05</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.0007791487541931213</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.0003344945344870843</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.003462653393956104</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.006878561126795725</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.01190864020432642</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.01081296554613964</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.001855685643694207</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.0004813211429857073</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.002343359960291425</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.004162212015152635</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.01690230443454791</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.00415742809834546</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0004884228867993487</v>
+        <v>0</v>
       </c>
       <c r="EB2">
         <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.001006850325292297</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>2.263290114698293E-05</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0009762103818659827</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>2.776406951220295E-07</v>
+        <v>0</v>
       </c>
       <c r="EG2">
         <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0002644648611923283</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.002423899700474031</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.0006807981653110837</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0001470121883657088</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.002148814977470332</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.004359579654991256</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.006780501239464222</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.001777661147392041</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.000678859721340206</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>6.610197132238342E-05</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0003291975719727033</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0002270169276190137</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.001286911698730135</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.00212560188326123</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.004255242915763965</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.001230714135577518</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.000683387020227866</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.0001647084075897052</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.002071213874717326</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.008378818892400908</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.007692055742619394</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.007888414883240704</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.003414369917834658</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.0005671693836822737</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.02239128507982143</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.03458439786478413</v>
+        <v>0.05722880124567889</v>
       </c>
       <c r="FH2">
-        <v>0.02589918319185329</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.00646666594973961</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.002558815240736114</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.001643637325380152</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.0008228215336051453</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>1.24457391370255E-05</v>
+        <v>0</v>
       </c>
       <c r="FN2">
         <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.000146921145243273</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.0006490389058354242</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.001761010903368375</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>1.85753539497226E-05</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.001435689750212171</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.00918472965014926</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.01204307441086799</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.00867094643160822</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.01048570564880442</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.01097731249191899</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.002450762324992251</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0003313203937772676</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>1.791476094434581E-05</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>9.935862978158417E-06</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.000152739999598102</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.001200510194442314</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.004368890710575082</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.006539829876089092</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0002453890854878962</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.005183688630011197</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.01539906119904303</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.01885575280834721</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.02142193100280022</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.01252880718134354</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.006158322367550892</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.004433350402064468</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.001605740850822342</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>9.125479119098919E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
         <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0001220452081443009</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0005484295609022664</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,49 +2767,49 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0002163515722753372</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0003697370279337375</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0002124024694667443</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.028655212540685E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001140172839761591</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0003908573806049518</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0004179028127955794</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001072138944420977</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.029738998903324E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.964153972230071E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0005850271091977144</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0004289121614336584</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0003047206068782253</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.026403778939017E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>6.574881682036667E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1.907060731414154E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>5.677129683411096E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.006471143902433E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.141314326619541E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0002867247770419644</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.000298570308853273</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0001017253301017279</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.556714140215695E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -2884,40 +2884,40 @@
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0001380636303433192</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.779714237797853E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>3.140730778353188E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>9.83201925168257E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>8.793412038434163E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0004272773950747983</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0003653318069627105</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0001367663103227116</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>1.244432315679958E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
         <v>0</v>
@@ -2929,31 +2929,31 @@
         <v>0</v>
       </c>
       <c r="BD3">
-        <v>1.443314468986529E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>7.104621945122641E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>2.899400587791789E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.000125639905877003</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0001999869856811059</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0001845731989868511</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>5.760991607701226E-06</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>3.090337962084896E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="BP3">
-        <v>6.744148876610853E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0003537924450450846</v>
+        <v>0</v>
       </c>
       <c r="BR3">
         <v>0</v>
@@ -2977,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="BT3">
-        <v>2.556714140215695E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>3.445404401306705E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>7.50533984819892E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0001661737363952986</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>1.792582118876852E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>4.354014726303027E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
         <v>0</v>
@@ -3016,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>7.786236748615198E-06</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0001188529776295573</v>
+        <v>0</v>
       </c>
       <c r="CI3">
         <v>0</v>
@@ -3028,265 +3028,265 @@
         <v>0</v>
       </c>
       <c r="CK3">
-        <v>5.227684464851981E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>3.699169186806008E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0002026740096747667</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1098117804773943</v>
+        <v>0.5258378150440219</v>
       </c>
       <c r="CO3">
-        <v>0.009859040864190718</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.05322909284963107</v>
+        <v>0.1526231275967522</v>
       </c>
       <c r="CQ3">
-        <v>0.0131749075869177</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.02197997903421334</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.01293115357227583</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.0004353104728311644</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.005423390000370144</v>
+        <v>0</v>
       </c>
       <c r="CV3">
         <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.02864826255837615</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.01204842912235124</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.0273032419448516</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.01826462147687885</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.0193582531503565</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.0178135360517064</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.0055818329956312</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.0008445323669094569</v>
+        <v>0</v>
       </c>
       <c r="DE3">
         <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.001620160087606914</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.008803787074478457</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.000449702937064612</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.007357276606546003</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>9.311131446969002E-05</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.001131370988804424</v>
+        <v>0</v>
       </c>
       <c r="DL3">
         <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.001021335719168982</v>
+        <v>0</v>
       </c>
       <c r="DN3">
         <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.004443413072109416</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.005856814673225296</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.0006707557534274396</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.001105084020431986</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.001037158026817664</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>3.640113016213996E-05</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.001195925128752391</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.0005433688122056463</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.005159434875466114</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.01448551357217699</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.007548237568658345</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.003698212835236746</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.01146123896897637</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.01768343166322281</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.01834567223498455</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.0006687292385592347</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.003298641601296433</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.03338694503181032</v>
+        <v>0.02174597582856863</v>
       </c>
       <c r="EG3">
-        <v>0.02246527081222588</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.007194914118717524</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.001247268584322741</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.009392373426004694</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.01479748506565472</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0002216590223134544</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.03110358992797269</v>
+        <v>0.006685156041850822</v>
       </c>
       <c r="EN3">
-        <v>0.03587752765940021</v>
+        <v>0.03817365107497163</v>
       </c>
       <c r="EO3">
-        <v>0.02337160717107416</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.001612560493743886</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.002869903677562917</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.01067695401675082</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.03221584493753987</v>
+        <v>0.01402149730029598</v>
       </c>
       <c r="ET3">
-        <v>0.06661459408363289</v>
+        <v>0.2409127771135388</v>
       </c>
       <c r="EU3">
-        <v>0.02866701236532626</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.002861622445910819</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0003743257219889408</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.00600681312882618</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.002509898852356388</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.0006539583454062834</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0004862598411849861</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0002152860653122847</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.0007167894704393383</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.001271171175478371</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.00669548771642921</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.01466549164415828</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.0221199752507212</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.008249819611694686</v>
+        <v>0</v>
       </c>
       <c r="FI3">
         <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.001276718829815269</v>
+        <v>0</v>
       </c>
       <c r="FK3">
         <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.01457943223847865</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.009747026827455627</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0002560739115503268</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0001647669187065869</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.0004303804680503019</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.001599089339617685</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0005793451147022398</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>3.528920839325305E-05</v>
+        <v>0</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -3295,76 +3295,76 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0008207382194980937</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.001659948723710012</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0002546579397802775</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.000720767079378412</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.008175239444087053</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.007554943033611783</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.005448056234626825</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>2.006471143902433E-05</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0002973344476484875</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0002227387622670076</v>
+        <v>0</v>
       </c>
       <c r="GF3">
         <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.001389498918620185</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.007457581449064971</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.008690747218540849</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.002084029910057856</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.001752837254740097</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>1.813883124131304E-05</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.00141762101932918</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.008765223499370145</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.008445568399243431</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.01012375340902647</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.008528488115622212</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0002281164337448588</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.01690175140848311</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001137800718734905</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002031446256314637</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0002814006230939006</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3564,37 +3564,37 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001609102570399131</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0005182919787166418</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0003048344949590315</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0002261280724560876</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>9.933950493131741E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>6.798609694043541E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0002665159291413851</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>8.39420807854849E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1.036533835190023E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>9.060391540268536E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>1.542698961863611E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -3645,19 +3645,19 @@
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>1.864573145237286E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0003950168151840903</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0001819199112878742</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0001429636220510568</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>8.633880876059322E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>1.483228426469984E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -3687,19 +3687,19 @@
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0001901669349053239</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0004802725239859855</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>6.769197389333556E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>6.239474002179882E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>3.433561092691769E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0001953183406595381</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
@@ -3738,13 +3738,13 @@
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>2.532067101073933E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0001331173119226379</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0001123076226516074</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
@@ -3759,10 +3759,10 @@
         <v>0</v>
       </c>
       <c r="BW4">
-        <v>4.870993266860992E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>2.468144614117723E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -3777,10 +3777,10 @@
         <v>0</v>
       </c>
       <c r="CC4">
-        <v>6.626551540692474E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0001047258423259347</v>
+        <v>0</v>
       </c>
       <c r="CE4">
         <v>0</v>
@@ -3789,10 +3789,10 @@
         <v>0</v>
       </c>
       <c r="CG4">
-        <v>3.562095323025377E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>3.699429664947044E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
         <v>0</v>
@@ -3801,250 +3801,250 @@
         <v>0</v>
       </c>
       <c r="CK4">
-        <v>6.662263487862542E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>1.987316714716572E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>6.282971322317929E-05</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1034480199713834</v>
+        <v>0.4380805041551234</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.05562475421985717</v>
+        <v>0.1521297176049048</v>
       </c>
       <c r="CQ4">
-        <v>0.01843405475931712</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.007327158120689754</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.007826519359416178</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.001730561946335783</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.01306342616345695</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.01291481683601384</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.02850495566645171</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.01749742179012145</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.02567923711477664</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.02787814748931926</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.004309257345071553</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.04243357840947237</v>
+        <v>0.0732554073873645</v>
       </c>
       <c r="DC4">
-        <v>8.633880876059322E-05</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.001653118142843342</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.000405021825595803</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0001154756729001572</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.004138602493609587</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.001733709852964655</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.003744989212082109</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0001609102570399131</v>
+        <v>0</v>
       </c>
       <c r="DK4">
         <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.0007596569108183396</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.0001019687763337905</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.0004604499930013412</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.0002608052180011824</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.001573710260855964</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.001012189580545422</v>
+        <v>0</v>
       </c>
       <c r="DR4">
         <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.001230829476519352</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.001907101072572433</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0004679606106245808</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.003356741852254668</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.0001032951515632535</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.007426452662724122</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.01357806491183488</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0003549433460877495</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.01208757813156107</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.01755893893339729</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.02631595889523022</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.001677473985863446</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.001779496532259568</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.02769146178302965</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.02357048430164291</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.008990579740113509</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.002171709031110009</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.002331076905601094</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.01842053263663303</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.006081977096105784</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.02449657789524033</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.04536992664748737</v>
+        <v>0.09081278401254704</v>
       </c>
       <c r="EO4">
-        <v>0.02865221268085794</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.004992963035162164</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.001156054324752396</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.009201402521047434</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.01918527573584363</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.0576255729035613</v>
+        <v>0.1640932601894325</v>
       </c>
       <c r="EU4">
-        <v>0.04383389049769524</v>
+        <v>0.08162832665062772</v>
       </c>
       <c r="EV4">
-        <v>0.001826208669298953</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.0001341238278345373</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.004824890275299105</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.004033617857666563</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
         <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.003088012664314499</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>5.594710493738518E-05</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.0005246198665824072</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0002841157996278157</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.007653897406404796</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.01194102649653326</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.01927967464268639</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.01520905217975459</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>3.881624119965842E-06</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>7.283889545007277E-05</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.002297643434591768</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.01619402580543742</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.0196501681074017</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.001878244002201739</v>
+        <v>0</v>
       </c>
       <c r="FO4">
         <v>0</v>
@@ -4053,91 +4053,91 @@
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.002478037660668385</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0003298749792038187</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.000831890631069131</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>1.662474395687035E-05</v>
+        <v>0</v>
       </c>
       <c r="FU4">
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0003207413743224955</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.002659494490394334</v>
+        <v>0</v>
       </c>
       <c r="FX4">
         <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0001879979033935659</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.00537788150816593</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.007508372501446496</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.01008826291361777</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0003851234159437385</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.0003391201751028061</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>6.502789705696213E-05</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.000422124615234269</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0001169625118613598</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.002742943893914546</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.004077681395908505</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.004506786647008472</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.002878558823217101</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0008624001937096228</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0008033517371823403</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.005109559928737998</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.00881568293860676</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0102785702391731</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0101576309293753</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.00236516214715607</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.007838306752671798</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,19 +4313,19 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.055894778948946E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001872631520996716</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0005836214675111601</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002943544004998639</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4337,13 +4337,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.047813509301706E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>5.281981702764818E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.238791457471034E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -4355,37 +4355,37 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.34056473195923E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>4.937358325825108E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001789703956504783</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>4.45016556821803E-06</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>4.347229190083464E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>2.426701694948004E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3.601851700287314E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.814863832566674E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>4.105597066014787E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0001536065500928296</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001284520110254165</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>1.221779185653235E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -4403,28 +4403,28 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>4.179421543739813E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>6.219165557517374E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0001388150799268202</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>5.055894778948946E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1.56173199018789E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0001077143866461464</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -4433,22 +4433,22 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3.738107877955724E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>4.266759451996235E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>3.654733891933142E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>4.593775261530981E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>9.224562981050122E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>3.972065163197239E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
         <v>0</v>
@@ -4457,400 +4457,400 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>9.768418769549574E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0002077505597189983</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.04360846446625835</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BA5">
-        <v>0.001157575095926501</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.02933383406218567</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0190879051672302</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.01375057060552588</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0015765508315113</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.002835957132392758</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.001087564562864905</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>3.427467813359681E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.006353874462237217</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0167716375251039</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.02849986246404168</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0134122508009184</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.000256425945722479</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.02784915442818801</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.00227762534828627</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.003268177943993338</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0006318410119880966</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0002485063374812423</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.002496328961582413</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.000845454968397323</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.002467034680421695</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>1.261112834961883E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0002223377995586936</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0009407387284618176</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>1.944981964987256E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0003544661731477657</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.001594895847157119</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.003555212441881935</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.003387147275522738</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1.371298797795878E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0004694578085835156</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.001430540192919013</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0008262265898777641</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0008271371894808457</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0002175106385317998</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.00530036780323618</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.01177725200880074</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0004329308565818153</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.01037899657355363</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.01353354052121273</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.02240756789914621</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.002993956044992739</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>3.336223064633676E-05</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.01372709083940258</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.02116031228945405</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.007456591520874344</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.002771529878047644</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.001447380918485708</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.01358974549351883</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.006930975111645029</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.007055562532738357</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.03772164418879613</v>
+        <v>0.1414506439449308</v>
       </c>
       <c r="DA5">
-        <v>0.02674396319107663</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.005483048509550533</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.0002771474688308122</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.006733384427804184</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.01991673238422998</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.0470136174228911</v>
+        <v>0.3134203290987713</v>
       </c>
       <c r="DG5">
-        <v>0.03566241201929594</v>
+        <v>0.1033397390890907</v>
       </c>
       <c r="DH5">
-        <v>0.005537375100566765</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>6.603927145715354E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.003853366648022638</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.002352981102021148</v>
+        <v>0</v>
       </c>
       <c r="DL5">
         <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.001734315999804221</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.0009052463408014965</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.001489207004407617</v>
+        <v>0</v>
       </c>
       <c r="DP5">
         <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.00232371932436064</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.008798336310466167</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.01915696707961903</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.00678042772678744</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.001152620820130733</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>4.192388132976025E-05</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0005710966851111246</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.006119869926537064</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.01864383412117837</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.004724722086740507</v>
+        <v>0</v>
       </c>
       <c r="EA5">
         <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.0001206161193611074</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.0002543159168019576</v>
+        <v>0</v>
       </c>
       <c r="ED5">
         <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.000304221078755018</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>1.673050860515287E-05</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0003608625810944791</v>
+        <v>0</v>
       </c>
       <c r="EH5">
         <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.002232790481567223</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
         <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0006365804737560926</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.002904248491123848</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.008082123689746567</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.008782492860503111</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0003851539716563382</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.0004792419439992496</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0005463857987576773</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>2.288208694612424E-05</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0002796350098551517</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.001838776932545822</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.004234876983324698</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.003422416281874677</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.002132131655794532</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0008475811888762819</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>5.816283067313905E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.004525905398961216</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.01042576951163237</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.009458534565825339</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.01059154438506016</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.002089855135564169</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.001643379332094087</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.02442917626395986</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.04041995937685294</v>
+        <v>0.191389273948007</v>
       </c>
       <c r="FH5">
-        <v>0.02358071251877818</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.007930908177384679</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.006336561633361928</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.001765438703171147</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0004936918565505613</v>
+        <v>0</v>
       </c>
       <c r="FM5">
         <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0008797888470418564</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0001034399556658647</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.001466548051984039</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0005881815882071689</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>9.031207282583747E-05</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.002839823042528745</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.01090431533498936</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.01355319911967256</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.00902003225217045</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.01173355486490846</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.01092953363709607</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.003428076204647208</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
         <v>0</v>
@@ -4859,58 +4859,58 @@
         <v>0</v>
       </c>
       <c r="GB5">
-        <v>3.324233386153749E-05</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>1.547905362348924E-05</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.000861108162532766</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.005839748341290171</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.006828830454571111</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>9.846077055188158E-05</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0072187497663995</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.01905025327309904</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.02021646581907529</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.02215798816767918</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.01336757203125591</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.007462847140511818</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.007311360163731516</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.001123929759793342</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>2.182120179193683E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>8.998730868624775E-05</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0004263042054766759</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.001274412438608849</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,7 +5086,7 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.000199493239794311</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5098,22 +5098,22 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.363323492960015E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>4.287525275995738E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>4.450427872604813E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3.578248384250356E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.630134707674078E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5122,19 +5122,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.641877196654484E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.711278161573844E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3.572163132633264E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>7.379808216285694E-06</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -5143,10 +5143,10 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>2.468748904183118E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1.071310641464601E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -5155,13 +5155,13 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>3.595736840732404E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3.376406123628254E-06</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1.719917525369588E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -5179,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.026759530510322E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>4.078624553401856E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1.719917525369588E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -5218,412 +5218,412 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>4.598684903914492E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>6.332272976221114E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0002355242212342121</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0002024428938303007</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0001777039750056429</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>2.526328424233956E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.1018509736258501</v>
+        <v>0.6141667323861756</v>
       </c>
       <c r="BA6">
-        <v>0.01404801276853714</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0423756872140613</v>
+        <v>0.1050185405896588</v>
       </c>
       <c r="BC6">
-        <v>0.01020615415293987</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.003958998059921506</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.002849942144404407</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0003482743924406344</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0001124777074628147</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0007661239004991495</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.01625720931371507</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.008991335714554105</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.01855478428750055</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.006861276669855811</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.00783885838532682</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.02511046543991738</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0002270873040758765</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>7.516650592015129E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0002588704116561505</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0001544236563300771</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.00350955266347769</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.002039928689798354</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0008365786851767425</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0007661239004991495</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>2.346631545646007E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0004788942887702766</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.004029857798140843</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.001759652042793296</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0003287746379070627</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.001099814819646266</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0002745712909477528</v>
+        <v>0</v>
       </c>
       <c r="CD6">
         <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.001143065979300184</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.003168624691378236</v>
+        <v>0</v>
       </c>
       <c r="CG6">
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.002451587127568225</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0009172470558901306</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.01217737771429895</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.01249127295827817</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.00219049635491949</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01798422527811508</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.02581162789276263</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.01196787783804982</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>7.20459750696923E-05</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.004348203754352101</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.01803726016997954</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.00837839298742029</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.003959170724654677</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.0002190526485367431</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.004676857262775932</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.01686032150132849</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.0006518963459527666</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.03433578845266402</v>
+        <v>0.03619163510407059</v>
       </c>
       <c r="CZ6">
-        <v>0.0329578194192828</v>
+        <v>0.02439529944895409</v>
       </c>
       <c r="DA6">
-        <v>0.01376137926698392</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0003655240010640369</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.002467225590417016</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.009533341762697434</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.01770899226941531</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.04249285615603079</v>
+        <v>0.1060215850226934</v>
       </c>
       <c r="DG6">
-        <v>0.01859452128289922</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.0007187852372665714</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0001148216889714303</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.001937109804317906</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.00175811121847284</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.001507471835091887</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.002011512735360196</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.0006585460374777055</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.000715579408631697</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.0007382410672580742</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.008087957647501412</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.01014504048010447</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.01009961127386875</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.005086265634991531</v>
+        <v>0</v>
       </c>
       <c r="DU6">
         <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.002421563452525555</v>
+        <v>0</v>
       </c>
       <c r="DW6">
         <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01581701669789393</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.01246684677455923</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0001009882907651181</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.0005387530736993732</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>9.330367254343117E-06</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.000483368746169805</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.001592289493024059</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>8.011264238919919E-05</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0002513184539888804</v>
+        <v>0</v>
       </c>
       <c r="EG6">
         <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.00151208125022003</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.0009653174298741577</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0002555744437940808</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0008091687765215866</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.002689427222822814</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.002103806304147838</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.002617375806654461</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0001237480137190091</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.0001749196331382717</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0001420263385327887</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>2.331028238502051E-05</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0007343773548519032</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.002433080662319045</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.005687350342884707</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.002585078863292328</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.001442163484000514</v>
+        <v>0</v>
       </c>
       <c r="EX6">
         <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.0006452790780321721</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.007272163791461616</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.009460633236183289</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.007996130946473971</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.006126751453122721</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.0004455614875874412</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.01037371327332157</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.03691582545251194</v>
+        <v>0.05827847574819229</v>
       </c>
       <c r="FG6">
-        <v>0.0366412272553966</v>
+        <v>0.0559277317002553</v>
       </c>
       <c r="FH6">
-        <v>0.01712413895044418</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.0034876000351509</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.002223978547758898</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.001175458445734596</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.0002289599480275338</v>
+        <v>0</v>
       </c>
       <c r="FM6">
         <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0004675116047924574</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>3.935904445158725E-05</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.001753146328946385</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0001300719424384653</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>1.071310641464601E-05</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.005084668360653599</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.01477833838521558</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.01033348108470909</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.006861047655550034</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.01037743274689305</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.006802595771794948</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.0008250238688235668</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
         <v>0</v>
@@ -5635,55 +5635,55 @@
         <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.0001268766002481187</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.002790324698366755</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.008618901199782066</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.003809432834612504</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.001488447074308576</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.01093084983460126</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.01638506157215939</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.02172948204351969</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.01982390523202223</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.00883192468210431</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.004816556591969949</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.002458559206950983</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>1.546825499716185E-05</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>4.958942185645991E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>4.834756466326167E-05</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0002618532024550683</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.001543096617473644</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6657,760 +6657,760 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.804306143603103E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5.247220126760342E-06</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>7.108613276408795E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.108613276408795E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.108613276408795E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.108613276408795E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.022534512104641E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.510946258353172E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001340382553188556</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001950719927100099</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0002184333749308371</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0002345138301058814</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0002444496930840398</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0002535751722031387</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0002535751722031387</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0002535751722031387</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0002548499382297757</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.000259777544860639</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.000259777544860639</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.000259777544860639</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.000259777544860639</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0002603581572134623</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0002616329232400993</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0002616329232400993</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.000265435004516554</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0002706562077051313</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.000282093828889187</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0002999740969187467</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.000329720438989265</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0004140176755365104</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0004719079084587072</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0004897881764882669</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0004952327825675626</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0004952327825675626</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0005004762006582778</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0005120392718198882</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0005178088822326811</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0005395607345268265</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0005395607345268265</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0005395607345268265</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0005395607345268265</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0005395607345268265</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0005395607345268265</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0005498925120022428</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0005569210387526935</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0005665840255390772</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.007556303421096283</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.06262018621644089</v>
+        <v>0.3138374656222062</v>
       </c>
       <c r="BB2">
-        <v>0.1104822828363144</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BC2">
-        <v>0.1306592566796984</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BD2">
-        <v>0.1432564923041644</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BE2">
-        <v>0.1539124695064244</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BF2">
-        <v>0.1573732319893654</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BG2">
-        <v>0.1718748109418948</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BH2">
-        <v>0.1840484388687262</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BI2">
-        <v>0.1963377019682666</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BJ2">
-        <v>0.2095449865546811</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BK2">
-        <v>0.2202861037866175</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BL2">
-        <v>0.2485643924708187</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BM2">
-        <v>0.2486510944296191</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BN2">
-        <v>0.2729208929289931</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BO2">
-        <v>0.2755829388420932</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BP2">
-        <v>0.2770039450118179</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BQ2">
-        <v>0.277010651479777</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BR2">
-        <v>0.2770557599057581</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BS2">
-        <v>0.2780868735534086</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BT2">
-        <v>0.2832344914747103</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BU2">
-        <v>0.2835709432562049</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BV2">
-        <v>0.2856110906917959</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BW2">
-        <v>0.2856854802290916</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BX2">
-        <v>0.2864646289832847</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BY2">
-        <v>0.2865604089210712</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="BZ2">
-        <v>0.2876717263759936</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CA2">
-        <v>0.2884578053350682</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CB2">
-        <v>0.2910400689331271</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CC2">
-        <v>0.2933449152909908</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CD2">
-        <v>0.293402805523913</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CE2">
-        <v>0.293967615371671</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CF2">
-        <v>0.2947325154068768</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CG2">
-        <v>0.2958790141538543</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CH2">
-        <v>0.2976159181433064</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CI2">
-        <v>0.2976165658483763</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CJ2">
-        <v>0.3022311689173723</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CK2">
-        <v>0.3104821831996939</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CL2">
-        <v>0.3125944628463208</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CM2">
-        <v>0.3210959127618259</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CN2">
-        <v>0.3317187464848967</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CO2">
-        <v>0.3531612987849495</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CP2">
-        <v>0.3587841284822625</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CQ2">
-        <v>0.3588343748054741</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CR2">
-        <v>0.3684269682376142</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CS2">
-        <v>0.3920515533947101</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CT2">
-        <v>0.4014682293589432</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CU2">
-        <v>0.4047287565138068</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CV2">
-        <v>0.4051976394831008</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CW2">
-        <v>0.4150699288353009</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CX2">
-        <v>0.4261120802816616</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CY2">
-        <v>0.4312726544858729</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="CZ2">
-        <v>0.4675974029785483</v>
+        <v>0.6164717535514197</v>
       </c>
       <c r="DA2">
-        <v>0.4880360752638982</v>
+        <v>0.6164717535514197</v>
       </c>
       <c r="DB2">
-        <v>0.4986953732685521</v>
+        <v>0.6164717535514197</v>
       </c>
       <c r="DC2">
-        <v>0.4986953732685521</v>
+        <v>0.6164717535514197</v>
       </c>
       <c r="DD2">
-        <v>0.5052492043520226</v>
+        <v>0.6164717535514197</v>
       </c>
       <c r="DE2">
-        <v>0.5195186603680115</v>
+        <v>0.6164717535514197</v>
       </c>
       <c r="DF2">
-        <v>0.5537486785326342</v>
+        <v>0.6692601647263067</v>
       </c>
       <c r="DG2">
-        <v>0.6055941799450154</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DH2">
-        <v>0.6121800707562837</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DI2">
-        <v>0.6121950660280744</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DJ2">
-        <v>0.6139894556737457</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DK2">
-        <v>0.618887063957217</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DL2">
-        <v>0.6190830284854438</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DM2">
-        <v>0.6224341192302716</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DN2">
-        <v>0.6224485096106762</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DO2">
-        <v>0.6232276583648694</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DP2">
-        <v>0.6235621528993565</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DQ2">
-        <v>0.6270248062933126</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DR2">
-        <v>0.6339033674201083</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DS2">
-        <v>0.6458120076244348</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DT2">
-        <v>0.6566249731705744</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DU2">
-        <v>0.6584806588142686</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DV2">
-        <v>0.6589619799572544</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DW2">
-        <v>0.6613053399175458</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DX2">
-        <v>0.6654675519326985</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DY2">
-        <v>0.6823698563672463</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="DZ2">
-        <v>0.6865272844655917</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EA2">
-        <v>0.6870157073523911</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EB2">
-        <v>0.6870157073523911</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EC2">
-        <v>0.6880225576776835</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="ED2">
-        <v>0.6880451905788305</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EE2">
-        <v>0.6890214009606965</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EF2">
-        <v>0.6890216786013916</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EG2">
-        <v>0.6890216786013916</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EH2">
-        <v>0.689286143462584</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EI2">
-        <v>0.6917100431630581</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EJ2">
-        <v>0.6923908413283691</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EK2">
-        <v>0.6925378535167348</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EL2">
-        <v>0.6946866684942051</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EM2">
-        <v>0.6990462481491964</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EN2">
-        <v>0.7058267493886606</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EO2">
-        <v>0.7076044105360527</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EP2">
-        <v>0.7082832702573929</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EQ2">
-        <v>0.7083493722287153</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="ER2">
-        <v>0.708678569800688</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="ES2">
-        <v>0.7089055867283071</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="ET2">
-        <v>0.7101924984270372</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EU2">
-        <v>0.7123181003102985</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EV2">
-        <v>0.7165733432260625</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EW2">
-        <v>0.71780405736164</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EX2">
-        <v>0.7184874443818678</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EY2">
-        <v>0.7186521527894576</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="EZ2">
-        <v>0.7207233666641749</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="FA2">
-        <v>0.7291021855565758</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="FB2">
-        <v>0.7367942412991952</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="FC2">
-        <v>0.7446826561824359</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="FD2">
-        <v>0.7480970261002705</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="FE2">
-        <v>0.7486641954839528</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="FF2">
-        <v>0.7710554805637743</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="FG2">
-        <v>0.8056398784285584</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8315390616204117</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8380057275701513</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8405645428108874</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8422081801362676</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.8430310016698728</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.8430434474090098</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.8430434474090098</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.8431903685542531</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.8438394074600886</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.8456004183634569</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.8456189937174066</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.8470546834676187</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.856239413117768</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.868282487528636</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.8769534339602443</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.8874391396090487</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.8984164521009678</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.90086721442596</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9011985348197372</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9012164495806816</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9012263854436597</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9013791254432578</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9025796356377002</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9069485263482753</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9134883562243644</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9137337453098523</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9189174339398635</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9343164951389065</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9531722479472536</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9745941789500538</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9871229861313974</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9932813084989482</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9977146589010127</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9993203997518351</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9993295252309542</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9993295252309542</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9994515704390985</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0002163515722753372</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0005860886002090747</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0007984910696758191</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0008287776218012259</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.000942794905777385</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001333652286382337</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001751555099177916</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001858768993620014</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001909066383609047</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001909066383609047</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001978707923331348</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.002563735032529062</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.002992647193962721</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.003297367800840946</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.003307631838630336</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.003307631838630336</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.003307631838630336</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.003373380655450703</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.003373380655450703</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.003373380655450703</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.003373380655450703</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.003373380655450703</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.003373380655450703</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.003373380655450703</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.003392451262764844</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.003449222559598955</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.003449222559598955</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.003449222559598955</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.003449222559598955</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.003449222559598955</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.003449222559598955</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.00346928727103798</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.003510700414304175</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.00379742519134614</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.004095995500199413</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.004197720830301141</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.004223287971703298</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.004223287971703298</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.004223287971703298</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.004361351602046617</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.004366131316284415</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.004366131316284415</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.004397538624067947</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.004495858816584773</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.004495858816584773</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.004583792936969115</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.005011070332043913</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.005376402139006624</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.005376402139006624</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.005513168449329336</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.005525612772486135</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.005525612772486135</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.005525612772486135</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.005525612772486135</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.005540045917176</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.005611092136627227</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.005611092136627227</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.005640086142505145</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.005765726048382148</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.005965713034063254</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.006150286233050105</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.006156047224657806</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.006186950604278655</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.006186950604278655</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.006186950604278655</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.006186950604278655</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.006254392093044764</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.006608184538089848</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.006608184538089848</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.006608184538089848</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.006633751679492005</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.006668205723505073</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.006743259121987062</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.006743259121987062</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.006743259121987062</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.006743259121987062</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.006743259121987062</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.006743259121987062</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.00690943285838236</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.006927358679571128</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.006970898826834159</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.006970898826834159</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.006970898826834159</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.006978685063582775</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.007097538041212332</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.007097538041212332</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.007097538041212332</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.007149814885860852</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.007186806577728912</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.007389480587403679</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.117201261064798</v>
+        <v>0.5258378150440219</v>
       </c>
       <c r="CO3">
-        <v>0.1270603019289888</v>
+        <v>0.5258378150440219</v>
       </c>
       <c r="CP3">
-        <v>0.1802893947786198</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="CQ3">
-        <v>0.1934643023655375</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="CR3">
-        <v>0.2154442813997509</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="CS3">
-        <v>0.2283754349720267</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="CT3">
-        <v>0.2288107454448579</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="CU3">
-        <v>0.234234135445228</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="CV3">
-        <v>0.234234135445228</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="CW3">
-        <v>0.2628823980036041</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="CX3">
-        <v>0.2749308271259553</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="CY3">
-        <v>0.302234069070807</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="CZ3">
-        <v>0.3204986905476858</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DA3">
-        <v>0.3398569436980423</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DB3">
-        <v>0.3576704797497487</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DC3">
-        <v>0.3632523127453799</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DD3">
-        <v>0.3640968451122893</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DE3">
-        <v>0.3640968451122893</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DF3">
-        <v>0.3657170051998963</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DG3">
-        <v>0.3745207922743747</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DH3">
-        <v>0.3749704952114393</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DI3">
-        <v>0.3823277718179853</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DJ3">
-        <v>0.382420883132455</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DK3">
-        <v>0.3835522541212594</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DL3">
-        <v>0.3835522541212594</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DM3">
-        <v>0.3845735898404284</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DN3">
-        <v>0.3845735898404284</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DO3">
-        <v>0.3890170029125378</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DP3">
-        <v>0.3948738175857631</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DQ3">
-        <v>0.3955445733391906</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DR3">
-        <v>0.3966496573596225</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DS3">
-        <v>0.3976868153864402</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DT3">
-        <v>0.3977232165166023</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DU3">
-        <v>0.3989191416453547</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DV3">
-        <v>0.3994625104575603</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DW3">
-        <v>0.4046219453330264</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DX3">
-        <v>0.4191074589052034</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DY3">
-        <v>0.4266556964738618</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="DZ3">
-        <v>0.4303539093090985</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="EA3">
-        <v>0.4418151482780749</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="EB3">
-        <v>0.4594985799412977</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="EC3">
-        <v>0.4778442521762823</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="ED3">
-        <v>0.4785129814148416</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="EE3">
-        <v>0.481811623016138</v>
+        <v>0.6784609426407742</v>
       </c>
       <c r="EF3">
-        <v>0.5151985680479483</v>
+        <v>0.7002069184693428</v>
       </c>
       <c r="EG3">
-        <v>0.5376638388601742</v>
+        <v>0.7002069184693428</v>
       </c>
       <c r="EH3">
-        <v>0.5448587529788917</v>
+        <v>0.7002069184693428</v>
       </c>
       <c r="EI3">
-        <v>0.5461060215632145</v>
+        <v>0.7002069184693428</v>
       </c>
       <c r="EJ3">
-        <v>0.5554983949892193</v>
+        <v>0.7002069184693428</v>
       </c>
       <c r="EK3">
-        <v>0.570295880054874</v>
+        <v>0.7002069184693428</v>
       </c>
       <c r="EL3">
-        <v>0.5705175390771874</v>
+        <v>0.7002069184693428</v>
       </c>
       <c r="EM3">
-        <v>0.6016211290051601</v>
+        <v>0.7068920745111936</v>
       </c>
       <c r="EN3">
-        <v>0.6374986566645603</v>
+        <v>0.7450657255861652</v>
       </c>
       <c r="EO3">
-        <v>0.6608702638356344</v>
+        <v>0.7450657255861652</v>
       </c>
       <c r="EP3">
-        <v>0.6624828243293783</v>
+        <v>0.7450657255861652</v>
       </c>
       <c r="EQ3">
-        <v>0.6653527280069412</v>
+        <v>0.7450657255861652</v>
       </c>
       <c r="ER3">
-        <v>0.6760296820236921</v>
+        <v>0.7450657255861652</v>
       </c>
       <c r="ES3">
-        <v>0.7082455269612319</v>
+        <v>0.7590872228864612</v>
       </c>
       <c r="ET3">
-        <v>0.7748601210448648</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.803527133410191</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8063887558561018</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8067630815780907</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.812769894706917</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8152797935592734</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8159337519046796</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8164200117458646</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8166352978111769</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8173520872816162</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8186232584570946</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8253187461735239</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8399842378176822</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8621042130684033</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.870354032680098</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.870354032680098</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8716307515099133</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.8716307515099133</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.886210183748392</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.8959572105758477</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.896213284487398</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.8963780514061046</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.8968084318741549</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.8984075212137727</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.8989868663284749</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.8990221555368682</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.8990221555368682</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.8990221555368682</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.8998428937563663</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9015028424800763</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9017575004198566</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.902478267499235</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.910653506943322</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9182084499769338</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9236565062115607</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9236765709229997</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9239739053706482</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9241966441329151</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9241966441329151</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9255861430515353</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9330437245006002</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.941734471719141</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9438185016291989</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.945571338883939</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9455894777151803</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9470070987345095</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9557723222338796</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9642178906331231</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9743416440421496</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9828701321577719</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9830982485915167</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001137800718734905</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001137800718734905</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001137800718734905</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001137800718734905</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0003169246975049542</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0005983253205988548</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0005983253205988548</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0005983253205988548</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0007592355776387679</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.00127752755635541</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001582362051314441</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001808490123770529</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001907829628701846</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.00191462823839589</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.00191462823839589</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.002181144167537275</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.002265086248322759</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.002265086248322759</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.00227545158667466</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.00227545158667466</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.00227545158667466</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.002366055502077345</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.002366055502077345</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.002366055502077345</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.002366055502077345</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.002366055502077345</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.002366055502077345</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.002366055502077345</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002381482491695981</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.002381482491695981</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002381482491695981</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002381482491695981</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.002381482491695981</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.002381482491695981</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.002381482491695981</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.002400128223148354</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.002795145038332444</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.002977064949620318</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.003120028571671375</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.003206367380431968</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.003206367380431968</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.003206367380431968</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.003206367380431968</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.003206367380431968</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.003206367380431968</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.003206367380431968</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.003221199664696668</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.003221199664696668</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.003221199664696668</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.003411366599601992</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.003891639123587978</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.003891639123587978</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.003959331097481313</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.004021725837503111</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.004021725837503111</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.004021725837503111</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.004021725837503111</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.004021725837503111</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.004021725837503111</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.004021725837503111</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.004021725837503111</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.004021725837503111</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.004056061448430029</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.004251379789089567</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.004251379789089567</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.004251379789089567</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.004276700460100306</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.004409817772022945</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.004522125394674552</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.004522125394674552</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.004522125394674552</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.004522125394674552</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.004522125394674552</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.004570835327343162</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.004595516773484339</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.004595516773484339</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.004595516773484339</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.004595516773484339</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.004595516773484339</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.004661782288891264</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.004766508131217199</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.004766508131217199</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.004766508131217199</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.004802129084447452</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.004839123381096922</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.004839123381096922</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.004839123381096922</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.004905746015975547</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.004925619183122713</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.004988448896345893</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1084364688677293</v>
+        <v>0.4380805041551234</v>
       </c>
       <c r="CO4">
-        <v>0.1084364688677293</v>
+        <v>0.4380805041551234</v>
       </c>
       <c r="CP4">
-        <v>0.1640612230875864</v>
+        <v>0.5902102217600282</v>
       </c>
       <c r="CQ4">
-        <v>0.1824952778469036</v>
+        <v>0.5902102217600282</v>
       </c>
       <c r="CR4">
-        <v>0.1898224359675933</v>
+        <v>0.5902102217600282</v>
       </c>
       <c r="CS4">
-        <v>0.1976489553270095</v>
+        <v>0.5902102217600282</v>
       </c>
       <c r="CT4">
-        <v>0.1993795172733453</v>
+        <v>0.5902102217600282</v>
       </c>
       <c r="CU4">
-        <v>0.2124429434368022</v>
+        <v>0.5902102217600282</v>
       </c>
       <c r="CV4">
-        <v>0.2253577602728161</v>
+        <v>0.5902102217600282</v>
       </c>
       <c r="CW4">
-        <v>0.2538627159392678</v>
+        <v>0.5902102217600282</v>
       </c>
       <c r="CX4">
-        <v>0.2713601377293892</v>
+        <v>0.5902102217600282</v>
       </c>
       <c r="CY4">
-        <v>0.2970393748441659</v>
+        <v>0.5902102217600282</v>
       </c>
       <c r="CZ4">
-        <v>0.3249175223334851</v>
+        <v>0.5902102217600282</v>
       </c>
       <c r="DA4">
-        <v>0.3292267796785567</v>
+        <v>0.5902102217600282</v>
       </c>
       <c r="DB4">
-        <v>0.3716603580880291</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DC4">
-        <v>0.3717466968967896</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DD4">
-        <v>0.373399815039633</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DE4">
-        <v>0.3738048368652288</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DF4">
-        <v>0.373920312538129</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DG4">
-        <v>0.3780589150317386</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DH4">
-        <v>0.3797926248847032</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DI4">
-        <v>0.3835376140967853</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DJ4">
-        <v>0.3836985243538252</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DK4">
-        <v>0.3836985243538252</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DL4">
-        <v>0.3844581812646436</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DM4">
-        <v>0.3845601500409774</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DN4">
-        <v>0.3850206000339787</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DO4">
-        <v>0.3852814052519799</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DP4">
-        <v>0.3868551155128359</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DQ4">
-        <v>0.3878673050933813</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DR4">
-        <v>0.3878673050933813</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DS4">
-        <v>0.3890981345699007</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DT4">
-        <v>0.3910052356424731</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DU4">
-        <v>0.3914731962530977</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DV4">
-        <v>0.3948299381053523</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DW4">
-        <v>0.3949332332569156</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DX4">
-        <v>0.4023596859196397</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DY4">
-        <v>0.4159377508314746</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="DZ4">
-        <v>0.4162926941775624</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="EA4">
-        <v>0.4283802723091235</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="EB4">
-        <v>0.4459392112425207</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="EC4">
-        <v>0.4722551701377509</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="ED4">
-        <v>0.4739326441236144</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="EE4">
-        <v>0.4757121406558739</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="EF4">
-        <v>0.5034036024389036</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="EG4">
-        <v>0.5269740867405465</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="EH4">
-        <v>0.53596466648066</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="EI4">
-        <v>0.53813637551177</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="EJ4">
-        <v>0.540467452417371</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="EK4">
-        <v>0.5588879850540041</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="EL4">
-        <v>0.5649699621501099</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="EM4">
-        <v>0.5894665400453502</v>
+        <v>0.6634656291473927</v>
       </c>
       <c r="EN4">
-        <v>0.6348364666928376</v>
+        <v>0.7542784131599397</v>
       </c>
       <c r="EO4">
-        <v>0.6634886793736955</v>
+        <v>0.7542784131599397</v>
       </c>
       <c r="EP4">
-        <v>0.6684816424088577</v>
+        <v>0.7542784131599397</v>
       </c>
       <c r="EQ4">
-        <v>0.6696376967336101</v>
+        <v>0.7542784131599397</v>
       </c>
       <c r="ER4">
-        <v>0.6788390992546575</v>
+        <v>0.7542784131599397</v>
       </c>
       <c r="ES4">
-        <v>0.6980243749905011</v>
+        <v>0.7542784131599397</v>
       </c>
       <c r="ET4">
-        <v>0.7556499478940624</v>
+        <v>0.9183716733493723</v>
       </c>
       <c r="EU4">
-        <v>0.7994838383917576</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8013100470610566</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8014441708888911</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8062690611641902</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8103026790218567</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8103026790218567</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8133906916861712</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8134466387911086</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8139712586576909</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8142553744573188</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8219092718637235</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8338502983602568</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8531299730029432</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8683390251826978</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.8683429068068178</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8684157457022679</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.8707133891368597</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.8869074149422971</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9065575830496988</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9084358270519005</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9084358270519005</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9084358270519005</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9109138647125689</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9112437396917726</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9120756303228418</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9120922550667987</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9120922550667987</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9124129964411212</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9150724909315155</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9150724909315155</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9152604888349091</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9206383703430751</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9281467428445216</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9382350057581393</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9386201291740831</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.938959249349186</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9390242772462429</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9394464018614772</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9395633643733385</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.942306308267253</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9463839896631615</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9508907763101699</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.953769335133387</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9546317353270967</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.955435087064279</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.960544646993017</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9693603299316238</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9796389001707969</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9897965311001722</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9921616932473283</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.055894778948946E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.055894778948946E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.000237822099889161</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0008214435674003211</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.001115797967900185</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.001115797967900185</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001115797967900185</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001115797967900185</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001136276102993202</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.00118909592002085</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001201483834595561</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001201483834595561</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001201483834595561</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001201483834595561</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001214889481915153</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001264263065173404</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001443233460823882</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0014476836263921</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001491155918292935</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001515422935242415</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001551441452245288</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001569590090570955</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001610646061231103</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.001764252611323932</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001892704622349349</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.001892704622349349</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.001892704622349349</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.001904922414205881</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.001904922414205881</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001904922414205881</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.001946716629643279</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.001946716629643279</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.002008908285218453</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.002147723365145273</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.002147723365145273</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.002198282312934762</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.00219984404492495</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.002307558431571097</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.002307558431571097</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.002307558431571097</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.002344939510350654</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.002387607104870616</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.002424154443789948</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.002470092196405258</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.002562337826215759</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.002602058477847731</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.002602058477847731</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.002602058477847731</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.002699742665543227</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.002907493225262225</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.04651595769152057</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BA5">
-        <v>0.04767353278744708</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BB5">
-        <v>0.07700736684963275</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BC5">
-        <v>0.09609527201686295</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BD5">
-        <v>0.1098458426223888</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BE5">
-        <v>0.1114223934539001</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BF5">
-        <v>0.1142583505862929</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BG5">
-        <v>0.1153459151491578</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BH5">
-        <v>0.1153801898272914</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BI5">
-        <v>0.1217340642895286</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BJ5">
-        <v>0.1385057018146325</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BK5">
-        <v>0.1670055642786742</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BL5">
-        <v>0.1804178150795926</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BM5">
-        <v>0.1806742410253151</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BN5">
-        <v>0.2085233954535031</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BO5">
-        <v>0.2108010208017893</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BP5">
-        <v>0.2140691987457827</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BQ5">
-        <v>0.2147010397577708</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BR5">
-        <v>0.214949546095252</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BS5">
-        <v>0.2174458750568344</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BT5">
-        <v>0.2182913300252318</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BU5">
-        <v>0.2207583647056535</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BV5">
-        <v>0.2207709758340031</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BW5">
-        <v>0.2209933136335618</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BX5">
-        <v>0.2219340523620236</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BY5">
-        <v>0.2219535021816735</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="BZ5">
-        <v>0.2223079683548213</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CA5">
-        <v>0.2239028642019784</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CB5">
-        <v>0.2274580766438603</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CC5">
-        <v>0.230845223919383</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CD5">
-        <v>0.230858936907361</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CE5">
-        <v>0.2313283947159445</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CF5">
-        <v>0.2327589349088635</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CG5">
-        <v>0.2335851614987413</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CH5">
-        <v>0.2344122986882221</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CI5">
-        <v>0.2346298093267539</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CJ5">
-        <v>0.2399301771299901</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CK5">
-        <v>0.2517074291387909</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CL5">
-        <v>0.2521403599953727</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CM5">
-        <v>0.2625193565689263</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CN5">
-        <v>0.276052897090139</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CO5">
-        <v>0.2984604649892852</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CP5">
-        <v>0.301454421034278</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CQ5">
-        <v>0.3014877832649243</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CR5">
-        <v>0.3152148741043269</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CS5">
-        <v>0.3363751863937809</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CT5">
-        <v>0.3438317779146553</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CU5">
-        <v>0.3466033077927029</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CV5">
-        <v>0.3480506887111887</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CW5">
-        <v>0.3616404342047075</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CX5">
-        <v>0.3685714093163525</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CY5">
-        <v>0.3756269718490909</v>
+        <v>0.2504000139192002</v>
       </c>
       <c r="CZ5">
-        <v>0.413348616037887</v>
+        <v>0.391850657864131</v>
       </c>
       <c r="DA5">
-        <v>0.4400925792289637</v>
+        <v>0.391850657864131</v>
       </c>
       <c r="DB5">
-        <v>0.4455756277385142</v>
+        <v>0.391850657864131</v>
       </c>
       <c r="DC5">
-        <v>0.445852775207345</v>
+        <v>0.391850657864131</v>
       </c>
       <c r="DD5">
-        <v>0.4525861596351492</v>
+        <v>0.391850657864131</v>
       </c>
       <c r="DE5">
-        <v>0.4725028920193792</v>
+        <v>0.391850657864131</v>
       </c>
       <c r="DF5">
-        <v>0.5195165094422702</v>
+        <v>0.7052709869629024</v>
       </c>
       <c r="DG5">
-        <v>0.5551789214615662</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DH5">
-        <v>0.560716296562133</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DI5">
-        <v>0.5607823358335902</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DJ5">
-        <v>0.5646357024816128</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DK5">
-        <v>0.566988683583634</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DL5">
-        <v>0.566988683583634</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DM5">
-        <v>0.5687229995834382</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DN5">
-        <v>0.5696282459242397</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DO5">
-        <v>0.5711174529286472</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DP5">
-        <v>0.5711174529286472</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DQ5">
-        <v>0.5734411722530078</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DR5">
-        <v>0.582239508563474</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DS5">
-        <v>0.601396475643093</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DT5">
-        <v>0.6081769033698804</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DU5">
-        <v>0.6093295241900111</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DV5">
-        <v>0.6093714480713408</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DW5">
-        <v>0.6099425447564519</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DX5">
-        <v>0.6160624146829889</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DY5">
-        <v>0.6347062488041674</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="DZ5">
-        <v>0.6394309708909078</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EA5">
-        <v>0.6394309708909078</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EB5">
-        <v>0.6395515870102689</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EC5">
-        <v>0.6398059029270708</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="ED5">
-        <v>0.6398059029270708</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EE5">
-        <v>0.6401101240058259</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EF5">
-        <v>0.6401268545144311</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EG5">
-        <v>0.6404877170955255</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EH5">
-        <v>0.6404877170955255</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EI5">
-        <v>0.6427205075770928</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EJ5">
-        <v>0.6427205075770928</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EK5">
-        <v>0.6433570880508489</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EL5">
-        <v>0.6462613365419727</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EM5">
-        <v>0.6543434602317193</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EN5">
-        <v>0.6631259530922224</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EO5">
-        <v>0.6635111070638788</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EP5">
-        <v>0.6639903490078781</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EQ5">
-        <v>0.6645367348066358</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="ER5">
-        <v>0.6645596168935819</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="ES5">
-        <v>0.6648392519034371</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="ET5">
-        <v>0.6666780288359829</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EU5">
-        <v>0.6709129058193076</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EV5">
-        <v>0.6743353221011823</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EW5">
-        <v>0.6764674537569768</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EX5">
-        <v>0.6773150349458531</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EY5">
-        <v>0.6773731977765263</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="EZ5">
-        <v>0.6818991031754875</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="FA5">
-        <v>0.6923248726871198</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="FB5">
-        <v>0.7017834072529452</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="FC5">
-        <v>0.7123749516380053</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="FD5">
-        <v>0.7144648067735695</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="FE5">
-        <v>0.7161081861056636</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="FF5">
-        <v>0.7405373623696235</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="FG5">
-        <v>0.7809573217464765</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8045380342652546</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8124689424426393</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8188055040760013</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.8205709427791724</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.821064634635723</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.821064634635723</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.8219444234827649</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.8220478634384307</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.8235144114904147</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.8241025930786219</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.8241929051514477</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.8270327281939764</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.8379370435289658</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.8514902426486384</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.8605102749008088</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.8722438297657172</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.8831733634028133</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.8866014396074605</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.8866014396074605</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.8866014396074605</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.886634681941322</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.8866501609949455</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.8875112691574784</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.8933510174987686</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9001798479533396</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9002783087238915</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9074970584902909</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.92654731176339</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9467637775824653</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9689217657501445</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9822893377814005</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9897521849219123</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9970635450856438</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9981874748454371</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9982092960472291</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9982992833559153</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.998725587561392</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.000199493239794311</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.000199493239794311</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.000199493239794311</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.000199493239794311</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0002531264747239112</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002960017274838686</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0003405060062099167</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0003762884900524202</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0003762884900524202</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.000442589837129161</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.000442589837129161</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.000442589837129161</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0004790086090957058</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0004961213907114442</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0004961213907114442</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0004996935538440774</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0005070733620603632</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0005070733620603632</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0005070733620603632</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0005317608511021943</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0005424739575168404</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0005424739575168404</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0005424739575168404</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0005784313259241644</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0005818077320477927</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0005835276495731622</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0005835276495731622</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0005835276495731622</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0005835276495731622</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0005835276495731622</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0005835276495731622</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0005855544091036726</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0005855544091036726</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0006263406546376911</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0006263406546376911</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0006263406546376911</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0006263406546376911</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0006263406546376911</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0006263406546376911</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0006263406546376911</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0006263406546376911</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0006280605721630607</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0006280605721630607</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0006280605721630607</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0006740474212022056</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0007373701509644167</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0009728943721986289</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.00117533726602893</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001353041241034572</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.001378304525276912</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.103229278151127</v>
+        <v>0.6141667323861756</v>
       </c>
       <c r="BA6">
-        <v>0.1172772909196641</v>
+        <v>0.6141667323861756</v>
       </c>
       <c r="BB6">
-        <v>0.1596529781337254</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BC6">
-        <v>0.1698591322866653</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BD6">
-        <v>0.1738181303465868</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BE6">
-        <v>0.1766680724909912</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BF6">
-        <v>0.1770163468834318</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BG6">
-        <v>0.1771288245908947</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BH6">
-        <v>0.1778949484913938</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BI6">
-        <v>0.1941521578051089</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BJ6">
-        <v>0.203143493519663</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BK6">
-        <v>0.2216982778071635</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BL6">
-        <v>0.2285595544770193</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BM6">
-        <v>0.2363984128623462</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BN6">
-        <v>0.2615088783022635</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BO6">
-        <v>0.2617359656063394</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BP6">
-        <v>0.2618111321122596</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BQ6">
-        <v>0.2620700025239158</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BR6">
-        <v>0.2622244261802458</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BS6">
-        <v>0.2657339788437235</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BT6">
-        <v>0.2677739075335219</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BU6">
-        <v>0.2686104862186986</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BV6">
-        <v>0.2693766101191977</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BW6">
-        <v>0.2694000764346542</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BX6">
-        <v>0.2698789707234245</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BY6">
-        <v>0.2739088285215653</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="BZ6">
-        <v>0.2756684805643586</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CA6">
-        <v>0.2759972552022656</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CB6">
-        <v>0.2770970700219119</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CC6">
-        <v>0.2773716413128597</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CD6">
-        <v>0.2773716413128597</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CE6">
-        <v>0.2785147072921599</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CF6">
-        <v>0.2816833319835381</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CG6">
-        <v>0.2816833319835381</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CH6">
-        <v>0.2841349191111063</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CI6">
-        <v>0.2850521661669965</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CJ6">
-        <v>0.2972295438812954</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CK6">
-        <v>0.3097208168395736</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CL6">
-        <v>0.3119113131944931</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CM6">
-        <v>0.3298955384726082</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CN6">
-        <v>0.3557071663653708</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CO6">
-        <v>0.3676750442034206</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CP6">
-        <v>0.3677470901784903</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CQ6">
-        <v>0.3720952939328424</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CR6">
-        <v>0.3901325541028219</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CS6">
-        <v>0.3985109470902422</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CT6">
-        <v>0.4024701178148969</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CU6">
-        <v>0.4026891704634336</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CV6">
-        <v>0.4073660277262096</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CW6">
-        <v>0.424226349227538</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CX6">
-        <v>0.4248782455734908</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="CY6">
-        <v>0.4592140340261548</v>
+        <v>0.7553769080799049</v>
       </c>
       <c r="CZ6">
-        <v>0.4921718534454376</v>
+        <v>0.779772207528859</v>
       </c>
       <c r="DA6">
-        <v>0.5059332327124215</v>
+        <v>0.779772207528859</v>
       </c>
       <c r="DB6">
-        <v>0.5062987567134856</v>
+        <v>0.779772207528859</v>
       </c>
       <c r="DC6">
-        <v>0.5087659823039026</v>
+        <v>0.779772207528859</v>
       </c>
       <c r="DD6">
-        <v>0.5182993240666001</v>
+        <v>0.779772207528859</v>
       </c>
       <c r="DE6">
-        <v>0.5360083163360154</v>
+        <v>0.779772207528859</v>
       </c>
       <c r="DF6">
-        <v>0.5785011724920462</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DG6">
-        <v>0.5970956937749454</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DH6">
-        <v>0.597814479012212</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DI6">
-        <v>0.5979293007011834</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DJ6">
-        <v>0.5998664105055014</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DK6">
-        <v>0.6016245217239742</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DL6">
-        <v>0.6031319935590661</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DM6">
-        <v>0.6051435062944263</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DN6">
-        <v>0.605802052331904</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DO6">
-        <v>0.6065176317405356</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DP6">
-        <v>0.6072558728077937</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DQ6">
-        <v>0.6153438304552951</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DR6">
-        <v>0.6254888709353995</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DS6">
-        <v>0.6355884822092682</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DT6">
-        <v>0.6406747478442597</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DU6">
-        <v>0.6406747478442597</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DV6">
-        <v>0.6430963112967852</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DW6">
-        <v>0.6430963112967852</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DX6">
-        <v>0.6589133279946792</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DY6">
-        <v>0.6713801747692384</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="DZ6">
-        <v>0.6714811630600035</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EA6">
-        <v>0.6720199161337028</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EB6">
-        <v>0.6720292465009572</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EC6">
-        <v>0.672512615247127</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="ED6">
-        <v>0.6741049047401511</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EE6">
-        <v>0.6741850173825402</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EF6">
-        <v>0.6744363358365291</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EG6">
-        <v>0.6744363358365291</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EH6">
-        <v>0.6759484170867491</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EI6">
-        <v>0.6769137345166233</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EJ6">
-        <v>0.6771693089604174</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EK6">
-        <v>0.677978477736939</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EL6">
-        <v>0.6806679049597618</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EM6">
-        <v>0.6827717112639097</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EN6">
-        <v>0.6853890870705641</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EO6">
-        <v>0.6855128350842832</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EP6">
-        <v>0.6856877547174215</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EQ6">
-        <v>0.6858297810559543</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="ER6">
-        <v>0.6858530913383393</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="ES6">
-        <v>0.6865874686931912</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="ET6">
-        <v>0.6890205493555103</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EU6">
-        <v>0.694707899698395</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EV6">
-        <v>0.6972929785616873</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EW6">
-        <v>0.6987351420456878</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EX6">
-        <v>0.6987351420456878</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EY6">
-        <v>0.6993804211237199</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="EZ6">
-        <v>0.7066525849151815</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="FA6">
-        <v>0.7161132181513647</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="FB6">
-        <v>0.7241093490978388</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="FC6">
-        <v>0.7302361005509614</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="FD6">
-        <v>0.7306816620385489</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="FE6">
-        <v>0.7410553753118705</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="FF6">
-        <v>0.7779712007643824</v>
+        <v>0.9440722682997447</v>
       </c>
       <c r="FG6">
-        <v>0.8146124280197791</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8317365669702232</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8352241670053742</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8374481455531331</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8386236039988677</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8388525639468952</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.8388525639468952</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.8393200755516876</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.8393594345961393</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.8411125809250857</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.8412426528675241</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.8412533659739387</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.8463380343345923</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.8611163727198079</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.871449853804517</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.8783109014600671</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.8886883342069601</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.8954909299787551</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.8963159538475787</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.8963159538475787</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.8963159538475787</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.8963159538475787</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.8964428304478268</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.8992331551461935</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9078520563459755</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9116614891805881</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9131499362548967</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.924080786089498</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9404658476616573</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.962195329705177</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9820192349371992</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9908511596193036</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9956677162112736</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9981262754182245</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9981417436732217</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9981467026154074</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9981950501800706</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9984569033825257</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>0.007556303421096283</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5052492043520226</v>
+        <v>0.5374362979057754</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="E3">
-        <v>0.007186806577728912</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5151985680479483</v>
+        <v>0.5258378150440219</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.004925619183122713</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5034036024389036</v>
+        <v>0.5902102217600282</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>109</v>
       </c>
       <c r="E5">
-        <v>0.04767353278744708</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5195165094422702</v>
+        <v>0.7052709869629024</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -10734,16 +10734,16 @@
         <v>49</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>0.001353041241034572</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5059332327124215</v>
+        <v>0.6141667323861756</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="E2">
-        <v>0.007556303421096283</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7058267493886606</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="G2">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E3">
-        <v>0.007186806577728912</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7082455269612319</v>
+        <v>0.7002069184693428</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E4">
-        <v>0.004925619183122713</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7556499478940624</v>
+        <v>0.7542784131599397</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="E5">
-        <v>0.04767353278744708</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7017834072529452</v>
+        <v>0.7052709869629024</v>
       </c>
       <c r="G5">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -10993,16 +10993,16 @@
         <v>49</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>0.001353041241034572</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7066525849151815</v>
+        <v>0.7191852729758343</v>
       </c>
       <c r="G6">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="E2">
-        <v>0.007556303421096283</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8056398784285584</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3">
-        <v>0.007186806577728912</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.803527133410191</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4">
-        <v>0.004925619183122713</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8013100470610566</v>
+        <v>0.9183716733493723</v>
       </c>
       <c r="G4">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="E5">
-        <v>0.04767353278744708</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8045380342652546</v>
+        <v>0.808610726051993</v>
       </c>
       <c r="G5">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -11252,16 +11252,16 @@
         <v>49</v>
       </c>
       <c r="D6">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="E6">
-        <v>0.001353041241034572</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8146124280197791</v>
+        <v>0.8857937925515523</v>
       </c>
       <c r="G6">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="E2">
-        <v>0.007556303421096283</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.90086721442596</v>
+        <v>0.9427711987543211</v>
       </c>
       <c r="G2">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="E3">
-        <v>0.007186806577728912</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9015028424800763</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E4">
-        <v>0.004925619183122713</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9065575830496988</v>
+        <v>0.9183716733493723</v>
       </c>
       <c r="G4">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E5">
-        <v>0.04767353278744708</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9001798479533396</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -11511,16 +11511,16 @@
         <v>49</v>
       </c>
       <c r="D6">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="E6">
-        <v>0.001353041241034572</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9078520563459755</v>
+        <v>0.9440722682997447</v>
       </c>
       <c r="G6">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="H6">
         <v>52</v>

--- a/on_trucks/Processed_Stand_Alone/52_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/52_455-55R22.xlsx
@@ -908,49 +908,49 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.01738433785291925</v>
       </c>
       <c r="E2">
-        <v>0.2961819157383344</v>
+        <v>0.2233194221366907</v>
       </c>
       <c r="F2">
-        <v>0.2500741221649463</v>
+        <v>0.19246916207692</v>
       </c>
       <c r="G2">
-        <v>0.07282643736419982</v>
+        <v>0.07387452227070485</v>
       </c>
       <c r="H2">
-        <v>0.02429889202711179</v>
+        <v>0.04140523068925852</v>
       </c>
       <c r="I2">
-        <v>0.01187042769578597</v>
+        <v>0.03308947044463291</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.002267360502947696</v>
       </c>
       <c r="K2">
-        <v>0.03649101588692126</v>
+        <v>0.0495628579059542</v>
       </c>
       <c r="L2">
-        <v>0.02158684034954857</v>
+        <v>0.03959062424067208</v>
       </c>
       <c r="M2">
-        <v>0.02232716817145102</v>
+        <v>0.04008597012615284</v>
       </c>
       <c r="N2">
-        <v>0.02820459138027788</v>
+        <v>0.04401849476941168</v>
       </c>
       <c r="O2">
-        <v>0.01241551731904142</v>
+        <v>0.03345418441878019</v>
       </c>
       <c r="P2">
-        <v>0.1246932580739925</v>
+        <v>0.1085780893547331</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.09902981382838894</v>
+        <v>0.09140693741604547</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.009493335794176518</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1255,52 +1255,52 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.4767316522027264</v>
+        <v>0.3395969574460774</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>0.01914455434852058</v>
       </c>
       <c r="AT3">
-        <v>0.2017729726904621</v>
+        <v>0.1581906418793161</v>
       </c>
       <c r="AU3">
-        <v>0.007133121695271405</v>
+        <v>0.02977535310162164</v>
       </c>
       <c r="AV3">
-        <v>0.0499206052818876</v>
+        <v>0.05800475747463436</v>
       </c>
       <c r="AW3">
-        <v>0.005948620131247876</v>
+        <v>0.02899386817125417</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>0.00492368372392702</v>
       </c>
       <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.08232455266026473</v>
+        <v>0.07938353596658015</v>
       </c>
       <c r="BB3">
-        <v>0.001659096969655159</v>
+        <v>0.02616381896654044</v>
       </c>
       <c r="BC3">
-        <v>0.07578854125259832</v>
+        <v>0.07507134713126026</v>
       </c>
       <c r="BD3">
-        <v>0.03186614638800937</v>
+        <v>0.04609317543874556</v>
       </c>
       <c r="BE3">
-        <v>0.03718055497161045</v>
+        <v>0.04959940147342668</v>
       </c>
       <c r="BF3">
-        <v>0.02967413575626646</v>
+        <v>0.04464697787519524</v>
       </c>
       <c r="BG3">
-        <v>0</v>
+        <v>0.005431658180473809</v>
       </c>
       <c r="BH3">
         <v>0</v>
@@ -1312,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>0.01576136931427638</v>
       </c>
       <c r="BL3">
         <v>0</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>0.01112380002554532</v>
       </c>
       <c r="BN3">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>0.001781839259667544</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>0.006313260222937339</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -1482,49 +1482,49 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.3991948871328689</v>
+        <v>0.3155427167824175</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.1915252284654296</v>
+        <v>0.1640954774579572</v>
       </c>
       <c r="AU4">
-        <v>0.03002685019277494</v>
+        <v>0.04631956497408975</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>0.01114612361770224</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>0.01272750623225834</v>
       </c>
       <c r="AX4">
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.006705218141825424</v>
+        <v>0.02931179978912709</v>
       </c>
       <c r="AZ4">
-        <v>0.006059891064723316</v>
+        <v>0.02884118215092436</v>
       </c>
       <c r="BA4">
-        <v>0.07375913239877423</v>
+        <v>0.07821220375413923</v>
       </c>
       <c r="BB4">
-        <v>0.0259595777898373</v>
+        <v>0.04335342547659151</v>
       </c>
       <c r="BC4">
-        <v>0.061488619335833</v>
+        <v>0.06926368744028955</v>
       </c>
       <c r="BD4">
-        <v>0.07103725554345088</v>
+        <v>0.07622722078568357</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>0.001589002542006188</v>
       </c>
       <c r="BF4">
-        <v>0.1342433399344823</v>
+        <v>0.122321518098801</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>0.001048570898012581</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -1589,25 +1589,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2673237675721693</v>
+        <v>0.2263813035354367</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1635068757700472</v>
+        <v>0.1482045003441392</v>
       </c>
       <c r="G5">
-        <v>0.08899002584892109</v>
+        <v>0.09209138609465017</v>
       </c>
       <c r="H5">
-        <v>0.05017252451830218</v>
+        <v>0.06286080416116474</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.003085554978197019</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1616,28 +1616,28 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02235187031901588</v>
       </c>
       <c r="N5">
-        <v>0.07214421615855071</v>
+        <v>0.0794060559340027</v>
       </c>
       <c r="O5">
-        <v>0.1574415461103836</v>
+        <v>0.1436371503217784</v>
       </c>
       <c r="P5">
-        <v>0.04771198371582865</v>
+        <v>0.06100795333197822</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.1527090603057972</v>
+        <v>0.1400734661762741</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.778095771620976E-05</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.005452666445688386</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1646,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.001225538717454777</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.001065104913699094</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.007024646862368565</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.006104216906435906</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5473467145902667</v>
+        <v>0.4348501642116165</v>
       </c>
       <c r="E6">
-        <v>0.03356151949574101</v>
+        <v>0.0495597426584307</v>
       </c>
       <c r="F6">
-        <v>0.1993228970103313</v>
+        <v>0.1738651364876227</v>
       </c>
       <c r="G6">
-        <v>0.01108061385124958</v>
+        <v>0.03270118446064158</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005287878792064837</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0004212021214449325</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.04648878831314403</v>
+        <v>0.05925397460544547</v>
       </c>
       <c r="N6">
-        <v>0.003972018397563663</v>
+        <v>0.02737040855438408</v>
       </c>
       <c r="O6">
-        <v>0.05993320971561833</v>
+        <v>0.0693360221987884</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.01802344190027919</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.0223131932660515</v>
       </c>
       <c r="R6">
-        <v>0.09829423862608534</v>
+        <v>0.09810317458317845</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.003315655935680905</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.005598820224370795</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2283,220 +2283,220 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.01738433785291925</v>
       </c>
       <c r="E2">
-        <v>0.2961819157383344</v>
+        <v>0.2407037599896099</v>
       </c>
       <c r="F2">
-        <v>0.5462560379032807</v>
+        <v>0.43317292206653</v>
       </c>
       <c r="G2">
-        <v>0.6190824752674805</v>
+        <v>0.5070474443372348</v>
       </c>
       <c r="H2">
-        <v>0.6433813672945923</v>
+        <v>0.5484526750264933</v>
       </c>
       <c r="I2">
-        <v>0.6552517949903782</v>
+        <v>0.5815421454711263</v>
       </c>
       <c r="J2">
-        <v>0.6552517949903782</v>
+        <v>0.583809505974074</v>
       </c>
       <c r="K2">
-        <v>0.6917428108772995</v>
+        <v>0.6333723638800282</v>
       </c>
       <c r="L2">
-        <v>0.7133296512268481</v>
+        <v>0.6729629881207002</v>
       </c>
       <c r="M2">
-        <v>0.7356568193982991</v>
+        <v>0.7130489582468531</v>
       </c>
       <c r="N2">
-        <v>0.7638614107785769</v>
+        <v>0.7570674530162648</v>
       </c>
       <c r="O2">
-        <v>0.7762769280976184</v>
+        <v>0.790521637435045</v>
       </c>
       <c r="P2">
-        <v>0.9009701861716108</v>
+        <v>0.8990997267897781</v>
       </c>
       <c r="Q2">
-        <v>0.9009701861716108</v>
+        <v>0.8990997267897781</v>
       </c>
       <c r="R2">
-        <v>0.9999999999999998</v>
+        <v>0.9905066642058236</v>
       </c>
       <c r="S2">
-        <v>0.9999999999999998</v>
+        <v>0.9905066642058236</v>
       </c>
       <c r="T2">
-        <v>0.9999999999999998</v>
+        <v>0.9905066642058236</v>
       </c>
       <c r="U2">
-        <v>0.9999999999999998</v>
+        <v>0.9905066642058236</v>
       </c>
       <c r="V2">
-        <v>0.9999999999999998</v>
+        <v>0.9905066642058236</v>
       </c>
       <c r="W2">
-        <v>0.9999999999999998</v>
+        <v>0.9905066642058236</v>
       </c>
       <c r="X2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:75">
@@ -2630,100 +2630,100 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.4767316522027264</v>
+        <v>0.3395969574460774</v>
       </c>
       <c r="AS3">
-        <v>0.4767316522027264</v>
+        <v>0.358741511794598</v>
       </c>
       <c r="AT3">
-        <v>0.6785046248931885</v>
+        <v>0.5169321536739141</v>
       </c>
       <c r="AU3">
-        <v>0.6856377465884599</v>
+        <v>0.5467075067755357</v>
       </c>
       <c r="AV3">
-        <v>0.7355583518703475</v>
+        <v>0.6047122642501701</v>
       </c>
       <c r="AW3">
-        <v>0.7415069720015953</v>
+        <v>0.6337061324214243</v>
       </c>
       <c r="AX3">
-        <v>0.7415069720015953</v>
+        <v>0.6337061324214243</v>
       </c>
       <c r="AY3">
-        <v>0.7415069720015953</v>
+        <v>0.6386298161453513</v>
       </c>
       <c r="AZ3">
-        <v>0.7415069720015953</v>
+        <v>0.6386298161453513</v>
       </c>
       <c r="BA3">
-        <v>0.82383152466186</v>
+        <v>0.7180133521119314</v>
       </c>
       <c r="BB3">
-        <v>0.8254906216315152</v>
+        <v>0.7441771710784718</v>
       </c>
       <c r="BC3">
-        <v>0.9012791628841135</v>
+        <v>0.8192485182097321</v>
       </c>
       <c r="BD3">
-        <v>0.9331453092721228</v>
+        <v>0.8653416936484777</v>
       </c>
       <c r="BE3">
-        <v>0.9703258642437332</v>
+        <v>0.9149410951219044</v>
       </c>
       <c r="BF3">
-        <v>0.9999999999999997</v>
+        <v>0.9595880729970996</v>
       </c>
       <c r="BG3">
-        <v>0.9999999999999997</v>
+        <v>0.9650197311775734</v>
       </c>
       <c r="BH3">
-        <v>0.9999999999999997</v>
+        <v>0.9650197311775734</v>
       </c>
       <c r="BI3">
-        <v>0.9999999999999997</v>
+        <v>0.9650197311775734</v>
       </c>
       <c r="BJ3">
-        <v>0.9999999999999997</v>
+        <v>0.9650197311775734</v>
       </c>
       <c r="BK3">
-        <v>0.9999999999999997</v>
+        <v>0.9807811004918499</v>
       </c>
       <c r="BL3">
-        <v>0.9999999999999997</v>
+        <v>0.9807811004918499</v>
       </c>
       <c r="BM3">
-        <v>0.9999999999999997</v>
+        <v>0.9919049005173952</v>
       </c>
       <c r="BN3">
-        <v>0.9999999999999997</v>
+        <v>0.9919049005173952</v>
       </c>
       <c r="BO3">
-        <v>0.9999999999999997</v>
+        <v>0.9919049005173952</v>
       </c>
       <c r="BP3">
-        <v>0.9999999999999997</v>
+        <v>0.9919049005173952</v>
       </c>
       <c r="BQ3">
-        <v>0.9999999999999997</v>
+        <v>0.9919049005173952</v>
       </c>
       <c r="BR3">
-        <v>0.9999999999999997</v>
+        <v>0.9919049005173952</v>
       </c>
       <c r="BS3">
-        <v>0.9999999999999997</v>
+        <v>0.9936867397770628</v>
       </c>
       <c r="BT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:75">
@@ -2857,100 +2857,100 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.3991948871328689</v>
+        <v>0.3155427167824175</v>
       </c>
       <c r="AS4">
-        <v>0.3991948871328689</v>
+        <v>0.3155427167824175</v>
       </c>
       <c r="AT4">
-        <v>0.5907201155982985</v>
+        <v>0.4796381942403747</v>
       </c>
       <c r="AU4">
-        <v>0.6207469657910735</v>
+        <v>0.5259577592144644</v>
       </c>
       <c r="AV4">
-        <v>0.6207469657910735</v>
+        <v>0.5371038828321667</v>
       </c>
       <c r="AW4">
-        <v>0.6207469657910735</v>
+        <v>0.5498313890644251</v>
       </c>
       <c r="AX4">
-        <v>0.6207469657910735</v>
+        <v>0.5498313890644251</v>
       </c>
       <c r="AY4">
-        <v>0.6274521839328989</v>
+        <v>0.5791431888535522</v>
       </c>
       <c r="AZ4">
-        <v>0.6335120749976222</v>
+        <v>0.6079843710044766</v>
       </c>
       <c r="BA4">
-        <v>0.7072712073963964</v>
+        <v>0.6861965747586158</v>
       </c>
       <c r="BB4">
-        <v>0.7332307851862336</v>
+        <v>0.7295500002352073</v>
       </c>
       <c r="BC4">
-        <v>0.7947194045220667</v>
+        <v>0.7988136876754969</v>
       </c>
       <c r="BD4">
-        <v>0.8657566600655175</v>
+        <v>0.8750409084611804</v>
       </c>
       <c r="BE4">
-        <v>0.8657566600655175</v>
+        <v>0.8766299110031867</v>
       </c>
       <c r="BF4">
-        <v>0.9999999999999998</v>
+        <v>0.9989514291019876</v>
       </c>
       <c r="BG4">
-        <v>0.9999999999999998</v>
+        <v>0.9989514291019876</v>
       </c>
       <c r="BH4">
-        <v>0.9999999999999998</v>
+        <v>0.9989514291019876</v>
       </c>
       <c r="BI4">
-        <v>0.9999999999999998</v>
+        <v>0.9989514291019876</v>
       </c>
       <c r="BJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9989514291019876</v>
       </c>
       <c r="BK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:75">
@@ -2964,91 +2964,91 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2673237675721693</v>
+        <v>0.2263813035354367</v>
       </c>
       <c r="E5">
-        <v>0.2673237675721693</v>
+        <v>0.2263813035354367</v>
       </c>
       <c r="F5">
-        <v>0.4308306433422165</v>
+        <v>0.3745858038795759</v>
       </c>
       <c r="G5">
-        <v>0.5198206691911376</v>
+        <v>0.4666771899742261</v>
       </c>
       <c r="H5">
-        <v>0.5699931937094398</v>
+        <v>0.5295379941353908</v>
       </c>
       <c r="I5">
-        <v>0.5699931937094398</v>
+        <v>0.5295379941353908</v>
       </c>
       <c r="J5">
-        <v>0.5699931937094398</v>
+        <v>0.5326235491135879</v>
       </c>
       <c r="K5">
-        <v>0.5699931937094398</v>
+        <v>0.5326235491135879</v>
       </c>
       <c r="L5">
-        <v>0.5699931937094398</v>
+        <v>0.5326235491135879</v>
       </c>
       <c r="M5">
-        <v>0.5699931937094398</v>
+        <v>0.5549754194326038</v>
       </c>
       <c r="N5">
-        <v>0.6421374098679905</v>
+        <v>0.6343814753666065</v>
       </c>
       <c r="O5">
-        <v>0.7995789559783741</v>
+        <v>0.7780186256883849</v>
       </c>
       <c r="P5">
-        <v>0.8472909396942028</v>
+        <v>0.839026579020363</v>
       </c>
       <c r="Q5">
-        <v>0.8472909396942028</v>
+        <v>0.839026579020363</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.9791000451966371</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.9791278261543532</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.9845804926000417</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9845804926000417</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9845804926000417</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9858060313174964</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9858060313174964</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9868711362311955</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9868711362311955</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9868711362311955</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9868711362311955</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9868711362311955</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9868711362311955</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9868711362311955</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9938957830935641</v>
       </c>
       <c r="AG5">
         <v>1</v>
@@ -3191,79 +3191,79 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5473467145902667</v>
+        <v>0.4348501642116165</v>
       </c>
       <c r="E6">
-        <v>0.5809082340860078</v>
+        <v>0.4844099068700472</v>
       </c>
       <c r="F6">
-        <v>0.7802311310963391</v>
+        <v>0.6582750433576698</v>
       </c>
       <c r="G6">
-        <v>0.7913117449475887</v>
+        <v>0.6909762278183115</v>
       </c>
       <c r="H6">
-        <v>0.7913117449475887</v>
+        <v>0.6962641066103763</v>
       </c>
       <c r="I6">
-        <v>0.7913117449475887</v>
+        <v>0.6966853087318212</v>
       </c>
       <c r="J6">
-        <v>0.7913117449475887</v>
+        <v>0.6966853087318212</v>
       </c>
       <c r="K6">
-        <v>0.7913117449475887</v>
+        <v>0.6966853087318212</v>
       </c>
       <c r="L6">
-        <v>0.7913117449475887</v>
+        <v>0.6966853087318212</v>
       </c>
       <c r="M6">
-        <v>0.8378005332607328</v>
+        <v>0.7559392833372667</v>
       </c>
       <c r="N6">
-        <v>0.8417725516582965</v>
+        <v>0.7833096918916508</v>
       </c>
       <c r="O6">
-        <v>0.9017057613739148</v>
+        <v>0.8526457140904392</v>
       </c>
       <c r="P6">
-        <v>0.9017057613739148</v>
+        <v>0.8706691559907184</v>
       </c>
       <c r="Q6">
-        <v>0.9017057613739148</v>
+        <v>0.8929823492567699</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.9910855238399483</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.9910855238399483</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.9910855238399483</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.9910855238399483</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.9910855238399483</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.9944011797756293</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9944011797756293</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9944011797756293</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9944011797756293</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9944011797756293</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9944011797756293</v>
       </c>
       <c r="AC6">
         <v>1</v>
@@ -3472,16 +3472,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5462560379032807</v>
+        <v>0.5070474443372348</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6785046248931885</v>
+        <v>0.5169321536739141</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3554,16 +3554,16 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5907201155982985</v>
+        <v>0.5259577592144644</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -3595,16 +3595,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.5295379941353908</v>
+      </c>
+      <c r="G5">
         <v>6</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5198206691911376</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -3636,16 +3636,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5473467145902667</v>
+        <v>0.6582750433576698</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -3731,16 +3731,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7133296512268481</v>
+        <v>0.7130489582468531</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -3772,16 +3772,16 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7355583518703475</v>
+        <v>0.7180133521119314</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -3813,16 +3813,16 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7072712073963964</v>
+        <v>0.7295500002352073</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7995789559783741</v>
+        <v>0.7780186256883849</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -3895,16 +3895,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7802311310963391</v>
+        <v>0.7559392833372667</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9009701861716108</v>
+        <v>0.8990997267897781</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -4031,16 +4031,16 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.82383152466186</v>
+        <v>0.8192485182097321</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8657566600655175</v>
+        <v>0.8750409084611804</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8472909396942028</v>
+        <v>0.839026579020363</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -4154,16 +4154,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8378005332607328</v>
+        <v>0.8526457140904392</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -4249,16 +4249,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9905066642058236</v>
+      </c>
+      <c r="G2">
         <v>15</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9009701861716108</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -4290,16 +4290,16 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9012791628841135</v>
+        <v>0.9149410951219044</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9999999999999998</v>
+        <v>0.9989514291019876</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.9791000451966371</v>
       </c>
       <c r="G5">
         <v>16</v>
@@ -4413,16 +4413,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9017057613739148</v>
+        <v>0.9910855238399483</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>52</v>
